--- a/Sources/Paises.xlsx
+++ b/Sources/Paises.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nuria\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\PowerBI_Covid\Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160F02EA-E53A-471E-8C8D-73B342AE9616}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372" activeTab="1"/>
+    <workbookView xWindow="4050" yWindow="285" windowWidth="20490" windowHeight="15915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,10 +19,18 @@
     <sheet name="MP200pmillon" sheetId="3" r:id="rId4"/>
     <sheet name="MP500pmillon" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -177,7 +186,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -215,7 +224,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -224,10 +233,11 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -243,9 +253,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -257,7 +267,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -283,7 +292,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -335,6 +344,11 @@
               </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-2A41-4DC2-8406-11A6ED7132E7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:xVal>
             <c:numRef>
@@ -681,10 +695,21 @@
                 <c:pt idx="51">
                   <c:v>117710</c:v>
                 </c:pt>
+                <c:pt idx="52">
+                  <c:v>124736</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>130759</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2A41-4DC2-8406-11A6ED7132E7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1084,10 +1109,24 @@
                 <c:pt idx="49">
                   <c:v>13614</c:v>
                 </c:pt>
+                <c:pt idx="50">
+                  <c:v>13614</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>15723</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>16627</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2A41-4DC2-8406-11A6ED7132E7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1131,6 +1170,11 @@
               </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-2A41-4DC2-8406-11A6ED7132E7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:xVal>
             <c:numRef>
@@ -1305,10 +1349,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$55</c:f>
+              <c:f>Sheet1!$D$2:$D$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -1461,11 +1505,22 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>115242</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>119827</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>124632</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2A41-4DC2-8406-11A6ED7132E7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1847,10 +1902,24 @@
                 <c:pt idx="49">
                   <c:v>73522</c:v>
                 </c:pt>
+                <c:pt idx="50">
+                  <c:v>73522</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>79696</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>85778</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-2A41-4DC2-8406-11A6ED7132E7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -1894,6 +1963,11 @@
               </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-2A41-4DC2-8406-11A6ED7132E7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:xVal>
             <c:numRef>
@@ -2252,10 +2326,21 @@
                 <c:pt idx="50">
                   <c:v>59105</c:v>
                 </c:pt>
+                <c:pt idx="51">
+                  <c:v>64338</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>68605</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-2A41-4DC2-8406-11A6ED7132E7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -2658,10 +2743,21 @@
                 <c:pt idx="50">
                   <c:v>33718</c:v>
                 </c:pt>
+                <c:pt idx="51">
+                  <c:v>38168</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>41903</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-2A41-4DC2-8406-11A6ED7132E7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -2762,7 +2858,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$40:$H$47</c:f>
+              <c:f>Sheet1!$H$41:$H$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2794,6 +2890,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-2A41-4DC2-8406-11A6ED7132E7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2861,7 +2962,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-466491120"/>
@@ -2924,7 +3025,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-466484048"/>
@@ -2941,7 +3042,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2967,7 +3067,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2997,7 +3097,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3009,9 +3109,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3023,7 +3123,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3049,7 +3148,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3253,6 +3352,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C2B8-49E8-B282-B9D73C506EF9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3320,7 +3424,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-466487312"/>
@@ -3382,7 +3486,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-466488400"/>
@@ -3423,7 +3527,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3435,9 +3539,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3449,7 +3553,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3475,7 +3578,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3545,6 +3648,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C9BA-49C4-A6F4-2221ADF479D7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3605,6 +3713,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C9BA-49C4-A6F4-2221ADF479D7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3660,7 +3773,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-466486768"/>
@@ -3719,7 +3832,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-466482416"/>
@@ -3736,7 +3849,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3762,7 +3874,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3792,7 +3904,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3804,9 +3916,9 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3818,7 +3930,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3844,7 +3955,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4227,7 +4338,7 @@
                   <c:v>2522.717531075868</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0</c:v>
+                  <c:v>2802.3789112730392</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>0</c:v>
@@ -4257,6 +4368,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CE0E-46FB-BB58-D9138C5D1056}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4639,12 +4755,17 @@
                   <c:v>792.43306169965081</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>792.43306169965081</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CE0E-46FB-BB58-D9138C5D1056}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -5003,6 +5124,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CE0E-46FB-BB58-D9138C5D1056}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -5385,12 +5511,17 @@
                   <c:v>888.05411281555735</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>888.05411281555735</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-CE0E-46FB-BB58-D9138C5D1056}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -5776,6 +5907,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-CE0E-46FB-BB58-D9138C5D1056}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -6182,6 +6318,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-CE0E-46FB-BB58-D9138C5D1056}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -6329,15 +6470,20 @@
                   <c:v>568.76833740831296</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>651.41809290953552</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-CE0E-46FB-BB58-D9138C5D1056}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -6406,7 +6552,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-506307184"/>
@@ -6469,7 +6615,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-466483504"/>
@@ -6486,7 +6632,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6512,7 +6657,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6542,7 +6687,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6554,9 +6699,9 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6568,7 +6713,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6594,7 +6738,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6980,6 +7124,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F8A1-4C6C-97A5-810688E00B2C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -7365,12 +7514,17 @@
                   <c:v>792.43306169965081</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>792.43306169965081</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F8A1-4C6C-97A5-810688E00B2C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -7732,6 +7886,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F8A1-4C6C-97A5-810688E00B2C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -8114,12 +8273,17 @@
                   <c:v>888.05411281555735</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>888.05411281555735</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F8A1-4C6C-97A5-810688E00B2C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -8508,6 +8672,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F8A1-4C6C-97A5-810688E00B2C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -8914,6 +9083,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-F8A1-4C6C-97A5-810688E00B2C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -9052,15 +9226,20 @@
                   <c:v>568.76833740831296</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>651.41809290953552</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-F8A1-4C6C-97A5-810688E00B2C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -9129,7 +9308,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-666786224"/>
@@ -9192,7 +9371,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-506304464"/>
@@ -9209,7 +9388,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9235,7 +9413,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9265,7 +9443,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9277,9 +9455,9 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9291,7 +9469,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9317,7 +9494,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9658,6 +9835,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E793-406E-B572-319052D6B66B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -9980,12 +10162,17 @@
                   <c:v>792.43306169965081</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>792.43306169965081</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E793-406E-B572-319052D6B66B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -10344,6 +10531,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E793-406E-B572-319052D6B66B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -10651,12 +10843,17 @@
                   <c:v>888.05411281555735</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>888.05411281555735</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E793-406E-B572-319052D6B66B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -10967,6 +11164,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E793-406E-B572-319052D6B66B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -11220,6 +11422,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-E793-406E-B572-319052D6B66B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -11397,15 +11604,20 @@
                   <c:v>568.76833740831296</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>651.41809290953552</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-E793-406E-B572-319052D6B66B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -11474,7 +11686,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-466486224"/>
@@ -11537,7 +11749,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-666790576"/>
@@ -11554,7 +11766,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11580,7 +11791,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -11610,7 +11821,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -14961,7 +15172,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -14991,7 +15208,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -15026,7 +15249,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -15061,7 +15290,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -15098,7 +15333,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -15135,7 +15376,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -15417,21 +15664,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL70"/>
   <sheetViews>
-    <sheetView topLeftCell="R3" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AF41" sqref="AF41"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41:H51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>3</v>
       </c>
@@ -15457,7 +15704,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43873</v>
       </c>
@@ -15496,7 +15743,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43874</v>
       </c>
@@ -15538,7 +15785,7 @@
         <v>0.5625</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43875</v>
       </c>
@@ -15580,7 +15827,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43876</v>
       </c>
@@ -15616,7 +15863,7 @@
       <c r="AB5" s="3"/>
       <c r="AD5" s="2"/>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43877</v>
       </c>
@@ -15655,7 +15902,7 @@
       </c>
       <c r="AD6" s="2"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43878</v>
       </c>
@@ -15697,7 +15944,7 @@
       </c>
       <c r="AD7" s="2"/>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43879</v>
       </c>
@@ -15746,7 +15993,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43880</v>
       </c>
@@ -15795,7 +16042,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43881</v>
       </c>
@@ -15844,7 +16091,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43882</v>
       </c>
@@ -15897,7 +16144,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43883</v>
       </c>
@@ -15936,7 +16183,7 @@
       </c>
       <c r="AD12" s="2"/>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43884</v>
       </c>
@@ -15975,7 +16222,7 @@
       </c>
       <c r="AD13" s="2"/>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43885</v>
       </c>
@@ -16026,7 +16273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43886</v>
       </c>
@@ -16083,7 +16330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43887</v>
       </c>
@@ -16143,7 +16390,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43888</v>
       </c>
@@ -16210,7 +16457,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43889</v>
       </c>
@@ -16277,7 +16524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43890</v>
       </c>
@@ -16341,7 +16588,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43891</v>
       </c>
@@ -16412,7 +16659,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43892</v>
       </c>
@@ -16486,7 +16733,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43893</v>
       </c>
@@ -16560,7 +16807,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43894</v>
       </c>
@@ -16634,7 +16881,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43895</v>
       </c>
@@ -16708,7 +16955,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43896</v>
       </c>
@@ -16783,7 +17030,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43897</v>
       </c>
@@ -16854,7 +17101,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43898</v>
       </c>
@@ -16926,7 +17173,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43899</v>
       </c>
@@ -17000,7 +17247,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43900</v>
       </c>
@@ -17074,7 +17321,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43901</v>
       </c>
@@ -17148,7 +17395,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43902</v>
       </c>
@@ -17222,7 +17469,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43903</v>
       </c>
@@ -17296,7 +17543,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43904</v>
       </c>
@@ -17371,7 +17618,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43905</v>
       </c>
@@ -17445,7 +17692,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43906</v>
       </c>
@@ -17519,7 +17766,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43907</v>
       </c>
@@ -17593,7 +17840,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43908</v>
       </c>
@@ -17664,10 +17911,10 @@
         <v>43921</v>
       </c>
       <c r="AL37">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43909</v>
       </c>
@@ -17738,10 +17985,10 @@
         <v>43922</v>
       </c>
       <c r="AL38">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43910</v>
       </c>
@@ -17809,10 +18056,10 @@
         <v>43923</v>
       </c>
       <c r="AL39">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43911</v>
       </c>
@@ -17833,9 +18080,6 @@
       </c>
       <c r="G40">
         <v>5018</v>
-      </c>
-      <c r="H40">
-        <v>15219</v>
       </c>
       <c r="Y40">
         <v>105792</v>
@@ -17864,8 +18108,14 @@
         <f t="shared" si="26"/>
         <v>-94417</v>
       </c>
-    </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AK40" s="1">
+        <v>43924</v>
+      </c>
+      <c r="AL40">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43912</v>
       </c>
@@ -17887,8 +18137,8 @@
       <c r="G41">
         <v>5683</v>
       </c>
-      <c r="H41">
-        <v>33404</v>
+      <c r="H41" s="8">
+        <v>15219</v>
       </c>
       <c r="Y41">
         <v>110574</v>
@@ -17917,8 +18167,14 @@
         <f t="shared" si="26"/>
         <v>-102136</v>
       </c>
-    </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AK41" s="1">
+        <v>43925</v>
+      </c>
+      <c r="AL41">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43913</v>
       </c>
@@ -17940,11 +18196,17 @@
       <c r="G42">
         <v>6650</v>
       </c>
-      <c r="H42">
-        <v>44183</v>
-      </c>
-    </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="H42" s="8">
+        <v>33404</v>
+      </c>
+      <c r="AK42" s="1">
+        <v>43926</v>
+      </c>
+      <c r="AL42">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43914</v>
       </c>
@@ -17966,11 +18228,11 @@
       <c r="G43">
         <v>8077</v>
       </c>
-      <c r="H43">
-        <v>54453</v>
-      </c>
-    </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="H43" s="8">
+        <v>44183</v>
+      </c>
+    </row>
+    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43915</v>
       </c>
@@ -17992,11 +18254,11 @@
       <c r="G44">
         <v>9529</v>
       </c>
-      <c r="H44">
-        <v>68440</v>
-      </c>
-    </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="H44" s="8">
+        <v>54453</v>
+      </c>
+    </row>
+    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43916</v>
       </c>
@@ -18018,11 +18280,11 @@
       <c r="G45">
         <v>11658</v>
       </c>
-      <c r="H45">
-        <v>85356</v>
-      </c>
-    </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="H45" s="8">
+        <v>68440</v>
+      </c>
+    </row>
+    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43917</v>
       </c>
@@ -18044,11 +18306,11 @@
       <c r="G46">
         <v>14543</v>
       </c>
-      <c r="H46">
-        <v>103321</v>
-      </c>
-    </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="H46" s="8">
+        <v>85356</v>
+      </c>
+    </row>
+    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43918</v>
       </c>
@@ -18070,11 +18332,11 @@
       <c r="G47">
         <v>17089</v>
       </c>
-      <c r="H47">
-        <v>124665</v>
-      </c>
-    </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="H47" s="8">
+        <v>103321</v>
+      </c>
+    </row>
+    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43919</v>
       </c>
@@ -18096,11 +18358,11 @@
       <c r="G48">
         <v>19522</v>
       </c>
-      <c r="H48">
-        <v>143025</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H48" s="8">
+        <v>124665</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43920</v>
       </c>
@@ -18122,11 +18384,11 @@
       <c r="G49">
         <v>22141</v>
       </c>
-      <c r="H49">
-        <v>163539</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H49" s="8">
+        <v>143025</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43921</v>
       </c>
@@ -18148,11 +18410,11 @@
       <c r="G50">
         <v>25150</v>
       </c>
-      <c r="H50">
-        <v>186101</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H50" s="8">
+        <v>163539</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43922</v>
       </c>
@@ -18174,141 +18436,193 @@
       <c r="G51">
         <v>29474</v>
       </c>
-      <c r="H51">
-        <v>213144</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H51" s="8">
+        <v>186101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43923</v>
       </c>
       <c r="B52">
         <v>110238</v>
       </c>
+      <c r="C52">
+        <v>13614</v>
+      </c>
       <c r="D52">
         <v>115242</v>
       </c>
+      <c r="E52">
+        <v>73522</v>
+      </c>
       <c r="F52">
         <v>59105</v>
       </c>
       <c r="G52">
         <v>33718</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H52">
+        <v>213144</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>43924</v>
       </c>
       <c r="B53">
         <v>117710</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C53">
+        <v>15723</v>
+      </c>
+      <c r="D53">
+        <v>119827</v>
+      </c>
+      <c r="E53">
+        <v>79696</v>
+      </c>
+      <c r="F53">
+        <v>64338</v>
+      </c>
+      <c r="G53">
+        <v>38168</v>
+      </c>
+      <c r="H53">
+        <v>239279</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>43925</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <v>124736</v>
+      </c>
+      <c r="C54">
+        <v>16627</v>
+      </c>
+      <c r="D54">
+        <v>124632</v>
+      </c>
+      <c r="E54">
+        <v>85778</v>
+      </c>
+      <c r="F54">
+        <v>68605</v>
+      </c>
+      <c r="G54">
+        <v>41903</v>
+      </c>
+      <c r="H54">
+        <v>277205</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>43926</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <v>130759</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>43927</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>43928</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>43929</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>43930</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>43931</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>43932</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>43933</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>43934</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>43935</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>43936</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>43937</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>43938</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>43939</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>43940</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>43941</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="68" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="68" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="8.88671875" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" customWidth="1"/>
     <col min="20" max="20" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -18322,7 +18636,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -18354,7 +18668,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -18436,7 +18750,7 @@
         <v>0.7261574756708935</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
@@ -18518,7 +18832,7 @@
         <v>0.16119138897080504</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -18600,7 +18914,7 @@
         <v>0.11265113535830137</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -18660,7 +18974,7 @@
         <v>16565.000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -18704,7 +19018,7 @@
         <v>0.16119138897080504</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -18748,7 +19062,7 @@
         <v>0.11265113535830137</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -18803,7 +19117,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -18863,7 +19177,7 @@
         <v>94.91293272537817</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -18919,7 +19233,7 @@
         <v>252.47520218373623</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -18985,7 +19299,7 @@
         <v>0.82120201603482734</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B13">
         <f>SUM(B3:B12)</f>
         <v>17116</v>
@@ -19015,7 +19329,7 @@
         <v>0.17935222317899052</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="Y14" s="2"/>
     </row>
   </sheetData>
@@ -19025,24 +19339,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AJ70"/>
   <sheetViews>
-    <sheetView topLeftCell="F6" zoomScale="84" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="F19" zoomScale="84" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Y37" sqref="Y37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.77734375" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>33</v>
       </c>
@@ -19068,7 +19382,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -19115,7 +19429,7 @@
         <v>0.12040939193257075</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -19164,7 +19478,7 @@
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -19213,7 +19527,7 @@
       <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -19262,7 +19576,7 @@
       <c r="AG5" s="2"/>
       <c r="AH5" s="2"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -19311,7 +19625,7 @@
       <c r="AG6" s="2"/>
       <c r="AH6" s="2"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -19361,7 +19675,7 @@
       <c r="AH7" s="2"/>
       <c r="AJ7" s="2"/>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -19411,7 +19725,7 @@
       <c r="AH8" s="2"/>
       <c r="AJ8" s="2"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -19461,7 +19775,7 @@
       <c r="AH9" s="2"/>
       <c r="AJ9" s="2"/>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -19511,7 +19825,7 @@
       <c r="AH10" s="2"/>
       <c r="AJ10" s="2"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -19559,7 +19873,7 @@
       </c>
       <c r="AJ11" s="2"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -19607,7 +19921,7 @@
       </c>
       <c r="AJ12" s="2"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -19655,7 +19969,7 @@
       </c>
       <c r="AJ13" s="2"/>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -19703,7 +20017,7 @@
       </c>
       <c r="AJ14" s="2"/>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -19751,7 +20065,7 @@
       </c>
       <c r="AJ15" s="2"/>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -19799,7 +20113,7 @@
       </c>
       <c r="AJ16" s="2"/>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -19847,7 +20161,7 @@
       </c>
       <c r="AJ17" s="2"/>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -19895,7 +20209,7 @@
       </c>
       <c r="AJ18" s="2"/>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -19936,7 +20250,7 @@
       </c>
       <c r="AJ19" s="2"/>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -19979,7 +20293,7 @@
       <c r="AH20" s="2"/>
       <c r="AJ20" s="2"/>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -20029,7 +20343,7 @@
       <c r="AH21" s="3"/>
       <c r="AJ21" s="2"/>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -20079,7 +20393,7 @@
       <c r="AH22" s="3"/>
       <c r="AJ22" s="2"/>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -20129,7 +20443,7 @@
       <c r="AH23" s="3"/>
       <c r="AJ23" s="2"/>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -20179,7 +20493,7 @@
       <c r="AH24" s="3"/>
       <c r="AJ24" s="2"/>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -20230,7 +20544,7 @@
       <c r="AH25" s="3"/>
       <c r="AJ25" s="2"/>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>25</v>
       </c>
@@ -20273,7 +20587,7 @@
       <c r="AH26" s="3"/>
       <c r="AJ26" s="2"/>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -20317,7 +20631,7 @@
       <c r="AH27" s="3"/>
       <c r="AJ27" s="2"/>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>27</v>
       </c>
@@ -20367,7 +20681,7 @@
       <c r="AH28" s="3"/>
       <c r="AJ28" s="2"/>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>28</v>
       </c>
@@ -20417,7 +20731,7 @@
       <c r="AH29" s="3"/>
       <c r="AJ29" s="2"/>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>29</v>
       </c>
@@ -20467,7 +20781,7 @@
       <c r="AH30" s="3"/>
       <c r="AJ30" s="2"/>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>30</v>
       </c>
@@ -20517,7 +20831,7 @@
       <c r="AH31" s="3"/>
       <c r="AJ31" s="2"/>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>31</v>
       </c>
@@ -20567,7 +20881,7 @@
       <c r="AH32" s="3"/>
       <c r="AJ32" s="2"/>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>32</v>
       </c>
@@ -20618,7 +20932,7 @@
       <c r="AH33" s="3"/>
       <c r="AJ33" s="2"/>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>33</v>
       </c>
@@ -20668,7 +20982,7 @@
       <c r="AH34" s="3"/>
       <c r="AJ34" s="2"/>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>34</v>
       </c>
@@ -20718,7 +21032,7 @@
       <c r="AH35" s="3"/>
       <c r="AJ35" s="2"/>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>35</v>
       </c>
@@ -20768,7 +21082,7 @@
       <c r="AH36" s="3"/>
       <c r="AJ36" s="2"/>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>36</v>
       </c>
@@ -20818,7 +21132,7 @@
       <c r="AH37" s="3"/>
       <c r="AJ37" s="2"/>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>37</v>
       </c>
@@ -20868,7 +21182,7 @@
       <c r="AH38" s="3"/>
       <c r="AJ38" s="2"/>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>38</v>
       </c>
@@ -20918,7 +21232,7 @@
       <c r="AH39" s="3"/>
       <c r="AJ39" s="2"/>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>39</v>
       </c>
@@ -20975,7 +21289,7 @@
       <c r="AH40" s="3"/>
       <c r="AJ40" s="2"/>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>40</v>
       </c>
@@ -21032,7 +21346,7 @@
       <c r="AH41" s="3"/>
       <c r="AJ41" s="2"/>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>41</v>
       </c>
@@ -21089,7 +21403,7 @@
       <c r="AH42" s="3"/>
       <c r="AJ42" s="2"/>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>42</v>
       </c>
@@ -21146,7 +21460,7 @@
       <c r="AH43" s="3"/>
       <c r="AJ43" s="2"/>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>43</v>
       </c>
@@ -21203,7 +21517,7 @@
       <c r="AH44" s="3"/>
       <c r="AJ44" s="2"/>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>44</v>
       </c>
@@ -21260,7 +21574,7 @@
       <c r="AH45" s="3"/>
       <c r="AJ45" s="2"/>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>45</v>
       </c>
@@ -21322,7 +21636,7 @@
       <c r="AH46" s="3"/>
       <c r="AJ46" s="2"/>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>46</v>
       </c>
@@ -21385,7 +21699,7 @@
       <c r="AH47" s="3"/>
       <c r="AJ47" s="2"/>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>47</v>
       </c>
@@ -21438,7 +21752,7 @@
         <v>293.82901866345577</v>
       </c>
       <c r="N48">
-        <f>Sheet1!H48</f>
+        <f>Sheet1!H49</f>
         <v>143025</v>
       </c>
       <c r="O48">
@@ -21449,7 +21763,7 @@
       <c r="AH48" s="3"/>
       <c r="AJ48" s="2"/>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>48</v>
       </c>
@@ -21502,7 +21816,7 @@
         <v>333.2480433473811</v>
       </c>
       <c r="N49">
-        <f>Sheet1!H49</f>
+        <f>Sheet1!H50</f>
         <v>163539</v>
       </c>
       <c r="O49">
@@ -21513,7 +21827,7 @@
       <c r="AH49" s="3"/>
       <c r="AJ49" s="2"/>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>49</v>
       </c>
@@ -21566,7 +21880,7 @@
         <v>378.53702588801929</v>
       </c>
       <c r="N50">
-        <f>Sheet1!H50</f>
+        <f>Sheet1!H51</f>
         <v>186101</v>
       </c>
       <c r="O50">
@@ -21577,7 +21891,7 @@
       <c r="AH50" s="3"/>
       <c r="AJ50" s="2"/>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>50</v>
       </c>
@@ -21629,19 +21943,19 @@
         <f t="shared" si="5"/>
         <v>443.61830222757379</v>
       </c>
-      <c r="N51">
-        <f>Sheet1!H51</f>
-        <v>213144</v>
-      </c>
-      <c r="O51">
+      <c r="N51" t="e">
+        <f>Sheet1!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O51" t="e">
         <f t="shared" si="6"/>
-        <v>651.41809290953552</v>
+        <v>#REF!</v>
       </c>
       <c r="AG51" s="2"/>
       <c r="AH51" s="3"/>
       <c r="AJ51" s="2"/>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
         <v>51</v>
       </c>
@@ -21655,11 +21969,11 @@
       </c>
       <c r="D52">
         <f>Sheet1!C52</f>
-        <v>0</v>
+        <v>13614</v>
       </c>
       <c r="E52">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>792.43306169965081</v>
       </c>
       <c r="F52">
         <f>Sheet1!D52</f>
@@ -21671,11 +21985,11 @@
       </c>
       <c r="H52">
         <f>Sheet1!E52</f>
-        <v>0</v>
+        <v>73522</v>
       </c>
       <c r="I52">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>888.05411281555735</v>
       </c>
       <c r="J52">
         <f>Sheet1!F52</f>
@@ -21695,16 +22009,16 @@
       </c>
       <c r="N52">
         <f>Sheet1!H52</f>
-        <v>0</v>
+        <v>213144</v>
       </c>
       <c r="O52">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>651.41809290953552</v>
       </c>
       <c r="AG52" s="2"/>
       <c r="AH52" s="3"/>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>52</v>
       </c>
@@ -21718,100 +22032,100 @@
       </c>
       <c r="D53">
         <f>Sheet1!C53</f>
-        <v>0</v>
+        <v>15723</v>
       </c>
       <c r="F53">
         <f>Sheet1!D53</f>
-        <v>0</v>
-      </c>
-      <c r="H53">
+        <v>119827</v>
+      </c>
+      <c r="H53" t="e">
+        <f>Sheet1!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J53">
         <f>Sheet1!E53</f>
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <f>Sheet1!F53</f>
-        <v>0</v>
+        <v>79696</v>
       </c>
       <c r="L53">
         <f>Sheet1!G53</f>
-        <v>0</v>
+        <v>38168</v>
       </c>
       <c r="N53">
         <f>Sheet1!H53</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.3">
+        <v>239279</v>
+      </c>
+    </row>
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <v>53</v>
       </c>
       <c r="B54">
         <f>Sheet1!B54</f>
-        <v>0</v>
+        <v>124736</v>
       </c>
       <c r="D54">
         <f>Sheet1!C54</f>
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <f>Sheet1!D54</f>
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <f>Sheet1!E54</f>
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <f>Sheet1!F54</f>
-        <v>0</v>
-      </c>
-      <c r="L54">
-        <f>Sheet1!G54</f>
-        <v>0</v>
+        <v>16627</v>
+      </c>
+      <c r="F54" t="e">
+        <f>Sheet1!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H54" t="e">
+        <f>Sheet1!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J54" t="e">
+        <f>Sheet1!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L54" t="e">
+        <f>Sheet1!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="N54">
         <f>Sheet1!H54</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.3">
+        <v>277205</v>
+      </c>
+    </row>
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>54</v>
       </c>
       <c r="B55">
         <f>Sheet1!B55</f>
-        <v>0</v>
+        <v>130759</v>
       </c>
       <c r="C55">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2802.3789112730392</v>
       </c>
       <c r="D55">
         <f>Sheet1!C55</f>
         <v>0</v>
       </c>
       <c r="F55">
-        <f>Sheet1!D55</f>
-        <v>0</v>
+        <f>Sheet1!D54</f>
+        <v>124632</v>
       </c>
       <c r="H55">
-        <f>Sheet1!E55</f>
-        <v>0</v>
+        <f>Sheet1!E54</f>
+        <v>85778</v>
       </c>
       <c r="J55">
-        <f>Sheet1!F55</f>
-        <v>0</v>
+        <f>Sheet1!F54</f>
+        <v>68605</v>
       </c>
       <c r="L55">
-        <f>Sheet1!G55</f>
-        <v>0</v>
+        <f>Sheet1!G54</f>
+        <v>41903</v>
       </c>
       <c r="N55">
         <f>Sheet1!H55</f>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
         <v>55</v>
       </c>
@@ -21848,7 +22162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>56</v>
       </c>
@@ -21885,7 +22199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58" s="7">
         <v>57</v>
       </c>
@@ -21922,7 +22236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
         <v>58</v>
       </c>
@@ -21959,7 +22273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A60" s="7">
         <v>59</v>
       </c>
@@ -21996,7 +22310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
         <v>60</v>
       </c>
@@ -22033,7 +22347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A62" s="7">
         <v>61</v>
       </c>
@@ -22070,7 +22384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A63" s="7">
         <v>62</v>
       </c>
@@ -22107,7 +22421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A64" s="7">
         <v>63</v>
       </c>
@@ -22144,7 +22458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="7">
         <v>64</v>
       </c>
@@ -22181,7 +22495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="7">
         <v>65</v>
       </c>
@@ -22218,7 +22532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="7">
         <v>66</v>
       </c>
@@ -22255,7 +22569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="7">
         <v>67</v>
       </c>
@@ -22292,7 +22606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="7">
         <v>68</v>
       </c>
@@ -22329,7 +22643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="7">
         <v>69</v>
       </c>
@@ -22373,24 +22687,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AJ70"/>
   <sheetViews>
     <sheetView topLeftCell="E2" zoomScale="71" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C52" sqref="C52:C53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.77734375" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>33</v>
       </c>
@@ -22416,7 +22730,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -22463,7 +22777,7 @@
         <v>0.12040939193257075</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -22512,7 +22826,7 @@
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -22561,7 +22875,7 @@
       <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -22610,7 +22924,7 @@
       <c r="AG5" s="2"/>
       <c r="AH5" s="2"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -22659,7 +22973,7 @@
       <c r="AG6" s="2"/>
       <c r="AH6" s="2"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -22709,7 +23023,7 @@
       <c r="AH7" s="2"/>
       <c r="AJ7" s="2"/>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -22759,7 +23073,7 @@
       <c r="AH8" s="2"/>
       <c r="AJ8" s="2"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -22809,7 +23123,7 @@
       <c r="AH9" s="2"/>
       <c r="AJ9" s="2"/>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -22859,7 +23173,7 @@
       <c r="AH10" s="2"/>
       <c r="AJ10" s="2"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -22907,7 +23221,7 @@
       </c>
       <c r="AJ11" s="2"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -22955,7 +23269,7 @@
       </c>
       <c r="AJ12" s="2"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -23003,7 +23317,7 @@
       </c>
       <c r="AJ13" s="2"/>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -23051,7 +23365,7 @@
       </c>
       <c r="AJ14" s="2"/>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -23099,7 +23413,7 @@
       </c>
       <c r="AJ15" s="2"/>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -23147,7 +23461,7 @@
       </c>
       <c r="AJ16" s="2"/>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -23195,7 +23509,7 @@
       </c>
       <c r="AJ17" s="2"/>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -23243,7 +23557,7 @@
       </c>
       <c r="AJ18" s="2"/>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -23284,7 +23598,7 @@
       </c>
       <c r="AJ19" s="2"/>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -23327,7 +23641,7 @@
       <c r="AH20" s="2"/>
       <c r="AJ20" s="2"/>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -23377,7 +23691,7 @@
       <c r="AH21" s="3"/>
       <c r="AJ21" s="2"/>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -23427,7 +23741,7 @@
       <c r="AH22" s="3"/>
       <c r="AJ22" s="2"/>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -23477,7 +23791,7 @@
       <c r="AH23" s="3"/>
       <c r="AJ23" s="2"/>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -23527,7 +23841,7 @@
       <c r="AH24" s="3"/>
       <c r="AJ24" s="2"/>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -23578,7 +23892,7 @@
       <c r="AH25" s="3"/>
       <c r="AJ25" s="2"/>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>25</v>
       </c>
@@ -23621,7 +23935,7 @@
       <c r="AH26" s="3"/>
       <c r="AJ26" s="2"/>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -23665,7 +23979,7 @@
       <c r="AH27" s="3"/>
       <c r="AJ27" s="2"/>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>27</v>
       </c>
@@ -23715,7 +24029,7 @@
       <c r="AH28" s="3"/>
       <c r="AJ28" s="2"/>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>28</v>
       </c>
@@ -23765,7 +24079,7 @@
       <c r="AH29" s="3"/>
       <c r="AJ29" s="2"/>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>29</v>
       </c>
@@ -23815,7 +24129,7 @@
       <c r="AH30" s="3"/>
       <c r="AJ30" s="2"/>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>30</v>
       </c>
@@ -23865,7 +24179,7 @@
       <c r="AH31" s="3"/>
       <c r="AJ31" s="2"/>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>31</v>
       </c>
@@ -23915,7 +24229,7 @@
       <c r="AH32" s="3"/>
       <c r="AJ32" s="2"/>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>32</v>
       </c>
@@ -23966,7 +24280,7 @@
       <c r="AH33" s="3"/>
       <c r="AJ33" s="2"/>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>33</v>
       </c>
@@ -24016,7 +24330,7 @@
       <c r="AH34" s="3"/>
       <c r="AJ34" s="2"/>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>34</v>
       </c>
@@ -24066,7 +24380,7 @@
       <c r="AH35" s="3"/>
       <c r="AJ35" s="2"/>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>35</v>
       </c>
@@ -24116,7 +24430,7 @@
       <c r="AH36" s="3"/>
       <c r="AJ36" s="2"/>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>36</v>
       </c>
@@ -24166,7 +24480,7 @@
       <c r="AH37" s="3"/>
       <c r="AJ37" s="2"/>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>37</v>
       </c>
@@ -24216,7 +24530,7 @@
       <c r="AH38" s="3"/>
       <c r="AJ38" s="2"/>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>38</v>
       </c>
@@ -24266,7 +24580,7 @@
       <c r="AH39" s="3"/>
       <c r="AJ39" s="2"/>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>39</v>
       </c>
@@ -24323,7 +24637,7 @@
       <c r="AH40" s="3"/>
       <c r="AJ40" s="2"/>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>40</v>
       </c>
@@ -24380,7 +24694,7 @@
       <c r="AH41" s="3"/>
       <c r="AJ41" s="2"/>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>41</v>
       </c>
@@ -24437,7 +24751,7 @@
       <c r="AH42" s="3"/>
       <c r="AJ42" s="2"/>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>42</v>
       </c>
@@ -24494,7 +24808,7 @@
       <c r="AH43" s="3"/>
       <c r="AJ43" s="2"/>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>43</v>
       </c>
@@ -24551,7 +24865,7 @@
       <c r="AH44" s="3"/>
       <c r="AJ44" s="2"/>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>44</v>
       </c>
@@ -24608,7 +24922,7 @@
       <c r="AH45" s="3"/>
       <c r="AJ45" s="2"/>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>45</v>
       </c>
@@ -24670,7 +24984,7 @@
       <c r="AH46" s="3"/>
       <c r="AJ46" s="2"/>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>46</v>
       </c>
@@ -24733,7 +25047,7 @@
       <c r="AH47" s="3"/>
       <c r="AJ47" s="2"/>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>47</v>
       </c>
@@ -24786,7 +25100,7 @@
         <v>293.82901866345577</v>
       </c>
       <c r="N48">
-        <f>Sheet1!H48</f>
+        <f>Sheet1!H49</f>
         <v>143025</v>
       </c>
       <c r="O48">
@@ -24797,7 +25111,7 @@
       <c r="AH48" s="3"/>
       <c r="AJ48" s="2"/>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>48</v>
       </c>
@@ -24850,7 +25164,7 @@
         <v>333.2480433473811</v>
       </c>
       <c r="N49">
-        <f>Sheet1!H49</f>
+        <f>Sheet1!H50</f>
         <v>163539</v>
       </c>
       <c r="O49">
@@ -24861,7 +25175,7 @@
       <c r="AH49" s="3"/>
       <c r="AJ49" s="2"/>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>49</v>
       </c>
@@ -24914,7 +25228,7 @@
         <v>378.53702588801929</v>
       </c>
       <c r="N50">
-        <f>Sheet1!H50</f>
+        <f>Sheet1!H51</f>
         <v>186101</v>
       </c>
       <c r="O50">
@@ -24925,7 +25239,7 @@
       <c r="AH50" s="3"/>
       <c r="AJ50" s="2"/>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>50</v>
       </c>
@@ -24977,19 +25291,19 @@
         <f t="shared" si="5"/>
         <v>443.61830222757379</v>
       </c>
-      <c r="N51">
-        <f>Sheet1!H51</f>
-        <v>213144</v>
-      </c>
-      <c r="O51">
+      <c r="N51" t="e">
+        <f>Sheet1!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O51" t="e">
         <f t="shared" si="6"/>
-        <v>651.41809290953552</v>
+        <v>#REF!</v>
       </c>
       <c r="AG51" s="2"/>
       <c r="AH51" s="3"/>
       <c r="AJ51" s="2"/>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
         <v>51</v>
       </c>
@@ -25003,11 +25317,11 @@
       </c>
       <c r="D52">
         <f>Sheet1!C52</f>
-        <v>0</v>
+        <v>13614</v>
       </c>
       <c r="E52">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>792.43306169965081</v>
       </c>
       <c r="F52">
         <f>Sheet1!D52</f>
@@ -25019,11 +25333,11 @@
       </c>
       <c r="H52">
         <f>Sheet1!E52</f>
-        <v>0</v>
+        <v>73522</v>
       </c>
       <c r="I52">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>888.05411281555735</v>
       </c>
       <c r="J52">
         <f>Sheet1!F52</f>
@@ -25043,16 +25357,16 @@
       </c>
       <c r="N52">
         <f>Sheet1!H52</f>
-        <v>0</v>
+        <v>213144</v>
       </c>
       <c r="O52">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>651.41809290953552</v>
       </c>
       <c r="AG52" s="2"/>
       <c r="AH52" s="3"/>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>52</v>
       </c>
@@ -25066,96 +25380,96 @@
       </c>
       <c r="D53">
         <f>Sheet1!C53</f>
-        <v>0</v>
+        <v>15723</v>
       </c>
       <c r="F53">
         <f>Sheet1!D53</f>
-        <v>0</v>
-      </c>
-      <c r="H53">
+        <v>119827</v>
+      </c>
+      <c r="H53" t="e">
+        <f>Sheet1!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J53">
         <f>Sheet1!E53</f>
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <f>Sheet1!F53</f>
-        <v>0</v>
+        <v>79696</v>
       </c>
       <c r="L53">
         <f>Sheet1!G53</f>
-        <v>0</v>
+        <v>38168</v>
       </c>
       <c r="N53">
         <f>Sheet1!H53</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.3">
+        <v>239279</v>
+      </c>
+    </row>
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <v>53</v>
       </c>
       <c r="B54">
         <f>Sheet1!B54</f>
-        <v>0</v>
+        <v>124736</v>
       </c>
       <c r="D54">
         <f>Sheet1!C54</f>
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <f>Sheet1!D54</f>
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <f>Sheet1!E54</f>
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <f>Sheet1!F54</f>
-        <v>0</v>
-      </c>
-      <c r="L54">
-        <f>Sheet1!G54</f>
-        <v>0</v>
+        <v>16627</v>
+      </c>
+      <c r="F54" t="e">
+        <f>Sheet1!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H54" t="e">
+        <f>Sheet1!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J54" t="e">
+        <f>Sheet1!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L54" t="e">
+        <f>Sheet1!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="N54">
         <f>Sheet1!H54</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.3">
+        <v>277205</v>
+      </c>
+    </row>
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>54</v>
       </c>
       <c r="B55">
         <f>Sheet1!B55</f>
-        <v>0</v>
+        <v>130759</v>
       </c>
       <c r="D55">
         <f>Sheet1!C55</f>
         <v>0</v>
       </c>
       <c r="F55">
-        <f>Sheet1!D55</f>
-        <v>0</v>
+        <f>Sheet1!D54</f>
+        <v>124632</v>
       </c>
       <c r="H55">
-        <f>Sheet1!E55</f>
-        <v>0</v>
+        <f>Sheet1!E54</f>
+        <v>85778</v>
       </c>
       <c r="J55">
-        <f>Sheet1!F55</f>
-        <v>0</v>
+        <f>Sheet1!F54</f>
+        <v>68605</v>
       </c>
       <c r="L55">
-        <f>Sheet1!G55</f>
-        <v>0</v>
+        <f>Sheet1!G54</f>
+        <v>41903</v>
       </c>
       <c r="N55">
         <f>Sheet1!H55</f>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
         <v>55</v>
       </c>
@@ -25188,7 +25502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>56</v>
       </c>
@@ -25221,7 +25535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58" s="7">
         <v>57</v>
       </c>
@@ -25254,7 +25568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
         <v>58</v>
       </c>
@@ -25287,7 +25601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A60" s="7">
         <v>59</v>
       </c>
@@ -25320,7 +25634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
         <v>60</v>
       </c>
@@ -25353,7 +25667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A62" s="7">
         <v>61</v>
       </c>
@@ -25386,7 +25700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A63" s="7">
         <v>62</v>
       </c>
@@ -25419,7 +25733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A64" s="7">
         <v>63</v>
       </c>
@@ -25452,7 +25766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="7">
         <v>64</v>
       </c>
@@ -25485,7 +25799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="7">
         <v>65</v>
       </c>
@@ -25518,7 +25832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="7">
         <v>66</v>
       </c>
@@ -25551,7 +25865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="7">
         <v>67</v>
       </c>
@@ -25584,7 +25898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="7">
         <v>68</v>
       </c>
@@ -25617,7 +25931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="7">
         <v>69</v>
       </c>
@@ -25657,24 +25971,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AJ70"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScale="76" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O51" sqref="O51:O52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.77734375" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>43</v>
       </c>
@@ -25700,7 +26014,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -25747,7 +26061,7 @@
         <v>0.12040939193257075</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -25796,7 +26110,7 @@
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -25845,7 +26159,7 @@
       <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -25894,7 +26208,7 @@
       <c r="AG5" s="2"/>
       <c r="AH5" s="2"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -25943,7 +26257,7 @@
       <c r="AG6" s="2"/>
       <c r="AH6" s="2"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -25993,7 +26307,7 @@
       <c r="AH7" s="2"/>
       <c r="AJ7" s="2"/>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -26043,7 +26357,7 @@
       <c r="AH8" s="2"/>
       <c r="AJ8" s="2"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -26093,7 +26407,7 @@
       <c r="AH9" s="2"/>
       <c r="AJ9" s="2"/>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -26143,7 +26457,7 @@
       <c r="AH10" s="2"/>
       <c r="AJ10" s="2"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -26191,7 +26505,7 @@
       </c>
       <c r="AJ11" s="2"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -26239,7 +26553,7 @@
       </c>
       <c r="AJ12" s="2"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -26287,7 +26601,7 @@
       </c>
       <c r="AJ13" s="2"/>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -26335,7 +26649,7 @@
       </c>
       <c r="AJ14" s="2"/>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -26383,7 +26697,7 @@
       </c>
       <c r="AJ15" s="2"/>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -26431,7 +26745,7 @@
       </c>
       <c r="AJ16" s="2"/>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -26479,7 +26793,7 @@
       </c>
       <c r="AJ17" s="2"/>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -26527,7 +26841,7 @@
       </c>
       <c r="AJ18" s="2"/>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -26568,7 +26882,7 @@
       </c>
       <c r="AJ19" s="2"/>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -26611,7 +26925,7 @@
       <c r="AH20" s="2"/>
       <c r="AJ20" s="2"/>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -26661,7 +26975,7 @@
       <c r="AH21" s="3"/>
       <c r="AJ21" s="2"/>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -26711,7 +27025,7 @@
       <c r="AH22" s="3"/>
       <c r="AJ22" s="2"/>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -26761,7 +27075,7 @@
       <c r="AH23" s="3"/>
       <c r="AJ23" s="2"/>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -26811,7 +27125,7 @@
       <c r="AH24" s="3"/>
       <c r="AJ24" s="2"/>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -26862,7 +27176,7 @@
       <c r="AH25" s="3"/>
       <c r="AJ25" s="2"/>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>25</v>
       </c>
@@ -26905,7 +27219,7 @@
       <c r="AH26" s="3"/>
       <c r="AJ26" s="2"/>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -26949,7 +27263,7 @@
       <c r="AH27" s="3"/>
       <c r="AJ27" s="2"/>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>27</v>
       </c>
@@ -26999,7 +27313,7 @@
       <c r="AH28" s="3"/>
       <c r="AJ28" s="2"/>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>28</v>
       </c>
@@ -27049,7 +27363,7 @@
       <c r="AH29" s="3"/>
       <c r="AJ29" s="2"/>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>29</v>
       </c>
@@ -27099,7 +27413,7 @@
       <c r="AH30" s="3"/>
       <c r="AJ30" s="2"/>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>30</v>
       </c>
@@ -27149,7 +27463,7 @@
       <c r="AH31" s="3"/>
       <c r="AJ31" s="2"/>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>31</v>
       </c>
@@ -27199,7 +27513,7 @@
       <c r="AH32" s="3"/>
       <c r="AJ32" s="2"/>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>32</v>
       </c>
@@ -27250,7 +27564,7 @@
       <c r="AH33" s="3"/>
       <c r="AJ33" s="2"/>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>33</v>
       </c>
@@ -27300,7 +27614,7 @@
       <c r="AH34" s="3"/>
       <c r="AJ34" s="2"/>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>34</v>
       </c>
@@ -27350,7 +27664,7 @@
       <c r="AH35" s="3"/>
       <c r="AJ35" s="2"/>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>35</v>
       </c>
@@ -27400,7 +27714,7 @@
       <c r="AH36" s="3"/>
       <c r="AJ36" s="2"/>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>36</v>
       </c>
@@ -27450,7 +27764,7 @@
       <c r="AH37" s="3"/>
       <c r="AJ37" s="2"/>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>37</v>
       </c>
@@ -27500,7 +27814,7 @@
       <c r="AH38" s="3"/>
       <c r="AJ38" s="2"/>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>38</v>
       </c>
@@ -27550,7 +27864,7 @@
       <c r="AH39" s="3"/>
       <c r="AJ39" s="2"/>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>39</v>
       </c>
@@ -27607,7 +27921,7 @@
       <c r="AH40" s="3"/>
       <c r="AJ40" s="2"/>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>40</v>
       </c>
@@ -27664,7 +27978,7 @@
       <c r="AH41" s="3"/>
       <c r="AJ41" s="2"/>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>41</v>
       </c>
@@ -27721,7 +28035,7 @@
       <c r="AH42" s="3"/>
       <c r="AJ42" s="2"/>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>42</v>
       </c>
@@ -27778,7 +28092,7 @@
       <c r="AH43" s="3"/>
       <c r="AJ43" s="2"/>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>43</v>
       </c>
@@ -27835,7 +28149,7 @@
       <c r="AH44" s="3"/>
       <c r="AJ44" s="2"/>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>44</v>
       </c>
@@ -27892,7 +28206,7 @@
       <c r="AH45" s="3"/>
       <c r="AJ45" s="2"/>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>45</v>
       </c>
@@ -27954,7 +28268,7 @@
       <c r="AH46" s="3"/>
       <c r="AJ46" s="2"/>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>46</v>
       </c>
@@ -28017,7 +28331,7 @@
       <c r="AH47" s="3"/>
       <c r="AJ47" s="2"/>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>47</v>
       </c>
@@ -28070,7 +28384,7 @@
         <v>293.82901866345577</v>
       </c>
       <c r="N48">
-        <f>Sheet1!H48</f>
+        <f>Sheet1!H49</f>
         <v>143025</v>
       </c>
       <c r="O48">
@@ -28081,7 +28395,7 @@
       <c r="AH48" s="3"/>
       <c r="AJ48" s="2"/>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>48</v>
       </c>
@@ -28134,7 +28448,7 @@
         <v>333.2480433473811</v>
       </c>
       <c r="N49">
-        <f>Sheet1!H49</f>
+        <f>Sheet1!H50</f>
         <v>163539</v>
       </c>
       <c r="O49">
@@ -28145,7 +28459,7 @@
       <c r="AH49" s="3"/>
       <c r="AJ49" s="2"/>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>49</v>
       </c>
@@ -28198,7 +28512,7 @@
         <v>378.53702588801929</v>
       </c>
       <c r="N50">
-        <f>Sheet1!H50</f>
+        <f>Sheet1!H51</f>
         <v>186101</v>
       </c>
       <c r="O50">
@@ -28209,7 +28523,7 @@
       <c r="AH50" s="3"/>
       <c r="AJ50" s="2"/>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>50</v>
       </c>
@@ -28261,19 +28575,19 @@
         <f t="shared" si="5"/>
         <v>443.61830222757379</v>
       </c>
-      <c r="N51">
-        <f>Sheet1!H51</f>
-        <v>213144</v>
-      </c>
-      <c r="O51">
+      <c r="N51" t="e">
+        <f>Sheet1!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O51" t="e">
         <f t="shared" si="6"/>
-        <v>651.41809290953552</v>
+        <v>#REF!</v>
       </c>
       <c r="AG51" s="2"/>
       <c r="AH51" s="3"/>
       <c r="AJ51" s="2"/>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
         <v>51</v>
       </c>
@@ -28287,11 +28601,11 @@
       </c>
       <c r="D52">
         <f>Sheet1!C52</f>
-        <v>0</v>
+        <v>13614</v>
       </c>
       <c r="E52">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>792.43306169965081</v>
       </c>
       <c r="F52">
         <f>Sheet1!D52</f>
@@ -28303,11 +28617,11 @@
       </c>
       <c r="H52">
         <f>Sheet1!E52</f>
-        <v>0</v>
+        <v>73522</v>
       </c>
       <c r="I52">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>888.05411281555735</v>
       </c>
       <c r="J52">
         <f>Sheet1!F52</f>
@@ -28327,16 +28641,16 @@
       </c>
       <c r="N52">
         <f>Sheet1!H52</f>
-        <v>0</v>
+        <v>213144</v>
       </c>
       <c r="O52">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>651.41809290953552</v>
       </c>
       <c r="AG52" s="2"/>
       <c r="AH52" s="3"/>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>52</v>
       </c>
@@ -28350,96 +28664,96 @@
       </c>
       <c r="D53">
         <f>Sheet1!C53</f>
-        <v>0</v>
+        <v>15723</v>
       </c>
       <c r="F53">
         <f>Sheet1!D53</f>
-        <v>0</v>
-      </c>
-      <c r="H53">
+        <v>119827</v>
+      </c>
+      <c r="H53" t="e">
+        <f>Sheet1!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J53">
         <f>Sheet1!E53</f>
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <f>Sheet1!F53</f>
-        <v>0</v>
+        <v>79696</v>
       </c>
       <c r="L53">
         <f>Sheet1!G53</f>
-        <v>0</v>
+        <v>38168</v>
       </c>
       <c r="N53">
         <f>Sheet1!H53</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.3">
+        <v>239279</v>
+      </c>
+    </row>
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <v>53</v>
       </c>
       <c r="B54">
         <f>Sheet1!B54</f>
-        <v>0</v>
+        <v>124736</v>
       </c>
       <c r="D54">
         <f>Sheet1!C54</f>
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <f>Sheet1!D54</f>
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <f>Sheet1!E54</f>
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <f>Sheet1!F54</f>
-        <v>0</v>
-      </c>
-      <c r="L54">
-        <f>Sheet1!G54</f>
-        <v>0</v>
+        <v>16627</v>
+      </c>
+      <c r="F54" t="e">
+        <f>Sheet1!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H54" t="e">
+        <f>Sheet1!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J54" t="e">
+        <f>Sheet1!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L54" t="e">
+        <f>Sheet1!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="N54">
         <f>Sheet1!H54</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.3">
+        <v>277205</v>
+      </c>
+    </row>
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>54</v>
       </c>
       <c r="B55">
         <f>Sheet1!B55</f>
-        <v>0</v>
+        <v>130759</v>
       </c>
       <c r="D55">
         <f>Sheet1!C55</f>
         <v>0</v>
       </c>
       <c r="F55">
-        <f>Sheet1!D55</f>
-        <v>0</v>
+        <f>Sheet1!D54</f>
+        <v>124632</v>
       </c>
       <c r="H55">
-        <f>Sheet1!E55</f>
-        <v>0</v>
+        <f>Sheet1!E54</f>
+        <v>85778</v>
       </c>
       <c r="J55">
-        <f>Sheet1!F55</f>
-        <v>0</v>
+        <f>Sheet1!F54</f>
+        <v>68605</v>
       </c>
       <c r="L55">
-        <f>Sheet1!G55</f>
-        <v>0</v>
+        <f>Sheet1!G54</f>
+        <v>41903</v>
       </c>
       <c r="N55">
         <f>Sheet1!H55</f>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
         <v>55</v>
       </c>
@@ -28472,7 +28786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>56</v>
       </c>
@@ -28505,7 +28819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58" s="7">
         <v>57</v>
       </c>
@@ -28538,7 +28852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
         <v>58</v>
       </c>
@@ -28571,7 +28885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A60" s="7">
         <v>59</v>
       </c>
@@ -28604,7 +28918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
         <v>60</v>
       </c>
@@ -28637,7 +28951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A62" s="7">
         <v>61</v>
       </c>
@@ -28670,7 +28984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A63" s="7">
         <v>62</v>
       </c>
@@ -28703,7 +29017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A64" s="7">
         <v>63</v>
       </c>
@@ -28736,7 +29050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="7">
         <v>64</v>
       </c>
@@ -28769,7 +29083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="7">
         <v>65</v>
       </c>
@@ -28802,7 +29116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="7">
         <v>66</v>
       </c>
@@ -28835,7 +29149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="7">
         <v>67</v>
       </c>
@@ -28868,7 +29182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="7">
         <v>68</v>
       </c>
@@ -28901,7 +29215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="7">
         <v>69</v>
       </c>

--- a/Sources/Paises.xlsx
+++ b/Sources/Paises.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\PowerBI_Covid\Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160F02EA-E53A-471E-8C8D-73B342AE9616}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15BFE07-2F38-4404-A3D9-7AD876442D71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4050" yWindow="285" windowWidth="20490" windowHeight="15915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8250" yWindow="285" windowWidth="20490" windowHeight="15915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -701,6 +701,9 @@
                 <c:pt idx="53">
                   <c:v>130759</c:v>
                 </c:pt>
+                <c:pt idx="54">
+                  <c:v>135032</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1117,6 +1120,12 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>16627</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>17851</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>18917</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1911,6 +1920,12 @@
                 <c:pt idx="52">
                   <c:v>85778</c:v>
                 </c:pt>
+                <c:pt idx="53">
+                  <c:v>91714</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>100770</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2332,6 +2347,12 @@
                 <c:pt idx="52">
                   <c:v>68605</c:v>
                 </c:pt>
+                <c:pt idx="53">
+                  <c:v>70478</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>93480</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2748,6 +2769,12 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>41903</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>47806</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>48451</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4341,7 +4368,7 @@
                   <c:v>2802.3789112730392</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0</c:v>
+                  <c:v>2893.9562794684957</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>0</c:v>
@@ -15667,8 +15694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41:H51"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="N51" sqref="N51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18525,10 +18552,49 @@
       <c r="B55">
         <v>130759</v>
       </c>
+      <c r="C55">
+        <v>17851</v>
+      </c>
+      <c r="D55">
+        <v>128948</v>
+      </c>
+      <c r="E55">
+        <v>91714</v>
+      </c>
+      <c r="F55">
+        <v>70478</v>
+      </c>
+      <c r="G55">
+        <v>47806</v>
+      </c>
+      <c r="H55">
+        <v>304826</v>
+      </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>43927</v>
+      </c>
+      <c r="B56">
+        <v>135032</v>
+      </c>
+      <c r="C56">
+        <v>18917</v>
+      </c>
+      <c r="D56">
+        <v>128948</v>
+      </c>
+      <c r="E56">
+        <v>100770</v>
+      </c>
+      <c r="F56">
+        <v>93480</v>
+      </c>
+      <c r="G56">
+        <v>48451</v>
+      </c>
+      <c r="H56">
+        <v>338995</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -22102,7 +22168,7 @@
       </c>
       <c r="D55">
         <f>Sheet1!C55</f>
-        <v>0</v>
+        <v>17851</v>
       </c>
       <c r="F55">
         <f>Sheet1!D54</f>
@@ -22122,7 +22188,7 @@
       </c>
       <c r="N55">
         <f>Sheet1!H55</f>
-        <v>0</v>
+        <v>304826</v>
       </c>
     </row>
     <row r="56" spans="1:36" x14ac:dyDescent="0.25">
@@ -22131,35 +22197,35 @@
       </c>
       <c r="B56">
         <f>Sheet1!B56</f>
-        <v>0</v>
+        <v>135032</v>
       </c>
       <c r="C56">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2893.9562794684957</v>
       </c>
       <c r="D56">
         <f>Sheet1!C56</f>
-        <v>0</v>
+        <v>18917</v>
       </c>
       <c r="F56">
         <f>Sheet1!D56</f>
-        <v>0</v>
+        <v>128948</v>
       </c>
       <c r="H56">
-        <f>Sheet1!E56</f>
-        <v>0</v>
-      </c>
-      <c r="J56">
         <f>Sheet1!F56</f>
-        <v>0</v>
+        <v>93480</v>
+      </c>
+      <c r="J56" t="e">
+        <f>Sheet1!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="L56">
         <f>Sheet1!G56</f>
-        <v>0</v>
+        <v>48451</v>
       </c>
       <c r="N56">
         <f>Sheet1!H56</f>
-        <v>0</v>
+        <v>338995</v>
       </c>
     </row>
     <row r="57" spans="1:36" x14ac:dyDescent="0.25">
@@ -25446,7 +25512,7 @@
       </c>
       <c r="D55">
         <f>Sheet1!C55</f>
-        <v>0</v>
+        <v>17851</v>
       </c>
       <c r="F55">
         <f>Sheet1!D54</f>
@@ -25466,7 +25532,7 @@
       </c>
       <c r="N55">
         <f>Sheet1!H55</f>
-        <v>0</v>
+        <v>304826</v>
       </c>
     </row>
     <row r="56" spans="1:36" x14ac:dyDescent="0.25">
@@ -25475,31 +25541,31 @@
       </c>
       <c r="B56">
         <f>Sheet1!B56</f>
-        <v>0</v>
+        <v>135032</v>
       </c>
       <c r="D56">
         <f>Sheet1!C56</f>
-        <v>0</v>
+        <v>18917</v>
       </c>
       <c r="F56">
         <f>Sheet1!D56</f>
-        <v>0</v>
+        <v>128948</v>
       </c>
       <c r="H56">
-        <f>Sheet1!E56</f>
-        <v>0</v>
-      </c>
-      <c r="J56">
         <f>Sheet1!F56</f>
-        <v>0</v>
+        <v>93480</v>
+      </c>
+      <c r="J56" t="e">
+        <f>Sheet1!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="L56">
         <f>Sheet1!G56</f>
-        <v>0</v>
+        <v>48451</v>
       </c>
       <c r="N56">
         <f>Sheet1!H56</f>
-        <v>0</v>
+        <v>338995</v>
       </c>
     </row>
     <row r="57" spans="1:36" x14ac:dyDescent="0.25">
@@ -28730,7 +28796,7 @@
       </c>
       <c r="D55">
         <f>Sheet1!C55</f>
-        <v>0</v>
+        <v>17851</v>
       </c>
       <c r="F55">
         <f>Sheet1!D54</f>
@@ -28750,7 +28816,7 @@
       </c>
       <c r="N55">
         <f>Sheet1!H55</f>
-        <v>0</v>
+        <v>304826</v>
       </c>
     </row>
     <row r="56" spans="1:36" x14ac:dyDescent="0.25">
@@ -28759,31 +28825,31 @@
       </c>
       <c r="B56">
         <f>Sheet1!B56</f>
-        <v>0</v>
+        <v>135032</v>
       </c>
       <c r="D56">
         <f>Sheet1!C56</f>
-        <v>0</v>
+        <v>18917</v>
       </c>
       <c r="F56">
         <f>Sheet1!D56</f>
-        <v>0</v>
+        <v>128948</v>
       </c>
       <c r="H56">
-        <f>Sheet1!E56</f>
-        <v>0</v>
-      </c>
-      <c r="J56">
         <f>Sheet1!F56</f>
-        <v>0</v>
+        <v>93480</v>
+      </c>
+      <c r="J56" t="e">
+        <f>Sheet1!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="L56">
         <f>Sheet1!G56</f>
-        <v>0</v>
+        <v>48451</v>
       </c>
       <c r="N56">
         <f>Sheet1!H56</f>
-        <v>0</v>
+        <v>338995</v>
       </c>
     </row>
     <row r="57" spans="1:36" x14ac:dyDescent="0.25">

--- a/Sources/Paises.xlsx
+++ b/Sources/Paises.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\PowerBI_Covid\Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15BFE07-2F38-4404-A3D9-7AD876442D71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924035A9-7EE8-4C49-AF88-85776BFB101B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8250" yWindow="285" windowWidth="20490" windowHeight="15915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -704,6 +704,9 @@
                 <c:pt idx="54">
                   <c:v>135032</c:v>
                 </c:pt>
+                <c:pt idx="55">
+                  <c:v>140510</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1125,7 +1128,10 @@
                   <c:v>17851</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>18917</c:v>
+                  <c:v>17851</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>18803</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1924,7 +1930,10 @@
                   <c:v>91714</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>100770</c:v>
+                  <c:v>91714</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>95391</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2351,7 +2360,10 @@
                   <c:v>70478</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>93480</c:v>
+                  <c:v>70478</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>74390</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2775,6 +2787,9 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>48451</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>51608</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4371,7 +4386,7 @@
                   <c:v>2893.9562794684957</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0</c:v>
+                  <c:v>3011.3587655379342</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>0</c:v>
@@ -15694,8 +15709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="N51" sqref="N51"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18579,27 +18594,48 @@
         <v>135032</v>
       </c>
       <c r="C56">
-        <v>18917</v>
+        <v>17851</v>
       </c>
       <c r="D56">
         <v>128948</v>
       </c>
       <c r="E56">
-        <v>100770</v>
+        <v>91714</v>
       </c>
       <c r="F56">
-        <v>93480</v>
+        <v>70478</v>
       </c>
       <c r="G56">
         <v>48451</v>
       </c>
       <c r="H56">
-        <v>338995</v>
+        <v>304826</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>43928</v>
+      </c>
+      <c r="B57">
+        <v>140510</v>
+      </c>
+      <c r="C57">
+        <v>18803</v>
+      </c>
+      <c r="D57">
+        <v>132547</v>
+      </c>
+      <c r="E57">
+        <v>95391</v>
+      </c>
+      <c r="F57">
+        <v>74390</v>
+      </c>
+      <c r="G57">
+        <v>51608</v>
+      </c>
+      <c r="H57">
+        <v>330891</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -22205,7 +22241,7 @@
       </c>
       <c r="D56">
         <f>Sheet1!C56</f>
-        <v>18917</v>
+        <v>17851</v>
       </c>
       <c r="F56">
         <f>Sheet1!D56</f>
@@ -22213,7 +22249,7 @@
       </c>
       <c r="H56">
         <f>Sheet1!F56</f>
-        <v>93480</v>
+        <v>70478</v>
       </c>
       <c r="J56" t="e">
         <f>Sheet1!#REF!</f>
@@ -22225,7 +22261,7 @@
       </c>
       <c r="N56">
         <f>Sheet1!H56</f>
-        <v>338995</v>
+        <v>304826</v>
       </c>
     </row>
     <row r="57" spans="1:36" x14ac:dyDescent="0.25">
@@ -22234,35 +22270,35 @@
       </c>
       <c r="B57">
         <f>Sheet1!B57</f>
-        <v>0</v>
+        <v>140510</v>
       </c>
       <c r="C57">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3011.3587655379342</v>
       </c>
       <c r="D57">
         <f>Sheet1!C57</f>
-        <v>0</v>
+        <v>18803</v>
       </c>
       <c r="F57">
         <f>Sheet1!D57</f>
-        <v>0</v>
+        <v>132547</v>
       </c>
       <c r="H57">
         <f>Sheet1!E57</f>
-        <v>0</v>
+        <v>95391</v>
       </c>
       <c r="J57">
         <f>Sheet1!F57</f>
-        <v>0</v>
+        <v>74390</v>
       </c>
       <c r="L57">
         <f>Sheet1!G57</f>
-        <v>0</v>
+        <v>51608</v>
       </c>
       <c r="N57">
         <f>Sheet1!H57</f>
-        <v>0</v>
+        <v>330891</v>
       </c>
     </row>
     <row r="58" spans="1:36" x14ac:dyDescent="0.25">
@@ -25545,7 +25581,7 @@
       </c>
       <c r="D56">
         <f>Sheet1!C56</f>
-        <v>18917</v>
+        <v>17851</v>
       </c>
       <c r="F56">
         <f>Sheet1!D56</f>
@@ -25553,7 +25589,7 @@
       </c>
       <c r="H56">
         <f>Sheet1!F56</f>
-        <v>93480</v>
+        <v>70478</v>
       </c>
       <c r="J56" t="e">
         <f>Sheet1!#REF!</f>
@@ -25565,7 +25601,7 @@
       </c>
       <c r="N56">
         <f>Sheet1!H56</f>
-        <v>338995</v>
+        <v>304826</v>
       </c>
     </row>
     <row r="57" spans="1:36" x14ac:dyDescent="0.25">
@@ -25574,31 +25610,31 @@
       </c>
       <c r="B57">
         <f>Sheet1!B57</f>
-        <v>0</v>
+        <v>140510</v>
       </c>
       <c r="D57">
         <f>Sheet1!C57</f>
-        <v>0</v>
+        <v>18803</v>
       </c>
       <c r="F57">
         <f>Sheet1!D57</f>
-        <v>0</v>
+        <v>132547</v>
       </c>
       <c r="H57">
         <f>Sheet1!E57</f>
-        <v>0</v>
+        <v>95391</v>
       </c>
       <c r="J57">
         <f>Sheet1!F57</f>
-        <v>0</v>
+        <v>74390</v>
       </c>
       <c r="L57">
         <f>Sheet1!G57</f>
-        <v>0</v>
+        <v>51608</v>
       </c>
       <c r="N57">
         <f>Sheet1!H57</f>
-        <v>0</v>
+        <v>330891</v>
       </c>
     </row>
     <row r="58" spans="1:36" x14ac:dyDescent="0.25">
@@ -28829,7 +28865,7 @@
       </c>
       <c r="D56">
         <f>Sheet1!C56</f>
-        <v>18917</v>
+        <v>17851</v>
       </c>
       <c r="F56">
         <f>Sheet1!D56</f>
@@ -28837,7 +28873,7 @@
       </c>
       <c r="H56">
         <f>Sheet1!F56</f>
-        <v>93480</v>
+        <v>70478</v>
       </c>
       <c r="J56" t="e">
         <f>Sheet1!#REF!</f>
@@ -28849,7 +28885,7 @@
       </c>
       <c r="N56">
         <f>Sheet1!H56</f>
-        <v>338995</v>
+        <v>304826</v>
       </c>
     </row>
     <row r="57" spans="1:36" x14ac:dyDescent="0.25">
@@ -28858,31 +28894,31 @@
       </c>
       <c r="B57">
         <f>Sheet1!B57</f>
-        <v>0</v>
+        <v>140510</v>
       </c>
       <c r="D57">
         <f>Sheet1!C57</f>
-        <v>0</v>
+        <v>18803</v>
       </c>
       <c r="F57">
         <f>Sheet1!D57</f>
-        <v>0</v>
+        <v>132547</v>
       </c>
       <c r="H57">
         <f>Sheet1!E57</f>
-        <v>0</v>
+        <v>95391</v>
       </c>
       <c r="J57">
         <f>Sheet1!F57</f>
-        <v>0</v>
+        <v>74390</v>
       </c>
       <c r="L57">
         <f>Sheet1!G57</f>
-        <v>0</v>
+        <v>51608</v>
       </c>
       <c r="N57">
         <f>Sheet1!H57</f>
-        <v>0</v>
+        <v>330891</v>
       </c>
     </row>
     <row r="58" spans="1:36" x14ac:dyDescent="0.25">

--- a/Sources/Paises.xlsx
+++ b/Sources/Paises.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\PowerBI_Covid\Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924035A9-7EE8-4C49-AF88-85776BFB101B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B69EA8-D60E-458A-8E5F-EFBDBA4A7BA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8250" yWindow="285" windowWidth="20490" windowHeight="15915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -707,6 +707,9 @@
                 <c:pt idx="55">
                   <c:v>140510</c:v>
                 </c:pt>
+                <c:pt idx="56">
+                  <c:v>146690</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1132,6 +1135,9 @@
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>18803</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>19580</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1935,6 +1941,9 @@
                 <c:pt idx="55">
                   <c:v>95391</c:v>
                 </c:pt>
+                <c:pt idx="56">
+                  <c:v>99225</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2365,6 +2374,9 @@
                 <c:pt idx="55">
                   <c:v>74390</c:v>
                 </c:pt>
+                <c:pt idx="56">
+                  <c:v>78167</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2790,6 +2802,9 @@
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>51608</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>55242</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4389,7 +4404,7 @@
                   <c:v>3011.3587655379342</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0</c:v>
+                  <c:v>3143.8062580368628</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>0</c:v>
@@ -15710,7 +15725,7 @@
   <dimension ref="A1:AL70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18641,6 +18656,27 @@
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>43929</v>
+      </c>
+      <c r="B58">
+        <v>146690</v>
+      </c>
+      <c r="C58">
+        <v>19580</v>
+      </c>
+      <c r="D58">
+        <v>135586</v>
+      </c>
+      <c r="E58">
+        <v>99225</v>
+      </c>
+      <c r="F58">
+        <v>78167</v>
+      </c>
+      <c r="G58">
+        <v>55242</v>
+      </c>
+      <c r="H58">
+        <v>374329</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -22307,35 +22343,35 @@
       </c>
       <c r="B58">
         <f>Sheet1!B58</f>
-        <v>0</v>
+        <v>146690</v>
       </c>
       <c r="C58">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3143.8062580368628</v>
       </c>
       <c r="D58">
         <f>Sheet1!C58</f>
-        <v>0</v>
+        <v>19580</v>
       </c>
       <c r="F58">
         <f>Sheet1!D58</f>
-        <v>0</v>
+        <v>135586</v>
       </c>
       <c r="H58">
         <f>Sheet1!E58</f>
-        <v>0</v>
+        <v>99225</v>
       </c>
       <c r="J58">
         <f>Sheet1!F58</f>
-        <v>0</v>
+        <v>78167</v>
       </c>
       <c r="L58">
         <f>Sheet1!G58</f>
-        <v>0</v>
+        <v>55242</v>
       </c>
       <c r="N58">
         <f>Sheet1!H58</f>
-        <v>0</v>
+        <v>374329</v>
       </c>
     </row>
     <row r="59" spans="1:36" x14ac:dyDescent="0.25">
@@ -25643,31 +25679,31 @@
       </c>
       <c r="B58">
         <f>Sheet1!B58</f>
-        <v>0</v>
+        <v>146690</v>
       </c>
       <c r="D58">
         <f>Sheet1!C58</f>
-        <v>0</v>
+        <v>19580</v>
       </c>
       <c r="F58">
         <f>Sheet1!D58</f>
-        <v>0</v>
+        <v>135586</v>
       </c>
       <c r="H58">
         <f>Sheet1!E58</f>
-        <v>0</v>
+        <v>99225</v>
       </c>
       <c r="J58">
         <f>Sheet1!F58</f>
-        <v>0</v>
+        <v>78167</v>
       </c>
       <c r="L58">
         <f>Sheet1!G58</f>
-        <v>0</v>
+        <v>55242</v>
       </c>
       <c r="N58">
         <f>Sheet1!H58</f>
-        <v>0</v>
+        <v>374329</v>
       </c>
     </row>
     <row r="59" spans="1:36" x14ac:dyDescent="0.25">
@@ -28927,31 +28963,31 @@
       </c>
       <c r="B58">
         <f>Sheet1!B58</f>
-        <v>0</v>
+        <v>146690</v>
       </c>
       <c r="D58">
         <f>Sheet1!C58</f>
-        <v>0</v>
+        <v>19580</v>
       </c>
       <c r="F58">
         <f>Sheet1!D58</f>
-        <v>0</v>
+        <v>135586</v>
       </c>
       <c r="H58">
         <f>Sheet1!E58</f>
-        <v>0</v>
+        <v>99225</v>
       </c>
       <c r="J58">
         <f>Sheet1!F58</f>
-        <v>0</v>
+        <v>78167</v>
       </c>
       <c r="L58">
         <f>Sheet1!G58</f>
-        <v>0</v>
+        <v>55242</v>
       </c>
       <c r="N58">
         <f>Sheet1!H58</f>
-        <v>0</v>
+        <v>374329</v>
       </c>
     </row>
     <row r="59" spans="1:36" x14ac:dyDescent="0.25">

--- a/Sources/Paises.xlsx
+++ b/Sources/Paises.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\PowerBI_Covid\Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B69EA8-D60E-458A-8E5F-EFBDBA4A7BA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C1F7A1-F96B-40CF-90B2-DFAA2B919863}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8250" yWindow="285" windowWidth="20490" windowHeight="15915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -224,7 +224,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -234,6 +234,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -710,6 +711,9 @@
                 <c:pt idx="56">
                   <c:v>146690</c:v>
                 </c:pt>
+                <c:pt idx="57" formatCode="#,##0">
+                  <c:v>152446</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1138,6 +1142,9 @@
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>19580</c:v>
+                </c:pt>
+                <c:pt idx="57" formatCode="#,##0">
+                  <c:v>20549</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1944,6 +1951,9 @@
                 <c:pt idx="56">
                   <c:v>99225</c:v>
                 </c:pt>
+                <c:pt idx="57" formatCode="#,##0">
+                  <c:v>103228</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2377,6 +2387,9 @@
                 <c:pt idx="56">
                   <c:v>78167</c:v>
                 </c:pt>
+                <c:pt idx="57" formatCode="#,##0">
+                  <c:v>82048</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2805,6 +2818,9 @@
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>55242</c:v>
+                </c:pt>
+                <c:pt idx="57" formatCode="#,##0">
+                  <c:v>60733</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4407,7 +4423,7 @@
                   <c:v>3143.8062580368628</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0</c:v>
+                  <c:v>3267.166738105444</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>0</c:v>
@@ -15725,7 +15741,7 @@
   <dimension ref="A1:AL70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+      <selection activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18682,6 +18698,27 @@
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>43930</v>
+      </c>
+      <c r="B59" s="9">
+        <v>152446</v>
+      </c>
+      <c r="C59" s="9">
+        <v>20549</v>
+      </c>
+      <c r="D59" s="9">
+        <v>139422</v>
+      </c>
+      <c r="E59" s="9">
+        <v>103228</v>
+      </c>
+      <c r="F59" s="9">
+        <v>82048</v>
+      </c>
+      <c r="G59" s="9">
+        <v>60733</v>
+      </c>
+      <c r="H59" s="9">
+        <v>395011</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -22380,35 +22417,35 @@
       </c>
       <c r="B59">
         <f>Sheet1!B59</f>
-        <v>0</v>
+        <v>152446</v>
       </c>
       <c r="C59">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D59">
-        <f>Sheet1!C59</f>
-        <v>0</v>
+        <v>3267.166738105444</v>
+      </c>
+      <c r="D59" t="e">
+        <f>Sheet1!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F59">
         <f>Sheet1!D59</f>
-        <v>0</v>
+        <v>139422</v>
       </c>
       <c r="H59">
         <f>Sheet1!E59</f>
-        <v>0</v>
+        <v>103228</v>
       </c>
       <c r="J59">
         <f>Sheet1!F59</f>
-        <v>0</v>
+        <v>82048</v>
       </c>
       <c r="L59">
         <f>Sheet1!G59</f>
-        <v>0</v>
+        <v>60733</v>
       </c>
       <c r="N59">
-        <f>Sheet1!H59</f>
-        <v>0</v>
+        <f>Sheet1!C59</f>
+        <v>20549</v>
       </c>
     </row>
     <row r="60" spans="1:36" x14ac:dyDescent="0.25">
@@ -25712,31 +25749,31 @@
       </c>
       <c r="B59">
         <f>Sheet1!B59</f>
-        <v>0</v>
-      </c>
-      <c r="D59">
-        <f>Sheet1!C59</f>
-        <v>0</v>
+        <v>152446</v>
+      </c>
+      <c r="D59" t="e">
+        <f>Sheet1!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F59">
         <f>Sheet1!D59</f>
-        <v>0</v>
+        <v>139422</v>
       </c>
       <c r="H59">
         <f>Sheet1!E59</f>
-        <v>0</v>
+        <v>103228</v>
       </c>
       <c r="J59">
         <f>Sheet1!F59</f>
-        <v>0</v>
+        <v>82048</v>
       </c>
       <c r="L59">
         <f>Sheet1!G59</f>
-        <v>0</v>
+        <v>60733</v>
       </c>
       <c r="N59">
-        <f>Sheet1!H59</f>
-        <v>0</v>
+        <f>Sheet1!C59</f>
+        <v>20549</v>
       </c>
     </row>
     <row r="60" spans="1:36" x14ac:dyDescent="0.25">
@@ -28996,31 +29033,31 @@
       </c>
       <c r="B59">
         <f>Sheet1!B59</f>
-        <v>0</v>
-      </c>
-      <c r="D59">
-        <f>Sheet1!C59</f>
-        <v>0</v>
+        <v>152446</v>
+      </c>
+      <c r="D59" t="e">
+        <f>Sheet1!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F59">
         <f>Sheet1!D59</f>
-        <v>0</v>
+        <v>139422</v>
       </c>
       <c r="H59">
         <f>Sheet1!E59</f>
-        <v>0</v>
+        <v>103228</v>
       </c>
       <c r="J59">
         <f>Sheet1!F59</f>
-        <v>0</v>
+        <v>82048</v>
       </c>
       <c r="L59">
         <f>Sheet1!G59</f>
-        <v>0</v>
+        <v>60733</v>
       </c>
       <c r="N59">
-        <f>Sheet1!H59</f>
-        <v>0</v>
+        <f>Sheet1!C59</f>
+        <v>20549</v>
       </c>
     </row>
     <row r="60" spans="1:36" x14ac:dyDescent="0.25">

--- a/Sources/Paises.xlsx
+++ b/Sources/Paises.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\PowerBI_Covid\Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C1F7A1-F96B-40CF-90B2-DFAA2B919863}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DAA985-561E-4EBA-9264-951E2BED87A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8250" yWindow="285" windowWidth="20490" windowHeight="15915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -224,7 +224,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -234,7 +234,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -711,8 +710,11 @@
                 <c:pt idx="56">
                   <c:v>146690</c:v>
                 </c:pt>
-                <c:pt idx="57" formatCode="#,##0">
+                <c:pt idx="57">
                   <c:v>152446</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>157022</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1143,8 +1145,11 @@
                 <c:pt idx="56">
                   <c:v>19580</c:v>
                 </c:pt>
-                <c:pt idx="57" formatCode="#,##0">
+                <c:pt idx="57">
                   <c:v>20549</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>21762</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1951,8 +1956,11 @@
                 <c:pt idx="56">
                   <c:v>99225</c:v>
                 </c:pt>
-                <c:pt idx="57" formatCode="#,##0">
+                <c:pt idx="57">
                   <c:v>103228</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>108202</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2387,8 +2395,11 @@
                 <c:pt idx="56">
                   <c:v>78167</c:v>
                 </c:pt>
-                <c:pt idx="57" formatCode="#,##0">
+                <c:pt idx="57">
                   <c:v>82048</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>86334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2819,8 +2830,11 @@
                 <c:pt idx="56">
                   <c:v>55242</c:v>
                 </c:pt>
-                <c:pt idx="57" formatCode="#,##0">
+                <c:pt idx="57">
                   <c:v>60733</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>65077</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4426,7 +4440,7 @@
                   <c:v>3267.166738105444</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0</c:v>
+                  <c:v>3365.237891127304</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>0</c:v>
@@ -15741,7 +15755,7 @@
   <dimension ref="A1:AL70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="H59" sqref="H59"/>
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18699,31 +18713,52 @@
       <c r="A59" s="1">
         <v>43930</v>
       </c>
-      <c r="B59" s="9">
+      <c r="B59">
         <v>152446</v>
       </c>
-      <c r="C59" s="9">
+      <c r="C59">
         <v>20549</v>
       </c>
-      <c r="D59" s="9">
+      <c r="D59">
         <v>139422</v>
       </c>
-      <c r="E59" s="9">
+      <c r="E59">
         <v>103228</v>
       </c>
-      <c r="F59" s="9">
+      <c r="F59">
         <v>82048</v>
       </c>
-      <c r="G59" s="9">
+      <c r="G59">
         <v>60733</v>
       </c>
-      <c r="H59" s="9">
+      <c r="H59">
         <v>395011</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>43931</v>
+      </c>
+      <c r="B60">
+        <v>157022</v>
+      </c>
+      <c r="C60">
+        <v>21762</v>
+      </c>
+      <c r="D60">
+        <v>143626</v>
+      </c>
+      <c r="E60">
+        <v>108202</v>
+      </c>
+      <c r="F60">
+        <v>86334</v>
+      </c>
+      <c r="G60">
+        <v>65077</v>
+      </c>
+      <c r="H60">
+        <v>427460</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -22454,35 +22489,35 @@
       </c>
       <c r="B60">
         <f>Sheet1!B60</f>
-        <v>0</v>
+        <v>157022</v>
       </c>
       <c r="C60">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3365.237891127304</v>
       </c>
       <c r="D60">
         <f>Sheet1!C60</f>
-        <v>0</v>
+        <v>21762</v>
       </c>
       <c r="F60">
         <f>Sheet1!D60</f>
-        <v>0</v>
+        <v>143626</v>
       </c>
       <c r="H60">
         <f>Sheet1!E60</f>
-        <v>0</v>
+        <v>108202</v>
       </c>
       <c r="J60">
         <f>Sheet1!F60</f>
-        <v>0</v>
+        <v>86334</v>
       </c>
       <c r="L60">
         <f>Sheet1!G60</f>
-        <v>0</v>
+        <v>65077</v>
       </c>
       <c r="N60">
         <f>Sheet1!H60</f>
-        <v>0</v>
+        <v>427460</v>
       </c>
     </row>
     <row r="61" spans="1:36" x14ac:dyDescent="0.25">
@@ -25782,31 +25817,31 @@
       </c>
       <c r="B60">
         <f>Sheet1!B60</f>
-        <v>0</v>
+        <v>157022</v>
       </c>
       <c r="D60">
         <f>Sheet1!C60</f>
-        <v>0</v>
+        <v>21762</v>
       </c>
       <c r="F60">
         <f>Sheet1!D60</f>
-        <v>0</v>
+        <v>143626</v>
       </c>
       <c r="H60">
         <f>Sheet1!E60</f>
-        <v>0</v>
+        <v>108202</v>
       </c>
       <c r="J60">
         <f>Sheet1!F60</f>
-        <v>0</v>
+        <v>86334</v>
       </c>
       <c r="L60">
         <f>Sheet1!G60</f>
-        <v>0</v>
+        <v>65077</v>
       </c>
       <c r="N60">
         <f>Sheet1!H60</f>
-        <v>0</v>
+        <v>427460</v>
       </c>
     </row>
     <row r="61" spans="1:36" x14ac:dyDescent="0.25">
@@ -29066,31 +29101,31 @@
       </c>
       <c r="B60">
         <f>Sheet1!B60</f>
-        <v>0</v>
+        <v>157022</v>
       </c>
       <c r="D60">
         <f>Sheet1!C60</f>
-        <v>0</v>
+        <v>21762</v>
       </c>
       <c r="F60">
         <f>Sheet1!D60</f>
-        <v>0</v>
+        <v>143626</v>
       </c>
       <c r="H60">
         <f>Sheet1!E60</f>
-        <v>0</v>
+        <v>108202</v>
       </c>
       <c r="J60">
         <f>Sheet1!F60</f>
-        <v>0</v>
+        <v>86334</v>
       </c>
       <c r="L60">
         <f>Sheet1!G60</f>
-        <v>0</v>
+        <v>65077</v>
       </c>
       <c r="N60">
         <f>Sheet1!H60</f>
-        <v>0</v>
+        <v>427460</v>
       </c>
     </row>
     <row r="61" spans="1:36" x14ac:dyDescent="0.25">

--- a/Sources/Paises.xlsx
+++ b/Sources/Paises.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\PowerBI_Covid\Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DAA985-561E-4EBA-9264-951E2BED87A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E510292C-E03A-488F-8AC8-DF8B29D36481}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8250" yWindow="285" windowWidth="20490" windowHeight="15915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="MP100pmillon" sheetId="4" r:id="rId3"/>
-    <sheet name="MP200pmillon" sheetId="3" r:id="rId4"/>
-    <sheet name="MP500pmillon" sheetId="5" r:id="rId5"/>
+    <sheet name="Casos" sheetId="1" r:id="rId1"/>
+    <sheet name="Fallecidos" sheetId="6" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="MP100pmillon" sheetId="4" r:id="rId4"/>
+    <sheet name="MP200pmillon" sheetId="3" r:id="rId5"/>
+    <sheet name="MP500pmillon" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="48">
   <si>
     <t>Italia</t>
   </si>
@@ -307,7 +308,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>Casos!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -352,7 +353,7 @@
           </c:dPt>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$8:$A$69</c:f>
+              <c:f>Casos!$A$8:$A$69</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="62"/>
@@ -547,7 +548,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$63</c:f>
+              <c:f>Casos!$B$2:$B$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="62"/>
@@ -731,7 +732,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>Casos!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -754,7 +755,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$70</c:f>
+              <c:f>Casos!$A$2:$A$70</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="69"/>
@@ -970,7 +971,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$70</c:f>
+              <c:f>Casos!$C$2:$C$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="69"/>
@@ -1166,7 +1167,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>Casos!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1211,7 +1212,7 @@
           </c:dPt>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$17:$A$70</c:f>
+              <c:f>Casos!$A$17:$A$70</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="54"/>
@@ -1382,7 +1383,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$54</c:f>
+              <c:f>Casos!$D$2:$D$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="53"/>
@@ -1560,7 +1561,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>Casos!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1583,7 +1584,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$7:$A$69</c:f>
+              <c:f>Casos!$A$7:$A$69</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="63"/>
@@ -1781,7 +1782,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$63</c:f>
+              <c:f>Casos!$E$2:$E$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="62"/>
@@ -1977,7 +1978,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$1</c:f>
+              <c:f>Casos!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2022,7 +2023,7 @@
           </c:dPt>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$8:$A$70</c:f>
+              <c:f>Casos!$A$8:$A$70</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="63"/>
@@ -2220,7 +2221,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$64</c:f>
+              <c:f>Casos!$F$2:$F$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="63"/>
@@ -2416,7 +2417,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$1</c:f>
+              <c:f>Casos!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2439,7 +2440,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$70</c:f>
+              <c:f>Casos!$A$2:$A$70</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="69"/>
@@ -2655,7 +2656,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$70</c:f>
+              <c:f>Casos!$G$2:$G$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="69"/>
@@ -2851,7 +2852,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$1</c:f>
+              <c:f>Casos!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2876,7 +2877,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$51:$A$115</c:f>
+              <c:f>Casos!$A$51:$A$115</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="65"/>
@@ -2945,7 +2946,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$41:$H$48</c:f>
+              <c:f>Casos!$H$41:$H$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3284,7 +3285,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$AL$14:$AL$36</c:f>
+              <c:f>Casos!$AL$14:$AL$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -3362,7 +3363,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AG$14:$AG$36</c:f>
+              <c:f>Casos!$AG$14:$AG$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -15754,8 +15755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+    <sheetView zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AC44" sqref="AC44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18176,11 +18177,11 @@
         <v>3.8311025408348458E-2</v>
       </c>
       <c r="AA40" s="3">
-        <f t="shared" ref="AA40:AA41" si="31">Y40-Y39</f>
+        <f t="shared" ref="AA40" si="31">Y40-Y39</f>
         <v>4053</v>
       </c>
       <c r="AB40" s="3">
-        <f t="shared" ref="AB40:AB41" si="32">SUM(AA37:AA40)</f>
+        <f t="shared" ref="AB40" si="32">SUM(AA37:AA40)</f>
         <v>19294</v>
       </c>
       <c r="AD40" s="2" t="e">
@@ -18235,11 +18236,11 @@
         <v>4.3247056270009222E-2</v>
       </c>
       <c r="AA41" s="3">
-        <f t="shared" si="31"/>
+        <f>Y41-Y40</f>
         <v>4782</v>
       </c>
       <c r="AB41" s="3">
-        <f t="shared" si="32"/>
+        <f>SUM(AA38:AA41)</f>
         <v>18102</v>
       </c>
       <c r="AD41" s="2" t="e">
@@ -18819,6 +18820,1072 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C86610-CB55-4FA2-9727-343B46DC10BB}">
+  <dimension ref="A1:H70"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>43873</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>43874</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>43875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43876</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43877</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43878</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43879</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43880</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>43881</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43882</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43883</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>43884</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>43885</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>43886</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>43887</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>11</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>43888</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>12</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>43889</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>12</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>43890</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>12</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>43891</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>17</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>43892</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>34</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>43893</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>52</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>43894</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>80</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>43895</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>107</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>43896</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>148</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>43897</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>148</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>43898</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>148</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>43899</v>
+      </c>
+      <c r="B28">
+        <v>28</v>
+      </c>
+      <c r="D28">
+        <v>366</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>43900</v>
+      </c>
+      <c r="B29">
+        <v>36</v>
+      </c>
+      <c r="D29">
+        <v>463</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>43901</v>
+      </c>
+      <c r="B30">
+        <v>48</v>
+      </c>
+      <c r="D30">
+        <v>631</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>43902</v>
+      </c>
+      <c r="B31">
+        <v>84</v>
+      </c>
+      <c r="D31">
+        <v>827</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>43903</v>
+      </c>
+      <c r="B32">
+        <v>120</v>
+      </c>
+      <c r="D32">
+        <v>1016</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>43904</v>
+      </c>
+      <c r="B33">
+        <v>134</v>
+      </c>
+      <c r="D33">
+        <v>1266</v>
+      </c>
+      <c r="E33">
+        <v>5</v>
+      </c>
+      <c r="F33">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>43905</v>
+      </c>
+      <c r="B34">
+        <v>285</v>
+      </c>
+      <c r="D34">
+        <v>1441</v>
+      </c>
+      <c r="E34">
+        <v>8</v>
+      </c>
+      <c r="F34">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>43906</v>
+      </c>
+      <c r="B35">
+        <v>306</v>
+      </c>
+      <c r="D35">
+        <v>1809</v>
+      </c>
+      <c r="E35">
+        <v>12</v>
+      </c>
+      <c r="F35">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>43907</v>
+      </c>
+      <c r="B36">
+        <v>491</v>
+      </c>
+      <c r="D36">
+        <v>1809</v>
+      </c>
+      <c r="E36">
+        <v>12</v>
+      </c>
+      <c r="F36">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>43908</v>
+      </c>
+      <c r="B37">
+        <v>598</v>
+      </c>
+      <c r="D37">
+        <v>1809</v>
+      </c>
+      <c r="E37">
+        <v>12</v>
+      </c>
+      <c r="F37">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>43909</v>
+      </c>
+      <c r="B38">
+        <v>767</v>
+      </c>
+      <c r="D38">
+        <v>2978</v>
+      </c>
+      <c r="E38">
+        <v>12</v>
+      </c>
+      <c r="F38">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>43910</v>
+      </c>
+      <c r="B39">
+        <v>982</v>
+      </c>
+      <c r="D39">
+        <v>3405</v>
+      </c>
+      <c r="E39">
+        <v>20</v>
+      </c>
+      <c r="F39">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>43911</v>
+      </c>
+      <c r="B40">
+        <v>1326</v>
+      </c>
+      <c r="D40">
+        <v>4032</v>
+      </c>
+      <c r="E40">
+        <v>31</v>
+      </c>
+      <c r="F40">
+        <v>450</v>
+      </c>
+      <c r="H40">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>43912</v>
+      </c>
+      <c r="B41">
+        <v>1720</v>
+      </c>
+      <c r="D41">
+        <v>4825</v>
+      </c>
+      <c r="E41">
+        <v>46</v>
+      </c>
+      <c r="F41">
+        <v>562</v>
+      </c>
+      <c r="H41">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>43913</v>
+      </c>
+      <c r="B42">
+        <v>2182</v>
+      </c>
+      <c r="D42">
+        <v>5476</v>
+      </c>
+      <c r="E42">
+        <v>55</v>
+      </c>
+      <c r="F42">
+        <v>674</v>
+      </c>
+      <c r="H42">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>43914</v>
+      </c>
+      <c r="B43">
+        <v>2696</v>
+      </c>
+      <c r="D43">
+        <v>6077</v>
+      </c>
+      <c r="E43">
+        <v>86</v>
+      </c>
+      <c r="F43">
+        <v>860</v>
+      </c>
+      <c r="G43">
+        <v>335</v>
+      </c>
+      <c r="H43">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43915</v>
+      </c>
+      <c r="B44">
+        <v>3434</v>
+      </c>
+      <c r="D44">
+        <v>6820</v>
+      </c>
+      <c r="E44">
+        <v>114</v>
+      </c>
+      <c r="F44">
+        <v>1100</v>
+      </c>
+      <c r="G44">
+        <v>442</v>
+      </c>
+      <c r="H44">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>43916</v>
+      </c>
+      <c r="B45">
+        <v>4089</v>
+      </c>
+      <c r="D45">
+        <v>7503</v>
+      </c>
+      <c r="E45">
+        <v>149</v>
+      </c>
+      <c r="F45">
+        <v>1331</v>
+      </c>
+      <c r="G45">
+        <v>422</v>
+      </c>
+      <c r="H45">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>43917</v>
+      </c>
+      <c r="B46">
+        <v>4858</v>
+      </c>
+      <c r="D46">
+        <v>8165</v>
+      </c>
+      <c r="E46">
+        <v>198</v>
+      </c>
+      <c r="F46">
+        <v>1686</v>
+      </c>
+      <c r="G46">
+        <v>578</v>
+      </c>
+      <c r="H46">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>43918</v>
+      </c>
+      <c r="B47">
+        <v>5710</v>
+      </c>
+      <c r="D47">
+        <v>9134</v>
+      </c>
+      <c r="E47">
+        <v>253</v>
+      </c>
+      <c r="F47">
+        <v>1995</v>
+      </c>
+      <c r="G47">
+        <v>759</v>
+      </c>
+      <c r="H47">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>43919</v>
+      </c>
+      <c r="B48">
+        <v>6528</v>
+      </c>
+      <c r="D48">
+        <v>10023</v>
+      </c>
+      <c r="E48">
+        <v>325</v>
+      </c>
+      <c r="F48">
+        <v>2314</v>
+      </c>
+      <c r="G48">
+        <v>1019</v>
+      </c>
+      <c r="H48">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>43920</v>
+      </c>
+      <c r="B49">
+        <v>7340</v>
+      </c>
+      <c r="D49">
+        <v>10779</v>
+      </c>
+      <c r="E49">
+        <v>389</v>
+      </c>
+      <c r="F49">
+        <v>2606</v>
+      </c>
+      <c r="G49">
+        <v>1228</v>
+      </c>
+      <c r="H49">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B50">
+        <v>8189</v>
+      </c>
+      <c r="D50">
+        <v>11591</v>
+      </c>
+      <c r="E50">
+        <v>455</v>
+      </c>
+      <c r="F50">
+        <v>3025</v>
+      </c>
+      <c r="G50">
+        <v>1408</v>
+      </c>
+      <c r="H50">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>43922</v>
+      </c>
+      <c r="B51">
+        <v>9053</v>
+      </c>
+      <c r="D51">
+        <v>12428</v>
+      </c>
+      <c r="E51">
+        <v>583</v>
+      </c>
+      <c r="F51">
+        <v>3523</v>
+      </c>
+      <c r="G51">
+        <v>1789</v>
+      </c>
+      <c r="H51">
+        <v>2860</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>43923</v>
+      </c>
+      <c r="B52">
+        <v>10003</v>
+      </c>
+      <c r="D52">
+        <v>13155</v>
+      </c>
+      <c r="E52">
+        <v>732</v>
+      </c>
+      <c r="F52">
+        <v>4032</v>
+      </c>
+      <c r="G52">
+        <v>2352</v>
+      </c>
+      <c r="H52">
+        <v>3603</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>43924</v>
+      </c>
+      <c r="B53">
+        <v>10935</v>
+      </c>
+      <c r="D53">
+        <v>13915</v>
+      </c>
+      <c r="E53">
+        <v>872</v>
+      </c>
+      <c r="F53">
+        <v>4503</v>
+      </c>
+      <c r="G53">
+        <v>2921</v>
+      </c>
+      <c r="H53">
+        <v>4513</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>43925</v>
+      </c>
+      <c r="B54">
+        <v>11744</v>
+      </c>
+      <c r="C54">
+        <v>1487</v>
+      </c>
+      <c r="D54">
+        <v>14681</v>
+      </c>
+      <c r="E54">
+        <v>1017</v>
+      </c>
+      <c r="F54">
+        <v>6507</v>
+      </c>
+      <c r="G54">
+        <v>3605</v>
+      </c>
+      <c r="H54">
+        <v>5443</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>43926</v>
+      </c>
+      <c r="B55">
+        <v>12418</v>
+      </c>
+      <c r="C55">
+        <v>1651</v>
+      </c>
+      <c r="D55">
+        <v>15362</v>
+      </c>
+      <c r="E55">
+        <v>1158</v>
+      </c>
+      <c r="F55">
+        <v>7560</v>
+      </c>
+      <c r="G55">
+        <v>4313</v>
+      </c>
+      <c r="H55">
+        <v>6593</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B56">
+        <v>13055</v>
+      </c>
+      <c r="C56">
+        <v>1766</v>
+      </c>
+      <c r="D56">
+        <v>15887</v>
+      </c>
+      <c r="E56">
+        <v>1342</v>
+      </c>
+      <c r="F56">
+        <v>8078</v>
+      </c>
+      <c r="G56">
+        <v>4934</v>
+      </c>
+      <c r="H56">
+        <v>7616</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B57">
+        <v>13798</v>
+      </c>
+      <c r="C57">
+        <v>1867</v>
+      </c>
+      <c r="D57">
+        <v>16523</v>
+      </c>
+      <c r="E57">
+        <v>1434</v>
+      </c>
+      <c r="F57">
+        <v>8911</v>
+      </c>
+      <c r="G57">
+        <v>5373</v>
+      </c>
+      <c r="H57">
+        <v>8910</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B58">
+        <v>14555</v>
+      </c>
+      <c r="C58">
+        <v>2101</v>
+      </c>
+      <c r="D58">
+        <v>17127</v>
+      </c>
+      <c r="E58">
+        <v>1607</v>
+      </c>
+      <c r="F58">
+        <v>10328</v>
+      </c>
+      <c r="G58">
+        <v>6159</v>
+      </c>
+      <c r="H58">
+        <v>12064</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B59">
+        <v>15238</v>
+      </c>
+      <c r="C59">
+        <v>2248</v>
+      </c>
+      <c r="D59">
+        <v>17669</v>
+      </c>
+      <c r="E59">
+        <v>1861</v>
+      </c>
+      <c r="F59">
+        <v>10869</v>
+      </c>
+      <c r="G59">
+        <v>7097</v>
+      </c>
+      <c r="H59">
+        <v>12754</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B60">
+        <v>15843</v>
+      </c>
+      <c r="C60">
+        <v>2396</v>
+      </c>
+      <c r="D60">
+        <v>18279</v>
+      </c>
+      <c r="E60">
+        <v>2107</v>
+      </c>
+      <c r="F60">
+        <v>12210</v>
+      </c>
+      <c r="G60">
+        <v>7978</v>
+      </c>
+      <c r="H60">
+        <v>14696</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>43932</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>43933</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>43934</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>43935</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>43936</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>43937</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>43938</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>43939</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>43940</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>43941</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y14"/>
   <sheetViews>
@@ -19548,7 +20615,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AJ70"/>
   <sheetViews>
@@ -21796,7 +22863,7 @@
         <v>1372.8889841405917</v>
       </c>
       <c r="D46">
-        <f>Sheet1!C46</f>
+        <f>Casos!C46</f>
         <v>8603</v>
       </c>
       <c r="E46">
@@ -21804,7 +22871,7 @@
         <v>500.75669383003492</v>
       </c>
       <c r="F46">
-        <f>Sheet1!D46</f>
+        <f>Casos!D46</f>
         <v>86498</v>
       </c>
       <c r="G46">
@@ -21812,7 +22879,7 @@
         <v>1430.1917989417991</v>
       </c>
       <c r="H46">
-        <f>Sheet1!E46</f>
+        <f>Casos!E46</f>
         <v>48582</v>
       </c>
       <c r="I46">
@@ -21820,7 +22887,7 @@
         <v>586.8100012078753</v>
       </c>
       <c r="J46">
-        <f>Sheet1!F46</f>
+        <f>Casos!F46</f>
         <v>32964</v>
       </c>
       <c r="K46">
@@ -21828,7 +22895,7 @@
         <v>492.07344379758177</v>
       </c>
       <c r="L46">
-        <f>Sheet1!G46</f>
+        <f>Casos!G46</f>
         <v>14543</v>
       </c>
       <c r="M46">
@@ -21851,7 +22918,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <f>Sheet1!B47</f>
+        <f>Casos!B47</f>
         <v>72248</v>
       </c>
       <c r="C47">
@@ -21859,7 +22926,7 @@
         <v>1548.3926275182171</v>
       </c>
       <c r="D47">
-        <f>Sheet1!C47</f>
+        <f>Casos!C47</f>
         <v>9762</v>
       </c>
       <c r="E47">
@@ -21867,7 +22934,7 @@
         <v>568.21885913853316</v>
       </c>
       <c r="F47">
-        <f>Sheet1!D47</f>
+        <f>Casos!D47</f>
         <v>92472</v>
       </c>
       <c r="G47">
@@ -21875,7 +22942,7 @@
         <v>1528.968253968254</v>
       </c>
       <c r="H47">
-        <f>Sheet1!E47</f>
+        <f>Casos!E47</f>
         <v>52547</v>
       </c>
       <c r="I47">
@@ -21883,7 +22950,7 @@
         <v>634.70225872689934</v>
       </c>
       <c r="J47">
-        <f>Sheet1!F47</f>
+        <f>Casos!F47</f>
         <v>37575</v>
       </c>
       <c r="K47">
@@ -21891,7 +22958,7 @@
         <v>560.90461262875056</v>
       </c>
       <c r="L47">
-        <f>Sheet1!G47</f>
+        <f>Casos!G47</f>
         <v>17089</v>
       </c>
       <c r="M47">
@@ -21914,7 +22981,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <f>Sheet1!B48</f>
+        <f>Casos!B48</f>
         <v>78797</v>
       </c>
       <c r="C48">
@@ -21922,7 +22989,7 @@
         <v>1688.7483926275183</v>
       </c>
       <c r="D48">
-        <f>Sheet1!C48</f>
+        <f>Casos!C48</f>
         <v>10866</v>
       </c>
       <c r="E48">
@@ -21930,7 +22997,7 @@
         <v>632.47962747380677</v>
       </c>
       <c r="F48">
-        <f>Sheet1!D48</f>
+        <f>Casos!D48</f>
         <v>97689</v>
       </c>
       <c r="G48">
@@ -21938,7 +23005,7 @@
         <v>1615.2281746031747</v>
       </c>
       <c r="H48">
-        <f>Sheet1!E48</f>
+        <f>Casos!E48</f>
         <v>57298</v>
       </c>
       <c r="I48">
@@ -21946,7 +23013,7 @@
         <v>692.08841647541965</v>
       </c>
       <c r="J48">
-        <f>Sheet1!F48</f>
+        <f>Casos!F48</f>
         <v>40174</v>
       </c>
       <c r="K48">
@@ -21954,7 +23021,7 @@
         <v>599.70144797731007</v>
       </c>
       <c r="L48">
-        <f>Sheet1!G48</f>
+        <f>Casos!G48</f>
         <v>19522</v>
       </c>
       <c r="M48">
@@ -21962,7 +23029,7 @@
         <v>293.82901866345577</v>
       </c>
       <c r="N48">
-        <f>Sheet1!H49</f>
+        <f>Casos!H49</f>
         <v>143025</v>
       </c>
       <c r="O48">
@@ -21978,7 +23045,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <f>Sheet1!B49</f>
+        <f>Casos!B49</f>
         <v>85195</v>
       </c>
       <c r="C49">
@@ -21986,7 +23053,7 @@
         <v>1825.867981140163</v>
       </c>
       <c r="D49">
-        <f>Sheet1!C49</f>
+        <f>Casos!C49</f>
         <v>11750</v>
       </c>
       <c r="E49">
@@ -21994,7 +23061,7 @@
         <v>683.93480791618163</v>
       </c>
       <c r="F49">
-        <f>Sheet1!D49</f>
+        <f>Casos!D49</f>
         <v>101739</v>
       </c>
       <c r="G49">
@@ -22002,7 +23069,7 @@
         <v>1682.1924603174605</v>
       </c>
       <c r="H49">
-        <f>Sheet1!E49</f>
+        <f>Casos!E49</f>
         <v>61913</v>
       </c>
       <c r="I49">
@@ -22010,7 +23077,7 @@
         <v>747.83186375166076</v>
       </c>
       <c r="J49">
-        <f>Sheet1!F49</f>
+        <f>Casos!F49</f>
         <v>44550</v>
       </c>
       <c r="K49">
@@ -22018,7 +23085,7 @@
         <v>665.02463054187194</v>
       </c>
       <c r="L49">
-        <f>Sheet1!G49</f>
+        <f>Casos!G49</f>
         <v>22141</v>
       </c>
       <c r="M49">
@@ -22026,7 +23093,7 @@
         <v>333.2480433473811</v>
       </c>
       <c r="N49">
-        <f>Sheet1!H50</f>
+        <f>Casos!H50</f>
         <v>163539</v>
       </c>
       <c r="O49">
@@ -22042,7 +23109,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <f>Sheet1!B50</f>
+        <f>Casos!B50</f>
         <v>94417</v>
       </c>
       <c r="C50">
@@ -22050,7 +23117,7 @@
         <v>2023.5105015002146</v>
       </c>
       <c r="D50">
-        <f>Sheet1!C50</f>
+        <f>Casos!C50</f>
         <v>12595</v>
       </c>
       <c r="E50">
@@ -22058,7 +23125,7 @@
         <v>733.11990686845172</v>
       </c>
       <c r="F50">
-        <f>Sheet1!D50</f>
+        <f>Casos!D50</f>
         <v>105792</v>
       </c>
       <c r="G50">
@@ -22066,7 +23133,7 @@
         <v>1749.2063492063494</v>
       </c>
       <c r="H50">
-        <f>Sheet1!E50</f>
+        <f>Casos!E50</f>
         <v>67366</v>
       </c>
       <c r="I50">
@@ -22074,7 +23141,7 @@
         <v>813.6973064379755</v>
       </c>
       <c r="J50">
-        <f>Sheet1!F50</f>
+        <f>Casos!F50</f>
         <v>52128</v>
       </c>
       <c r="K50">
@@ -22082,7 +23149,7 @@
         <v>778.14599193909544</v>
       </c>
       <c r="L50">
-        <f>Sheet1!G50</f>
+        <f>Casos!G50</f>
         <v>25150</v>
       </c>
       <c r="M50">
@@ -22090,7 +23157,7 @@
         <v>378.53702588801929</v>
       </c>
       <c r="N50">
-        <f>Sheet1!H51</f>
+        <f>Casos!H51</f>
         <v>186101</v>
       </c>
       <c r="O50">
@@ -22106,7 +23173,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <f>Sheet1!B51</f>
+        <f>Casos!B51</f>
         <v>102136</v>
       </c>
       <c r="C51">
@@ -22114,7 +23181,7 @@
         <v>2188.9412773253325</v>
       </c>
       <c r="D51">
-        <f>Sheet1!C51</f>
+        <f>Casos!C51</f>
         <v>13614</v>
       </c>
       <c r="E51">
@@ -22122,7 +23189,7 @@
         <v>792.43306169965081</v>
       </c>
       <c r="F51">
-        <f>Sheet1!D51</f>
+        <f>Casos!D51</f>
         <v>110574</v>
       </c>
       <c r="G51">
@@ -22130,7 +23197,7 @@
         <v>1828.2738095238096</v>
       </c>
       <c r="H51">
-        <f>Sheet1!E51</f>
+        <f>Casos!E51</f>
         <v>73522</v>
       </c>
       <c r="I51">
@@ -22138,7 +23205,7 @@
         <v>888.05411281555735</v>
       </c>
       <c r="J51">
-        <f>Sheet1!F51</f>
+        <f>Casos!F51</f>
         <v>56989</v>
       </c>
       <c r="K51">
@@ -22146,7 +23213,7 @@
         <v>850.70906105388872</v>
       </c>
       <c r="L51">
-        <f>Sheet1!G51</f>
+        <f>Casos!G51</f>
         <v>29474</v>
       </c>
       <c r="M51">
@@ -22154,7 +23221,7 @@
         <v>443.61830222757379</v>
       </c>
       <c r="N51" t="e">
-        <f>Sheet1!#REF!</f>
+        <f>Casos!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="O51" t="e">
@@ -22170,7 +23237,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <f>Sheet1!B52</f>
+        <f>Casos!B52</f>
         <v>110238</v>
       </c>
       <c r="C52">
@@ -22178,7 +23245,7 @@
         <v>2362.5803686240893</v>
       </c>
       <c r="D52">
-        <f>Sheet1!C52</f>
+        <f>Casos!C52</f>
         <v>13614</v>
       </c>
       <c r="E52">
@@ -22186,7 +23253,7 @@
         <v>792.43306169965081</v>
       </c>
       <c r="F52">
-        <f>Sheet1!D52</f>
+        <f>Casos!D52</f>
         <v>115242</v>
       </c>
       <c r="G52">
@@ -22194,7 +23261,7 @@
         <v>1905.4563492063494</v>
       </c>
       <c r="H52">
-        <f>Sheet1!E52</f>
+        <f>Casos!E52</f>
         <v>73522</v>
       </c>
       <c r="I52">
@@ -22202,7 +23269,7 @@
         <v>888.05411281555735</v>
       </c>
       <c r="J52">
-        <f>Sheet1!F52</f>
+        <f>Casos!F52</f>
         <v>59105</v>
       </c>
       <c r="K52">
@@ -22210,7 +23277,7 @@
         <v>882.29586505448583</v>
       </c>
       <c r="L52">
-        <f>Sheet1!G52</f>
+        <f>Casos!G52</f>
         <v>33718</v>
       </c>
       <c r="M52">
@@ -22218,7 +23285,7 @@
         <v>507.49548464780253</v>
       </c>
       <c r="N52">
-        <f>Sheet1!H52</f>
+        <f>Casos!H52</f>
         <v>213144</v>
       </c>
       <c r="O52">
@@ -22233,7 +23300,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <f>Sheet1!B53</f>
+        <f>Casos!B53</f>
         <v>117710</v>
       </c>
       <c r="C53">
@@ -22241,27 +23308,27 @@
         <v>2522.717531075868</v>
       </c>
       <c r="D53">
-        <f>Sheet1!C53</f>
+        <f>Casos!C53</f>
         <v>15723</v>
       </c>
       <c r="F53">
-        <f>Sheet1!D53</f>
+        <f>Casos!D53</f>
         <v>119827</v>
       </c>
       <c r="H53" t="e">
-        <f>Sheet1!#REF!</f>
+        <f>Casos!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="J53">
-        <f>Sheet1!E53</f>
+        <f>Casos!E53</f>
         <v>79696</v>
       </c>
       <c r="L53">
-        <f>Sheet1!G53</f>
+        <f>Casos!G53</f>
         <v>38168</v>
       </c>
       <c r="N53">
-        <f>Sheet1!H53</f>
+        <f>Casos!H53</f>
         <v>239279</v>
       </c>
     </row>
@@ -22270,31 +23337,31 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <f>Sheet1!B54</f>
+        <f>Casos!B54</f>
         <v>124736</v>
       </c>
       <c r="D54">
-        <f>Sheet1!C54</f>
+        <f>Casos!C54</f>
         <v>16627</v>
       </c>
       <c r="F54" t="e">
-        <f>Sheet1!#REF!</f>
+        <f>Casos!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="H54" t="e">
-        <f>Sheet1!#REF!</f>
+        <f>Casos!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="J54" t="e">
-        <f>Sheet1!#REF!</f>
+        <f>Casos!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="L54" t="e">
-        <f>Sheet1!#REF!</f>
+        <f>Casos!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="N54">
-        <f>Sheet1!H54</f>
+        <f>Casos!H54</f>
         <v>277205</v>
       </c>
     </row>
@@ -22303,7 +23370,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <f>Sheet1!B55</f>
+        <f>Casos!B55</f>
         <v>130759</v>
       </c>
       <c r="C55">
@@ -22311,27 +23378,27 @@
         <v>2802.3789112730392</v>
       </c>
       <c r="D55">
-        <f>Sheet1!C55</f>
+        <f>Casos!C55</f>
         <v>17851</v>
       </c>
       <c r="F55">
-        <f>Sheet1!D54</f>
+        <f>Casos!D54</f>
         <v>124632</v>
       </c>
       <c r="H55">
-        <f>Sheet1!E54</f>
+        <f>Casos!E54</f>
         <v>85778</v>
       </c>
       <c r="J55">
-        <f>Sheet1!F54</f>
+        <f>Casos!F54</f>
         <v>68605</v>
       </c>
       <c r="L55">
-        <f>Sheet1!G54</f>
+        <f>Casos!G54</f>
         <v>41903</v>
       </c>
       <c r="N55">
-        <f>Sheet1!H55</f>
+        <f>Casos!H55</f>
         <v>304826</v>
       </c>
     </row>
@@ -22340,7 +23407,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <f>Sheet1!B56</f>
+        <f>Casos!B56</f>
         <v>135032</v>
       </c>
       <c r="C56">
@@ -22348,27 +23415,27 @@
         <v>2893.9562794684957</v>
       </c>
       <c r="D56">
-        <f>Sheet1!C56</f>
+        <f>Casos!C56</f>
         <v>17851</v>
       </c>
       <c r="F56">
-        <f>Sheet1!D56</f>
+        <f>Casos!D56</f>
         <v>128948</v>
       </c>
       <c r="H56">
-        <f>Sheet1!F56</f>
+        <f>Casos!F56</f>
         <v>70478</v>
       </c>
       <c r="J56" t="e">
-        <f>Sheet1!#REF!</f>
+        <f>Casos!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="L56">
-        <f>Sheet1!G56</f>
+        <f>Casos!G56</f>
         <v>48451</v>
       </c>
       <c r="N56">
-        <f>Sheet1!H56</f>
+        <f>Casos!H56</f>
         <v>304826</v>
       </c>
     </row>
@@ -22377,7 +23444,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <f>Sheet1!B57</f>
+        <f>Casos!B57</f>
         <v>140510</v>
       </c>
       <c r="C57">
@@ -22385,27 +23452,27 @@
         <v>3011.3587655379342</v>
       </c>
       <c r="D57">
-        <f>Sheet1!C57</f>
+        <f>Casos!C57</f>
         <v>18803</v>
       </c>
       <c r="F57">
-        <f>Sheet1!D57</f>
+        <f>Casos!D57</f>
         <v>132547</v>
       </c>
       <c r="H57">
-        <f>Sheet1!E57</f>
+        <f>Casos!E57</f>
         <v>95391</v>
       </c>
       <c r="J57">
-        <f>Sheet1!F57</f>
+        <f>Casos!F57</f>
         <v>74390</v>
       </c>
       <c r="L57">
-        <f>Sheet1!G57</f>
+        <f>Casos!G57</f>
         <v>51608</v>
       </c>
       <c r="N57">
-        <f>Sheet1!H57</f>
+        <f>Casos!H57</f>
         <v>330891</v>
       </c>
     </row>
@@ -22414,7 +23481,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <f>Sheet1!B58</f>
+        <f>Casos!B58</f>
         <v>146690</v>
       </c>
       <c r="C58">
@@ -22422,27 +23489,27 @@
         <v>3143.8062580368628</v>
       </c>
       <c r="D58">
-        <f>Sheet1!C58</f>
+        <f>Casos!C58</f>
         <v>19580</v>
       </c>
       <c r="F58">
-        <f>Sheet1!D58</f>
+        <f>Casos!D58</f>
         <v>135586</v>
       </c>
       <c r="H58">
-        <f>Sheet1!E58</f>
+        <f>Casos!E58</f>
         <v>99225</v>
       </c>
       <c r="J58">
-        <f>Sheet1!F58</f>
+        <f>Casos!F58</f>
         <v>78167</v>
       </c>
       <c r="L58">
-        <f>Sheet1!G58</f>
+        <f>Casos!G58</f>
         <v>55242</v>
       </c>
       <c r="N58">
-        <f>Sheet1!H58</f>
+        <f>Casos!H58</f>
         <v>374329</v>
       </c>
     </row>
@@ -22451,7 +23518,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <f>Sheet1!B59</f>
+        <f>Casos!B59</f>
         <v>152446</v>
       </c>
       <c r="C59">
@@ -22459,27 +23526,27 @@
         <v>3267.166738105444</v>
       </c>
       <c r="D59" t="e">
-        <f>Sheet1!#REF!</f>
+        <f>Casos!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="F59">
-        <f>Sheet1!D59</f>
+        <f>Casos!D59</f>
         <v>139422</v>
       </c>
       <c r="H59">
-        <f>Sheet1!E59</f>
+        <f>Casos!E59</f>
         <v>103228</v>
       </c>
       <c r="J59">
-        <f>Sheet1!F59</f>
+        <f>Casos!F59</f>
         <v>82048</v>
       </c>
       <c r="L59">
-        <f>Sheet1!G59</f>
+        <f>Casos!G59</f>
         <v>60733</v>
       </c>
       <c r="N59">
-        <f>Sheet1!C59</f>
+        <f>Casos!C59</f>
         <v>20549</v>
       </c>
     </row>
@@ -22488,7 +23555,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <f>Sheet1!B60</f>
+        <f>Casos!B60</f>
         <v>157022</v>
       </c>
       <c r="C60">
@@ -22496,27 +23563,27 @@
         <v>3365.237891127304</v>
       </c>
       <c r="D60">
-        <f>Sheet1!C60</f>
+        <f>Casos!C60</f>
         <v>21762</v>
       </c>
       <c r="F60">
-        <f>Sheet1!D60</f>
+        <f>Casos!D60</f>
         <v>143626</v>
       </c>
       <c r="H60">
-        <f>Sheet1!E60</f>
+        <f>Casos!E60</f>
         <v>108202</v>
       </c>
       <c r="J60">
-        <f>Sheet1!F60</f>
+        <f>Casos!F60</f>
         <v>86334</v>
       </c>
       <c r="L60">
-        <f>Sheet1!G60</f>
+        <f>Casos!G60</f>
         <v>65077</v>
       </c>
       <c r="N60">
-        <f>Sheet1!H60</f>
+        <f>Casos!H60</f>
         <v>427460</v>
       </c>
     </row>
@@ -22525,7 +23592,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <f>Sheet1!B61</f>
+        <f>Casos!B61</f>
         <v>0</v>
       </c>
       <c r="C61">
@@ -22533,27 +23600,27 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <f>Sheet1!C61</f>
+        <f>Casos!C61</f>
         <v>0</v>
       </c>
       <c r="F61">
-        <f>Sheet1!D61</f>
+        <f>Casos!D61</f>
         <v>0</v>
       </c>
       <c r="H61">
-        <f>Sheet1!E61</f>
+        <f>Casos!E61</f>
         <v>0</v>
       </c>
       <c r="J61">
-        <f>Sheet1!F61</f>
+        <f>Casos!F61</f>
         <v>0</v>
       </c>
       <c r="L61">
-        <f>Sheet1!G61</f>
+        <f>Casos!G61</f>
         <v>0</v>
       </c>
       <c r="N61">
-        <f>Sheet1!H61</f>
+        <f>Casos!H61</f>
         <v>0</v>
       </c>
     </row>
@@ -22562,7 +23629,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <f>Sheet1!B62</f>
+        <f>Casos!B62</f>
         <v>0</v>
       </c>
       <c r="C62">
@@ -22570,27 +23637,27 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <f>Sheet1!C62</f>
+        <f>Casos!C62</f>
         <v>0</v>
       </c>
       <c r="F62">
-        <f>Sheet1!D62</f>
+        <f>Casos!D62</f>
         <v>0</v>
       </c>
       <c r="H62">
-        <f>Sheet1!E62</f>
+        <f>Casos!E62</f>
         <v>0</v>
       </c>
       <c r="J62">
-        <f>Sheet1!F62</f>
+        <f>Casos!F62</f>
         <v>0</v>
       </c>
       <c r="L62">
-        <f>Sheet1!G62</f>
+        <f>Casos!G62</f>
         <v>0</v>
       </c>
       <c r="N62">
-        <f>Sheet1!H62</f>
+        <f>Casos!H62</f>
         <v>0</v>
       </c>
     </row>
@@ -22599,7 +23666,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <f>Sheet1!B63</f>
+        <f>Casos!B63</f>
         <v>0</v>
       </c>
       <c r="C63">
@@ -22607,27 +23674,27 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <f>Sheet1!C63</f>
+        <f>Casos!C63</f>
         <v>0</v>
       </c>
       <c r="F63">
-        <f>Sheet1!D63</f>
+        <f>Casos!D63</f>
         <v>0</v>
       </c>
       <c r="H63">
-        <f>Sheet1!E63</f>
+        <f>Casos!E63</f>
         <v>0</v>
       </c>
       <c r="J63">
-        <f>Sheet1!F63</f>
+        <f>Casos!F63</f>
         <v>0</v>
       </c>
       <c r="L63">
-        <f>Sheet1!G63</f>
+        <f>Casos!G63</f>
         <v>0</v>
       </c>
       <c r="N63">
-        <f>Sheet1!H63</f>
+        <f>Casos!H63</f>
         <v>0</v>
       </c>
     </row>
@@ -22636,7 +23703,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <f>Sheet1!B64</f>
+        <f>Casos!B64</f>
         <v>0</v>
       </c>
       <c r="C64">
@@ -22644,27 +23711,27 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <f>Sheet1!C64</f>
+        <f>Casos!C64</f>
         <v>0</v>
       </c>
       <c r="F64">
-        <f>Sheet1!D64</f>
+        <f>Casos!D64</f>
         <v>0</v>
       </c>
       <c r="H64">
-        <f>Sheet1!E64</f>
+        <f>Casos!E64</f>
         <v>0</v>
       </c>
       <c r="J64">
-        <f>Sheet1!F64</f>
+        <f>Casos!F64</f>
         <v>0</v>
       </c>
       <c r="L64">
-        <f>Sheet1!G64</f>
+        <f>Casos!G64</f>
         <v>0</v>
       </c>
       <c r="N64">
-        <f>Sheet1!H64</f>
+        <f>Casos!H64</f>
         <v>0</v>
       </c>
     </row>
@@ -22673,7 +23740,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <f>Sheet1!B65</f>
+        <f>Casos!B65</f>
         <v>0</v>
       </c>
       <c r="C65">
@@ -22681,27 +23748,27 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <f>Sheet1!C65</f>
+        <f>Casos!C65</f>
         <v>0</v>
       </c>
       <c r="F65">
-        <f>Sheet1!D65</f>
+        <f>Casos!D65</f>
         <v>0</v>
       </c>
       <c r="H65">
-        <f>Sheet1!E65</f>
+        <f>Casos!E65</f>
         <v>0</v>
       </c>
       <c r="J65">
-        <f>Sheet1!F65</f>
+        <f>Casos!F65</f>
         <v>0</v>
       </c>
       <c r="L65">
-        <f>Sheet1!G65</f>
+        <f>Casos!G65</f>
         <v>0</v>
       </c>
       <c r="N65">
-        <f>Sheet1!H65</f>
+        <f>Casos!H65</f>
         <v>0</v>
       </c>
     </row>
@@ -22710,7 +23777,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <f>Sheet1!B66</f>
+        <f>Casos!B66</f>
         <v>0</v>
       </c>
       <c r="C66">
@@ -22718,27 +23785,27 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <f>Sheet1!C66</f>
+        <f>Casos!C66</f>
         <v>0</v>
       </c>
       <c r="F66">
-        <f>Sheet1!D66</f>
+        <f>Casos!D66</f>
         <v>0</v>
       </c>
       <c r="H66">
-        <f>Sheet1!E66</f>
+        <f>Casos!E66</f>
         <v>0</v>
       </c>
       <c r="J66">
-        <f>Sheet1!F66</f>
+        <f>Casos!F66</f>
         <v>0</v>
       </c>
       <c r="L66">
-        <f>Sheet1!G66</f>
+        <f>Casos!G66</f>
         <v>0</v>
       </c>
       <c r="N66">
-        <f>Sheet1!H66</f>
+        <f>Casos!H66</f>
         <v>0</v>
       </c>
     </row>
@@ -22747,7 +23814,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <f>Sheet1!B67</f>
+        <f>Casos!B67</f>
         <v>0</v>
       </c>
       <c r="C67">
@@ -22755,27 +23822,27 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <f>Sheet1!C67</f>
+        <f>Casos!C67</f>
         <v>0</v>
       </c>
       <c r="F67">
-        <f>Sheet1!D67</f>
+        <f>Casos!D67</f>
         <v>0</v>
       </c>
       <c r="H67">
-        <f>Sheet1!E67</f>
+        <f>Casos!E67</f>
         <v>0</v>
       </c>
       <c r="J67">
-        <f>Sheet1!F67</f>
+        <f>Casos!F67</f>
         <v>0</v>
       </c>
       <c r="L67">
-        <f>Sheet1!G67</f>
+        <f>Casos!G67</f>
         <v>0</v>
       </c>
       <c r="N67">
-        <f>Sheet1!H67</f>
+        <f>Casos!H67</f>
         <v>0</v>
       </c>
     </row>
@@ -22784,7 +23851,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <f>Sheet1!B68</f>
+        <f>Casos!B68</f>
         <v>0</v>
       </c>
       <c r="C68">
@@ -22792,27 +23859,27 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <f>Sheet1!C68</f>
+        <f>Casos!C68</f>
         <v>0</v>
       </c>
       <c r="F68">
-        <f>Sheet1!D68</f>
+        <f>Casos!D68</f>
         <v>0</v>
       </c>
       <c r="H68">
-        <f>Sheet1!E68</f>
+        <f>Casos!E68</f>
         <v>0</v>
       </c>
       <c r="J68">
-        <f>Sheet1!F68</f>
+        <f>Casos!F68</f>
         <v>0</v>
       </c>
       <c r="L68">
-        <f>Sheet1!G68</f>
+        <f>Casos!G68</f>
         <v>0</v>
       </c>
       <c r="N68">
-        <f>Sheet1!H68</f>
+        <f>Casos!H68</f>
         <v>0</v>
       </c>
     </row>
@@ -22821,7 +23888,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <f>Sheet1!B69</f>
+        <f>Casos!B69</f>
         <v>0</v>
       </c>
       <c r="C69">
@@ -22829,27 +23896,27 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <f>Sheet1!C69</f>
+        <f>Casos!C69</f>
         <v>0</v>
       </c>
       <c r="F69">
-        <f>Sheet1!D69</f>
+        <f>Casos!D69</f>
         <v>0</v>
       </c>
       <c r="H69">
-        <f>Sheet1!E69</f>
+        <f>Casos!E69</f>
         <v>0</v>
       </c>
       <c r="J69">
-        <f>Sheet1!F69</f>
+        <f>Casos!F69</f>
         <v>0</v>
       </c>
       <c r="L69">
-        <f>Sheet1!G69</f>
+        <f>Casos!G69</f>
         <v>0</v>
       </c>
       <c r="N69">
-        <f>Sheet1!H69</f>
+        <f>Casos!H69</f>
         <v>0</v>
       </c>
     </row>
@@ -22858,7 +23925,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <f>Sheet1!B70</f>
+        <f>Casos!B70</f>
         <v>0</v>
       </c>
       <c r="C70">
@@ -22866,27 +23933,27 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <f>Sheet1!C70</f>
+        <f>Casos!C70</f>
         <v>0</v>
       </c>
       <c r="F70">
-        <f>Sheet1!D70</f>
+        <f>Casos!D70</f>
         <v>0</v>
       </c>
       <c r="H70">
-        <f>Sheet1!E70</f>
+        <f>Casos!E70</f>
         <v>0</v>
       </c>
       <c r="J70">
-        <f>Sheet1!F70</f>
+        <f>Casos!F70</f>
         <v>0</v>
       </c>
       <c r="L70">
-        <f>Sheet1!G70</f>
+        <f>Casos!G70</f>
         <v>0</v>
       </c>
       <c r="N70">
-        <f>Sheet1!H70</f>
+        <f>Casos!H70</f>
         <v>0</v>
       </c>
     </row>
@@ -22896,7 +23963,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AJ70"/>
   <sheetViews>
@@ -25144,7 +26211,7 @@
         <v>1372.8889841405917</v>
       </c>
       <c r="D46">
-        <f>Sheet1!C46</f>
+        <f>Casos!C46</f>
         <v>8603</v>
       </c>
       <c r="E46">
@@ -25152,7 +26219,7 @@
         <v>500.75669383003492</v>
       </c>
       <c r="F46">
-        <f>Sheet1!D46</f>
+        <f>Casos!D46</f>
         <v>86498</v>
       </c>
       <c r="G46">
@@ -25160,7 +26227,7 @@
         <v>1430.1917989417991</v>
       </c>
       <c r="H46">
-        <f>Sheet1!E46</f>
+        <f>Casos!E46</f>
         <v>48582</v>
       </c>
       <c r="I46">
@@ -25168,7 +26235,7 @@
         <v>586.8100012078753</v>
       </c>
       <c r="J46">
-        <f>Sheet1!F46</f>
+        <f>Casos!F46</f>
         <v>32964</v>
       </c>
       <c r="K46">
@@ -25176,7 +26243,7 @@
         <v>492.07344379758177</v>
       </c>
       <c r="L46">
-        <f>Sheet1!G46</f>
+        <f>Casos!G46</f>
         <v>14543</v>
       </c>
       <c r="M46">
@@ -25199,7 +26266,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <f>Sheet1!B47</f>
+        <f>Casos!B47</f>
         <v>72248</v>
       </c>
       <c r="C47">
@@ -25207,7 +26274,7 @@
         <v>1548.3926275182171</v>
       </c>
       <c r="D47">
-        <f>Sheet1!C47</f>
+        <f>Casos!C47</f>
         <v>9762</v>
       </c>
       <c r="E47">
@@ -25215,7 +26282,7 @@
         <v>568.21885913853316</v>
       </c>
       <c r="F47">
-        <f>Sheet1!D47</f>
+        <f>Casos!D47</f>
         <v>92472</v>
       </c>
       <c r="G47">
@@ -25223,7 +26290,7 @@
         <v>1528.968253968254</v>
       </c>
       <c r="H47">
-        <f>Sheet1!E47</f>
+        <f>Casos!E47</f>
         <v>52547</v>
       </c>
       <c r="I47">
@@ -25231,7 +26298,7 @@
         <v>634.70225872689934</v>
       </c>
       <c r="J47">
-        <f>Sheet1!F47</f>
+        <f>Casos!F47</f>
         <v>37575</v>
       </c>
       <c r="K47">
@@ -25239,7 +26306,7 @@
         <v>560.90461262875056</v>
       </c>
       <c r="L47">
-        <f>Sheet1!G47</f>
+        <f>Casos!G47</f>
         <v>17089</v>
       </c>
       <c r="M47">
@@ -25262,7 +26329,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <f>Sheet1!B48</f>
+        <f>Casos!B48</f>
         <v>78797</v>
       </c>
       <c r="C48">
@@ -25270,7 +26337,7 @@
         <v>1688.7483926275183</v>
       </c>
       <c r="D48">
-        <f>Sheet1!C48</f>
+        <f>Casos!C48</f>
         <v>10866</v>
       </c>
       <c r="E48">
@@ -25278,7 +26345,7 @@
         <v>632.47962747380677</v>
       </c>
       <c r="F48">
-        <f>Sheet1!D48</f>
+        <f>Casos!D48</f>
         <v>97689</v>
       </c>
       <c r="G48">
@@ -25286,7 +26353,7 @@
         <v>1615.2281746031747</v>
       </c>
       <c r="H48">
-        <f>Sheet1!E48</f>
+        <f>Casos!E48</f>
         <v>57298</v>
       </c>
       <c r="I48">
@@ -25294,7 +26361,7 @@
         <v>692.08841647541965</v>
       </c>
       <c r="J48">
-        <f>Sheet1!F48</f>
+        <f>Casos!F48</f>
         <v>40174</v>
       </c>
       <c r="K48">
@@ -25302,7 +26369,7 @@
         <v>599.70144797731007</v>
       </c>
       <c r="L48">
-        <f>Sheet1!G48</f>
+        <f>Casos!G48</f>
         <v>19522</v>
       </c>
       <c r="M48">
@@ -25310,7 +26377,7 @@
         <v>293.82901866345577</v>
       </c>
       <c r="N48">
-        <f>Sheet1!H49</f>
+        <f>Casos!H49</f>
         <v>143025</v>
       </c>
       <c r="O48">
@@ -25326,7 +26393,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <f>Sheet1!B49</f>
+        <f>Casos!B49</f>
         <v>85195</v>
       </c>
       <c r="C49">
@@ -25334,7 +26401,7 @@
         <v>1825.867981140163</v>
       </c>
       <c r="D49">
-        <f>Sheet1!C49</f>
+        <f>Casos!C49</f>
         <v>11750</v>
       </c>
       <c r="E49">
@@ -25342,7 +26409,7 @@
         <v>683.93480791618163</v>
       </c>
       <c r="F49">
-        <f>Sheet1!D49</f>
+        <f>Casos!D49</f>
         <v>101739</v>
       </c>
       <c r="G49">
@@ -25350,7 +26417,7 @@
         <v>1682.1924603174605</v>
       </c>
       <c r="H49">
-        <f>Sheet1!E49</f>
+        <f>Casos!E49</f>
         <v>61913</v>
       </c>
       <c r="I49">
@@ -25358,7 +26425,7 @@
         <v>747.83186375166076</v>
       </c>
       <c r="J49">
-        <f>Sheet1!F49</f>
+        <f>Casos!F49</f>
         <v>44550</v>
       </c>
       <c r="K49">
@@ -25366,7 +26433,7 @@
         <v>665.02463054187194</v>
       </c>
       <c r="L49">
-        <f>Sheet1!G49</f>
+        <f>Casos!G49</f>
         <v>22141</v>
       </c>
       <c r="M49">
@@ -25374,7 +26441,7 @@
         <v>333.2480433473811</v>
       </c>
       <c r="N49">
-        <f>Sheet1!H50</f>
+        <f>Casos!H50</f>
         <v>163539</v>
       </c>
       <c r="O49">
@@ -25390,7 +26457,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <f>Sheet1!B50</f>
+        <f>Casos!B50</f>
         <v>94417</v>
       </c>
       <c r="C50">
@@ -25398,7 +26465,7 @@
         <v>2023.5105015002146</v>
       </c>
       <c r="D50">
-        <f>Sheet1!C50</f>
+        <f>Casos!C50</f>
         <v>12595</v>
       </c>
       <c r="E50">
@@ -25406,7 +26473,7 @@
         <v>733.11990686845172</v>
       </c>
       <c r="F50">
-        <f>Sheet1!D50</f>
+        <f>Casos!D50</f>
         <v>105792</v>
       </c>
       <c r="G50">
@@ -25414,7 +26481,7 @@
         <v>1749.2063492063494</v>
       </c>
       <c r="H50">
-        <f>Sheet1!E50</f>
+        <f>Casos!E50</f>
         <v>67366</v>
       </c>
       <c r="I50">
@@ -25422,7 +26489,7 @@
         <v>813.6973064379755</v>
       </c>
       <c r="J50">
-        <f>Sheet1!F50</f>
+        <f>Casos!F50</f>
         <v>52128</v>
       </c>
       <c r="K50">
@@ -25430,7 +26497,7 @@
         <v>778.14599193909544</v>
       </c>
       <c r="L50">
-        <f>Sheet1!G50</f>
+        <f>Casos!G50</f>
         <v>25150</v>
       </c>
       <c r="M50">
@@ -25438,7 +26505,7 @@
         <v>378.53702588801929</v>
       </c>
       <c r="N50">
-        <f>Sheet1!H51</f>
+        <f>Casos!H51</f>
         <v>186101</v>
       </c>
       <c r="O50">
@@ -25454,7 +26521,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <f>Sheet1!B51</f>
+        <f>Casos!B51</f>
         <v>102136</v>
       </c>
       <c r="C51">
@@ -25462,7 +26529,7 @@
         <v>2188.9412773253325</v>
       </c>
       <c r="D51">
-        <f>Sheet1!C51</f>
+        <f>Casos!C51</f>
         <v>13614</v>
       </c>
       <c r="E51">
@@ -25470,7 +26537,7 @@
         <v>792.43306169965081</v>
       </c>
       <c r="F51">
-        <f>Sheet1!D51</f>
+        <f>Casos!D51</f>
         <v>110574</v>
       </c>
       <c r="G51">
@@ -25478,7 +26545,7 @@
         <v>1828.2738095238096</v>
       </c>
       <c r="H51">
-        <f>Sheet1!E51</f>
+        <f>Casos!E51</f>
         <v>73522</v>
       </c>
       <c r="I51">
@@ -25486,7 +26553,7 @@
         <v>888.05411281555735</v>
       </c>
       <c r="J51">
-        <f>Sheet1!F51</f>
+        <f>Casos!F51</f>
         <v>56989</v>
       </c>
       <c r="K51">
@@ -25494,7 +26561,7 @@
         <v>850.70906105388872</v>
       </c>
       <c r="L51">
-        <f>Sheet1!G51</f>
+        <f>Casos!G51</f>
         <v>29474</v>
       </c>
       <c r="M51">
@@ -25502,7 +26569,7 @@
         <v>443.61830222757379</v>
       </c>
       <c r="N51" t="e">
-        <f>Sheet1!#REF!</f>
+        <f>Casos!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="O51" t="e">
@@ -25518,7 +26585,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <f>Sheet1!B52</f>
+        <f>Casos!B52</f>
         <v>110238</v>
       </c>
       <c r="C52">
@@ -25526,7 +26593,7 @@
         <v>2362.5803686240893</v>
       </c>
       <c r="D52">
-        <f>Sheet1!C52</f>
+        <f>Casos!C52</f>
         <v>13614</v>
       </c>
       <c r="E52">
@@ -25534,7 +26601,7 @@
         <v>792.43306169965081</v>
       </c>
       <c r="F52">
-        <f>Sheet1!D52</f>
+        <f>Casos!D52</f>
         <v>115242</v>
       </c>
       <c r="G52">
@@ -25542,7 +26609,7 @@
         <v>1905.4563492063494</v>
       </c>
       <c r="H52">
-        <f>Sheet1!E52</f>
+        <f>Casos!E52</f>
         <v>73522</v>
       </c>
       <c r="I52">
@@ -25550,7 +26617,7 @@
         <v>888.05411281555735</v>
       </c>
       <c r="J52">
-        <f>Sheet1!F52</f>
+        <f>Casos!F52</f>
         <v>59105</v>
       </c>
       <c r="K52">
@@ -25558,7 +26625,7 @@
         <v>882.29586505448583</v>
       </c>
       <c r="L52">
-        <f>Sheet1!G52</f>
+        <f>Casos!G52</f>
         <v>33718</v>
       </c>
       <c r="M52">
@@ -25566,7 +26633,7 @@
         <v>507.49548464780253</v>
       </c>
       <c r="N52">
-        <f>Sheet1!H52</f>
+        <f>Casos!H52</f>
         <v>213144</v>
       </c>
       <c r="O52">
@@ -25581,7 +26648,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <f>Sheet1!B53</f>
+        <f>Casos!B53</f>
         <v>117710</v>
       </c>
       <c r="C53">
@@ -25589,27 +26656,27 @@
         <v>2522.717531075868</v>
       </c>
       <c r="D53">
-        <f>Sheet1!C53</f>
+        <f>Casos!C53</f>
         <v>15723</v>
       </c>
       <c r="F53">
-        <f>Sheet1!D53</f>
+        <f>Casos!D53</f>
         <v>119827</v>
       </c>
       <c r="H53" t="e">
-        <f>Sheet1!#REF!</f>
+        <f>Casos!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="J53">
-        <f>Sheet1!E53</f>
+        <f>Casos!E53</f>
         <v>79696</v>
       </c>
       <c r="L53">
-        <f>Sheet1!G53</f>
+        <f>Casos!G53</f>
         <v>38168</v>
       </c>
       <c r="N53">
-        <f>Sheet1!H53</f>
+        <f>Casos!H53</f>
         <v>239279</v>
       </c>
     </row>
@@ -25618,31 +26685,31 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <f>Sheet1!B54</f>
+        <f>Casos!B54</f>
         <v>124736</v>
       </c>
       <c r="D54">
-        <f>Sheet1!C54</f>
+        <f>Casos!C54</f>
         <v>16627</v>
       </c>
       <c r="F54" t="e">
-        <f>Sheet1!#REF!</f>
+        <f>Casos!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="H54" t="e">
-        <f>Sheet1!#REF!</f>
+        <f>Casos!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="J54" t="e">
-        <f>Sheet1!#REF!</f>
+        <f>Casos!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="L54" t="e">
-        <f>Sheet1!#REF!</f>
+        <f>Casos!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="N54">
-        <f>Sheet1!H54</f>
+        <f>Casos!H54</f>
         <v>277205</v>
       </c>
     </row>
@@ -25651,31 +26718,31 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <f>Sheet1!B55</f>
+        <f>Casos!B55</f>
         <v>130759</v>
       </c>
       <c r="D55">
-        <f>Sheet1!C55</f>
+        <f>Casos!C55</f>
         <v>17851</v>
       </c>
       <c r="F55">
-        <f>Sheet1!D54</f>
+        <f>Casos!D54</f>
         <v>124632</v>
       </c>
       <c r="H55">
-        <f>Sheet1!E54</f>
+        <f>Casos!E54</f>
         <v>85778</v>
       </c>
       <c r="J55">
-        <f>Sheet1!F54</f>
+        <f>Casos!F54</f>
         <v>68605</v>
       </c>
       <c r="L55">
-        <f>Sheet1!G54</f>
+        <f>Casos!G54</f>
         <v>41903</v>
       </c>
       <c r="N55">
-        <f>Sheet1!H55</f>
+        <f>Casos!H55</f>
         <v>304826</v>
       </c>
     </row>
@@ -25684,31 +26751,31 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <f>Sheet1!B56</f>
+        <f>Casos!B56</f>
         <v>135032</v>
       </c>
       <c r="D56">
-        <f>Sheet1!C56</f>
+        <f>Casos!C56</f>
         <v>17851</v>
       </c>
       <c r="F56">
-        <f>Sheet1!D56</f>
+        <f>Casos!D56</f>
         <v>128948</v>
       </c>
       <c r="H56">
-        <f>Sheet1!F56</f>
+        <f>Casos!F56</f>
         <v>70478</v>
       </c>
       <c r="J56" t="e">
-        <f>Sheet1!#REF!</f>
+        <f>Casos!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="L56">
-        <f>Sheet1!G56</f>
+        <f>Casos!G56</f>
         <v>48451</v>
       </c>
       <c r="N56">
-        <f>Sheet1!H56</f>
+        <f>Casos!H56</f>
         <v>304826</v>
       </c>
     </row>
@@ -25717,31 +26784,31 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <f>Sheet1!B57</f>
+        <f>Casos!B57</f>
         <v>140510</v>
       </c>
       <c r="D57">
-        <f>Sheet1!C57</f>
+        <f>Casos!C57</f>
         <v>18803</v>
       </c>
       <c r="F57">
-        <f>Sheet1!D57</f>
+        <f>Casos!D57</f>
         <v>132547</v>
       </c>
       <c r="H57">
-        <f>Sheet1!E57</f>
+        <f>Casos!E57</f>
         <v>95391</v>
       </c>
       <c r="J57">
-        <f>Sheet1!F57</f>
+        <f>Casos!F57</f>
         <v>74390</v>
       </c>
       <c r="L57">
-        <f>Sheet1!G57</f>
+        <f>Casos!G57</f>
         <v>51608</v>
       </c>
       <c r="N57">
-        <f>Sheet1!H57</f>
+        <f>Casos!H57</f>
         <v>330891</v>
       </c>
     </row>
@@ -25750,31 +26817,31 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <f>Sheet1!B58</f>
+        <f>Casos!B58</f>
         <v>146690</v>
       </c>
       <c r="D58">
-        <f>Sheet1!C58</f>
+        <f>Casos!C58</f>
         <v>19580</v>
       </c>
       <c r="F58">
-        <f>Sheet1!D58</f>
+        <f>Casos!D58</f>
         <v>135586</v>
       </c>
       <c r="H58">
-        <f>Sheet1!E58</f>
+        <f>Casos!E58</f>
         <v>99225</v>
       </c>
       <c r="J58">
-        <f>Sheet1!F58</f>
+        <f>Casos!F58</f>
         <v>78167</v>
       </c>
       <c r="L58">
-        <f>Sheet1!G58</f>
+        <f>Casos!G58</f>
         <v>55242</v>
       </c>
       <c r="N58">
-        <f>Sheet1!H58</f>
+        <f>Casos!H58</f>
         <v>374329</v>
       </c>
     </row>
@@ -25783,31 +26850,31 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <f>Sheet1!B59</f>
+        <f>Casos!B59</f>
         <v>152446</v>
       </c>
       <c r="D59" t="e">
-        <f>Sheet1!#REF!</f>
+        <f>Casos!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="F59">
-        <f>Sheet1!D59</f>
+        <f>Casos!D59</f>
         <v>139422</v>
       </c>
       <c r="H59">
-        <f>Sheet1!E59</f>
+        <f>Casos!E59</f>
         <v>103228</v>
       </c>
       <c r="J59">
-        <f>Sheet1!F59</f>
+        <f>Casos!F59</f>
         <v>82048</v>
       </c>
       <c r="L59">
-        <f>Sheet1!G59</f>
+        <f>Casos!G59</f>
         <v>60733</v>
       </c>
       <c r="N59">
-        <f>Sheet1!C59</f>
+        <f>Casos!C59</f>
         <v>20549</v>
       </c>
     </row>
@@ -25816,31 +26883,31 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <f>Sheet1!B60</f>
+        <f>Casos!B60</f>
         <v>157022</v>
       </c>
       <c r="D60">
-        <f>Sheet1!C60</f>
+        <f>Casos!C60</f>
         <v>21762</v>
       </c>
       <c r="F60">
-        <f>Sheet1!D60</f>
+        <f>Casos!D60</f>
         <v>143626</v>
       </c>
       <c r="H60">
-        <f>Sheet1!E60</f>
+        <f>Casos!E60</f>
         <v>108202</v>
       </c>
       <c r="J60">
-        <f>Sheet1!F60</f>
+        <f>Casos!F60</f>
         <v>86334</v>
       </c>
       <c r="L60">
-        <f>Sheet1!G60</f>
+        <f>Casos!G60</f>
         <v>65077</v>
       </c>
       <c r="N60">
-        <f>Sheet1!H60</f>
+        <f>Casos!H60</f>
         <v>427460</v>
       </c>
     </row>
@@ -25849,31 +26916,31 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <f>Sheet1!B61</f>
+        <f>Casos!B61</f>
         <v>0</v>
       </c>
       <c r="D61">
-        <f>Sheet1!C61</f>
+        <f>Casos!C61</f>
         <v>0</v>
       </c>
       <c r="F61">
-        <f>Sheet1!D61</f>
+        <f>Casos!D61</f>
         <v>0</v>
       </c>
       <c r="H61">
-        <f>Sheet1!E61</f>
+        <f>Casos!E61</f>
         <v>0</v>
       </c>
       <c r="J61">
-        <f>Sheet1!F61</f>
+        <f>Casos!F61</f>
         <v>0</v>
       </c>
       <c r="L61">
-        <f>Sheet1!G61</f>
+        <f>Casos!G61</f>
         <v>0</v>
       </c>
       <c r="N61">
-        <f>Sheet1!H61</f>
+        <f>Casos!H61</f>
         <v>0</v>
       </c>
     </row>
@@ -25882,31 +26949,31 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <f>Sheet1!B62</f>
+        <f>Casos!B62</f>
         <v>0</v>
       </c>
       <c r="D62">
-        <f>Sheet1!C62</f>
+        <f>Casos!C62</f>
         <v>0</v>
       </c>
       <c r="F62">
-        <f>Sheet1!D62</f>
+        <f>Casos!D62</f>
         <v>0</v>
       </c>
       <c r="H62">
-        <f>Sheet1!E62</f>
+        <f>Casos!E62</f>
         <v>0</v>
       </c>
       <c r="J62">
-        <f>Sheet1!F62</f>
+        <f>Casos!F62</f>
         <v>0</v>
       </c>
       <c r="L62">
-        <f>Sheet1!G62</f>
+        <f>Casos!G62</f>
         <v>0</v>
       </c>
       <c r="N62">
-        <f>Sheet1!H62</f>
+        <f>Casos!H62</f>
         <v>0</v>
       </c>
     </row>
@@ -25915,31 +26982,31 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <f>Sheet1!B63</f>
+        <f>Casos!B63</f>
         <v>0</v>
       </c>
       <c r="D63">
-        <f>Sheet1!C63</f>
+        <f>Casos!C63</f>
         <v>0</v>
       </c>
       <c r="F63">
-        <f>Sheet1!D63</f>
+        <f>Casos!D63</f>
         <v>0</v>
       </c>
       <c r="H63">
-        <f>Sheet1!E63</f>
+        <f>Casos!E63</f>
         <v>0</v>
       </c>
       <c r="J63">
-        <f>Sheet1!F63</f>
+        <f>Casos!F63</f>
         <v>0</v>
       </c>
       <c r="L63">
-        <f>Sheet1!G63</f>
+        <f>Casos!G63</f>
         <v>0</v>
       </c>
       <c r="N63">
-        <f>Sheet1!H63</f>
+        <f>Casos!H63</f>
         <v>0</v>
       </c>
     </row>
@@ -25948,31 +27015,31 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <f>Sheet1!B64</f>
+        <f>Casos!B64</f>
         <v>0</v>
       </c>
       <c r="D64">
-        <f>Sheet1!C64</f>
+        <f>Casos!C64</f>
         <v>0</v>
       </c>
       <c r="F64">
-        <f>Sheet1!D64</f>
+        <f>Casos!D64</f>
         <v>0</v>
       </c>
       <c r="H64">
-        <f>Sheet1!E64</f>
+        <f>Casos!E64</f>
         <v>0</v>
       </c>
       <c r="J64">
-        <f>Sheet1!F64</f>
+        <f>Casos!F64</f>
         <v>0</v>
       </c>
       <c r="L64">
-        <f>Sheet1!G64</f>
+        <f>Casos!G64</f>
         <v>0</v>
       </c>
       <c r="N64">
-        <f>Sheet1!H64</f>
+        <f>Casos!H64</f>
         <v>0</v>
       </c>
     </row>
@@ -25981,31 +27048,31 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <f>Sheet1!B65</f>
+        <f>Casos!B65</f>
         <v>0</v>
       </c>
       <c r="D65">
-        <f>Sheet1!C65</f>
+        <f>Casos!C65</f>
         <v>0</v>
       </c>
       <c r="F65">
-        <f>Sheet1!D65</f>
+        <f>Casos!D65</f>
         <v>0</v>
       </c>
       <c r="H65">
-        <f>Sheet1!E65</f>
+        <f>Casos!E65</f>
         <v>0</v>
       </c>
       <c r="J65">
-        <f>Sheet1!F65</f>
+        <f>Casos!F65</f>
         <v>0</v>
       </c>
       <c r="L65">
-        <f>Sheet1!G65</f>
+        <f>Casos!G65</f>
         <v>0</v>
       </c>
       <c r="N65">
-        <f>Sheet1!H65</f>
+        <f>Casos!H65</f>
         <v>0</v>
       </c>
     </row>
@@ -26014,31 +27081,31 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <f>Sheet1!B66</f>
+        <f>Casos!B66</f>
         <v>0</v>
       </c>
       <c r="D66">
-        <f>Sheet1!C66</f>
+        <f>Casos!C66</f>
         <v>0</v>
       </c>
       <c r="F66">
-        <f>Sheet1!D66</f>
+        <f>Casos!D66</f>
         <v>0</v>
       </c>
       <c r="H66">
-        <f>Sheet1!E66</f>
+        <f>Casos!E66</f>
         <v>0</v>
       </c>
       <c r="J66">
-        <f>Sheet1!F66</f>
+        <f>Casos!F66</f>
         <v>0</v>
       </c>
       <c r="L66">
-        <f>Sheet1!G66</f>
+        <f>Casos!G66</f>
         <v>0</v>
       </c>
       <c r="N66">
-        <f>Sheet1!H66</f>
+        <f>Casos!H66</f>
         <v>0</v>
       </c>
     </row>
@@ -26047,31 +27114,31 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <f>Sheet1!B67</f>
+        <f>Casos!B67</f>
         <v>0</v>
       </c>
       <c r="D67">
-        <f>Sheet1!C67</f>
+        <f>Casos!C67</f>
         <v>0</v>
       </c>
       <c r="F67">
-        <f>Sheet1!D67</f>
+        <f>Casos!D67</f>
         <v>0</v>
       </c>
       <c r="H67">
-        <f>Sheet1!E67</f>
+        <f>Casos!E67</f>
         <v>0</v>
       </c>
       <c r="J67">
-        <f>Sheet1!F67</f>
+        <f>Casos!F67</f>
         <v>0</v>
       </c>
       <c r="L67">
-        <f>Sheet1!G67</f>
+        <f>Casos!G67</f>
         <v>0</v>
       </c>
       <c r="N67">
-        <f>Sheet1!H67</f>
+        <f>Casos!H67</f>
         <v>0</v>
       </c>
     </row>
@@ -26080,31 +27147,31 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <f>Sheet1!B68</f>
+        <f>Casos!B68</f>
         <v>0</v>
       </c>
       <c r="D68">
-        <f>Sheet1!C68</f>
+        <f>Casos!C68</f>
         <v>0</v>
       </c>
       <c r="F68">
-        <f>Sheet1!D68</f>
+        <f>Casos!D68</f>
         <v>0</v>
       </c>
       <c r="H68">
-        <f>Sheet1!E68</f>
+        <f>Casos!E68</f>
         <v>0</v>
       </c>
       <c r="J68">
-        <f>Sheet1!F68</f>
+        <f>Casos!F68</f>
         <v>0</v>
       </c>
       <c r="L68">
-        <f>Sheet1!G68</f>
+        <f>Casos!G68</f>
         <v>0</v>
       </c>
       <c r="N68">
-        <f>Sheet1!H68</f>
+        <f>Casos!H68</f>
         <v>0</v>
       </c>
     </row>
@@ -26113,31 +27180,31 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <f>Sheet1!B69</f>
+        <f>Casos!B69</f>
         <v>0</v>
       </c>
       <c r="D69">
-        <f>Sheet1!C69</f>
+        <f>Casos!C69</f>
         <v>0</v>
       </c>
       <c r="F69">
-        <f>Sheet1!D69</f>
+        <f>Casos!D69</f>
         <v>0</v>
       </c>
       <c r="H69">
-        <f>Sheet1!E69</f>
+        <f>Casos!E69</f>
         <v>0</v>
       </c>
       <c r="J69">
-        <f>Sheet1!F69</f>
+        <f>Casos!F69</f>
         <v>0</v>
       </c>
       <c r="L69">
-        <f>Sheet1!G69</f>
+        <f>Casos!G69</f>
         <v>0</v>
       </c>
       <c r="N69">
-        <f>Sheet1!H69</f>
+        <f>Casos!H69</f>
         <v>0</v>
       </c>
     </row>
@@ -26146,31 +27213,31 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <f>Sheet1!B70</f>
+        <f>Casos!B70</f>
         <v>0</v>
       </c>
       <c r="D70">
-        <f>Sheet1!C70</f>
+        <f>Casos!C70</f>
         <v>0</v>
       </c>
       <c r="F70">
-        <f>Sheet1!D70</f>
+        <f>Casos!D70</f>
         <v>0</v>
       </c>
       <c r="H70">
-        <f>Sheet1!E70</f>
+        <f>Casos!E70</f>
         <v>0</v>
       </c>
       <c r="J70">
-        <f>Sheet1!F70</f>
+        <f>Casos!F70</f>
         <v>0</v>
       </c>
       <c r="L70">
-        <f>Sheet1!G70</f>
+        <f>Casos!G70</f>
         <v>0</v>
       </c>
       <c r="N70">
-        <f>Sheet1!H70</f>
+        <f>Casos!H70</f>
         <v>0</v>
       </c>
     </row>
@@ -26180,7 +27247,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AJ70"/>
   <sheetViews>
@@ -28428,7 +29495,7 @@
         <v>1372.8889841405917</v>
       </c>
       <c r="D46">
-        <f>Sheet1!C46</f>
+        <f>Casos!C46</f>
         <v>8603</v>
       </c>
       <c r="E46">
@@ -28436,7 +29503,7 @@
         <v>500.75669383003492</v>
       </c>
       <c r="F46">
-        <f>Sheet1!D46</f>
+        <f>Casos!D46</f>
         <v>86498</v>
       </c>
       <c r="G46">
@@ -28444,7 +29511,7 @@
         <v>1430.1917989417991</v>
       </c>
       <c r="H46">
-        <f>Sheet1!E46</f>
+        <f>Casos!E46</f>
         <v>48582</v>
       </c>
       <c r="I46">
@@ -28452,7 +29519,7 @@
         <v>586.8100012078753</v>
       </c>
       <c r="J46">
-        <f>Sheet1!F46</f>
+        <f>Casos!F46</f>
         <v>32964</v>
       </c>
       <c r="K46">
@@ -28460,7 +29527,7 @@
         <v>492.07344379758177</v>
       </c>
       <c r="L46">
-        <f>Sheet1!G46</f>
+        <f>Casos!G46</f>
         <v>14543</v>
       </c>
       <c r="M46">
@@ -28483,7 +29550,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <f>Sheet1!B47</f>
+        <f>Casos!B47</f>
         <v>72248</v>
       </c>
       <c r="C47">
@@ -28491,7 +29558,7 @@
         <v>1548.3926275182171</v>
       </c>
       <c r="D47">
-        <f>Sheet1!C47</f>
+        <f>Casos!C47</f>
         <v>9762</v>
       </c>
       <c r="E47">
@@ -28499,7 +29566,7 @@
         <v>568.21885913853316</v>
       </c>
       <c r="F47">
-        <f>Sheet1!D47</f>
+        <f>Casos!D47</f>
         <v>92472</v>
       </c>
       <c r="G47">
@@ -28507,7 +29574,7 @@
         <v>1528.968253968254</v>
       </c>
       <c r="H47">
-        <f>Sheet1!E47</f>
+        <f>Casos!E47</f>
         <v>52547</v>
       </c>
       <c r="I47">
@@ -28515,7 +29582,7 @@
         <v>634.70225872689934</v>
       </c>
       <c r="J47">
-        <f>Sheet1!F47</f>
+        <f>Casos!F47</f>
         <v>37575</v>
       </c>
       <c r="K47">
@@ -28523,7 +29590,7 @@
         <v>560.90461262875056</v>
       </c>
       <c r="L47">
-        <f>Sheet1!G47</f>
+        <f>Casos!G47</f>
         <v>17089</v>
       </c>
       <c r="M47">
@@ -28546,7 +29613,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <f>Sheet1!B48</f>
+        <f>Casos!B48</f>
         <v>78797</v>
       </c>
       <c r="C48">
@@ -28554,7 +29621,7 @@
         <v>1688.7483926275183</v>
       </c>
       <c r="D48">
-        <f>Sheet1!C48</f>
+        <f>Casos!C48</f>
         <v>10866</v>
       </c>
       <c r="E48">
@@ -28562,7 +29629,7 @@
         <v>632.47962747380677</v>
       </c>
       <c r="F48">
-        <f>Sheet1!D48</f>
+        <f>Casos!D48</f>
         <v>97689</v>
       </c>
       <c r="G48">
@@ -28570,7 +29637,7 @@
         <v>1615.2281746031747</v>
       </c>
       <c r="H48">
-        <f>Sheet1!E48</f>
+        <f>Casos!E48</f>
         <v>57298</v>
       </c>
       <c r="I48">
@@ -28578,7 +29645,7 @@
         <v>692.08841647541965</v>
       </c>
       <c r="J48">
-        <f>Sheet1!F48</f>
+        <f>Casos!F48</f>
         <v>40174</v>
       </c>
       <c r="K48">
@@ -28586,7 +29653,7 @@
         <v>599.70144797731007</v>
       </c>
       <c r="L48">
-        <f>Sheet1!G48</f>
+        <f>Casos!G48</f>
         <v>19522</v>
       </c>
       <c r="M48">
@@ -28594,7 +29661,7 @@
         <v>293.82901866345577</v>
       </c>
       <c r="N48">
-        <f>Sheet1!H49</f>
+        <f>Casos!H49</f>
         <v>143025</v>
       </c>
       <c r="O48">
@@ -28610,7 +29677,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <f>Sheet1!B49</f>
+        <f>Casos!B49</f>
         <v>85195</v>
       </c>
       <c r="C49">
@@ -28618,7 +29685,7 @@
         <v>1825.867981140163</v>
       </c>
       <c r="D49">
-        <f>Sheet1!C49</f>
+        <f>Casos!C49</f>
         <v>11750</v>
       </c>
       <c r="E49">
@@ -28626,7 +29693,7 @@
         <v>683.93480791618163</v>
       </c>
       <c r="F49">
-        <f>Sheet1!D49</f>
+        <f>Casos!D49</f>
         <v>101739</v>
       </c>
       <c r="G49">
@@ -28634,7 +29701,7 @@
         <v>1682.1924603174605</v>
       </c>
       <c r="H49">
-        <f>Sheet1!E49</f>
+        <f>Casos!E49</f>
         <v>61913</v>
       </c>
       <c r="I49">
@@ -28642,7 +29709,7 @@
         <v>747.83186375166076</v>
       </c>
       <c r="J49">
-        <f>Sheet1!F49</f>
+        <f>Casos!F49</f>
         <v>44550</v>
       </c>
       <c r="K49">
@@ -28650,7 +29717,7 @@
         <v>665.02463054187194</v>
       </c>
       <c r="L49">
-        <f>Sheet1!G49</f>
+        <f>Casos!G49</f>
         <v>22141</v>
       </c>
       <c r="M49">
@@ -28658,7 +29725,7 @@
         <v>333.2480433473811</v>
       </c>
       <c r="N49">
-        <f>Sheet1!H50</f>
+        <f>Casos!H50</f>
         <v>163539</v>
       </c>
       <c r="O49">
@@ -28674,7 +29741,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <f>Sheet1!B50</f>
+        <f>Casos!B50</f>
         <v>94417</v>
       </c>
       <c r="C50">
@@ -28682,7 +29749,7 @@
         <v>2023.5105015002146</v>
       </c>
       <c r="D50">
-        <f>Sheet1!C50</f>
+        <f>Casos!C50</f>
         <v>12595</v>
       </c>
       <c r="E50">
@@ -28690,7 +29757,7 @@
         <v>733.11990686845172</v>
       </c>
       <c r="F50">
-        <f>Sheet1!D50</f>
+        <f>Casos!D50</f>
         <v>105792</v>
       </c>
       <c r="G50">
@@ -28698,7 +29765,7 @@
         <v>1749.2063492063494</v>
       </c>
       <c r="H50">
-        <f>Sheet1!E50</f>
+        <f>Casos!E50</f>
         <v>67366</v>
       </c>
       <c r="I50">
@@ -28706,7 +29773,7 @@
         <v>813.6973064379755</v>
       </c>
       <c r="J50">
-        <f>Sheet1!F50</f>
+        <f>Casos!F50</f>
         <v>52128</v>
       </c>
       <c r="K50">
@@ -28714,7 +29781,7 @@
         <v>778.14599193909544</v>
       </c>
       <c r="L50">
-        <f>Sheet1!G50</f>
+        <f>Casos!G50</f>
         <v>25150</v>
       </c>
       <c r="M50">
@@ -28722,7 +29789,7 @@
         <v>378.53702588801929</v>
       </c>
       <c r="N50">
-        <f>Sheet1!H51</f>
+        <f>Casos!H51</f>
         <v>186101</v>
       </c>
       <c r="O50">
@@ -28738,7 +29805,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <f>Sheet1!B51</f>
+        <f>Casos!B51</f>
         <v>102136</v>
       </c>
       <c r="C51">
@@ -28746,7 +29813,7 @@
         <v>2188.9412773253325</v>
       </c>
       <c r="D51">
-        <f>Sheet1!C51</f>
+        <f>Casos!C51</f>
         <v>13614</v>
       </c>
       <c r="E51">
@@ -28754,7 +29821,7 @@
         <v>792.43306169965081</v>
       </c>
       <c r="F51">
-        <f>Sheet1!D51</f>
+        <f>Casos!D51</f>
         <v>110574</v>
       </c>
       <c r="G51">
@@ -28762,7 +29829,7 @@
         <v>1828.2738095238096</v>
       </c>
       <c r="H51">
-        <f>Sheet1!E51</f>
+        <f>Casos!E51</f>
         <v>73522</v>
       </c>
       <c r="I51">
@@ -28770,7 +29837,7 @@
         <v>888.05411281555735</v>
       </c>
       <c r="J51">
-        <f>Sheet1!F51</f>
+        <f>Casos!F51</f>
         <v>56989</v>
       </c>
       <c r="K51">
@@ -28778,7 +29845,7 @@
         <v>850.70906105388872</v>
       </c>
       <c r="L51">
-        <f>Sheet1!G51</f>
+        <f>Casos!G51</f>
         <v>29474</v>
       </c>
       <c r="M51">
@@ -28786,7 +29853,7 @@
         <v>443.61830222757379</v>
       </c>
       <c r="N51" t="e">
-        <f>Sheet1!#REF!</f>
+        <f>Casos!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="O51" t="e">
@@ -28802,7 +29869,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <f>Sheet1!B52</f>
+        <f>Casos!B52</f>
         <v>110238</v>
       </c>
       <c r="C52">
@@ -28810,7 +29877,7 @@
         <v>2362.5803686240893</v>
       </c>
       <c r="D52">
-        <f>Sheet1!C52</f>
+        <f>Casos!C52</f>
         <v>13614</v>
       </c>
       <c r="E52">
@@ -28818,7 +29885,7 @@
         <v>792.43306169965081</v>
       </c>
       <c r="F52">
-        <f>Sheet1!D52</f>
+        <f>Casos!D52</f>
         <v>115242</v>
       </c>
       <c r="G52">
@@ -28826,7 +29893,7 @@
         <v>1905.4563492063494</v>
       </c>
       <c r="H52">
-        <f>Sheet1!E52</f>
+        <f>Casos!E52</f>
         <v>73522</v>
       </c>
       <c r="I52">
@@ -28834,7 +29901,7 @@
         <v>888.05411281555735</v>
       </c>
       <c r="J52">
-        <f>Sheet1!F52</f>
+        <f>Casos!F52</f>
         <v>59105</v>
       </c>
       <c r="K52">
@@ -28842,7 +29909,7 @@
         <v>882.29586505448583</v>
       </c>
       <c r="L52">
-        <f>Sheet1!G52</f>
+        <f>Casos!G52</f>
         <v>33718</v>
       </c>
       <c r="M52">
@@ -28850,7 +29917,7 @@
         <v>507.49548464780253</v>
       </c>
       <c r="N52">
-        <f>Sheet1!H52</f>
+        <f>Casos!H52</f>
         <v>213144</v>
       </c>
       <c r="O52">
@@ -28865,7 +29932,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <f>Sheet1!B53</f>
+        <f>Casos!B53</f>
         <v>117710</v>
       </c>
       <c r="C53">
@@ -28873,27 +29940,27 @@
         <v>2522.717531075868</v>
       </c>
       <c r="D53">
-        <f>Sheet1!C53</f>
+        <f>Casos!C53</f>
         <v>15723</v>
       </c>
       <c r="F53">
-        <f>Sheet1!D53</f>
+        <f>Casos!D53</f>
         <v>119827</v>
       </c>
       <c r="H53" t="e">
-        <f>Sheet1!#REF!</f>
+        <f>Casos!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="J53">
-        <f>Sheet1!E53</f>
+        <f>Casos!E53</f>
         <v>79696</v>
       </c>
       <c r="L53">
-        <f>Sheet1!G53</f>
+        <f>Casos!G53</f>
         <v>38168</v>
       </c>
       <c r="N53">
-        <f>Sheet1!H53</f>
+        <f>Casos!H53</f>
         <v>239279</v>
       </c>
     </row>
@@ -28902,31 +29969,31 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <f>Sheet1!B54</f>
+        <f>Casos!B54</f>
         <v>124736</v>
       </c>
       <c r="D54">
-        <f>Sheet1!C54</f>
+        <f>Casos!C54</f>
         <v>16627</v>
       </c>
       <c r="F54" t="e">
-        <f>Sheet1!#REF!</f>
+        <f>Casos!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="H54" t="e">
-        <f>Sheet1!#REF!</f>
+        <f>Casos!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="J54" t="e">
-        <f>Sheet1!#REF!</f>
+        <f>Casos!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="L54" t="e">
-        <f>Sheet1!#REF!</f>
+        <f>Casos!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="N54">
-        <f>Sheet1!H54</f>
+        <f>Casos!H54</f>
         <v>277205</v>
       </c>
     </row>
@@ -28935,31 +30002,31 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <f>Sheet1!B55</f>
+        <f>Casos!B55</f>
         <v>130759</v>
       </c>
       <c r="D55">
-        <f>Sheet1!C55</f>
+        <f>Casos!C55</f>
         <v>17851</v>
       </c>
       <c r="F55">
-        <f>Sheet1!D54</f>
+        <f>Casos!D54</f>
         <v>124632</v>
       </c>
       <c r="H55">
-        <f>Sheet1!E54</f>
+        <f>Casos!E54</f>
         <v>85778</v>
       </c>
       <c r="J55">
-        <f>Sheet1!F54</f>
+        <f>Casos!F54</f>
         <v>68605</v>
       </c>
       <c r="L55">
-        <f>Sheet1!G54</f>
+        <f>Casos!G54</f>
         <v>41903</v>
       </c>
       <c r="N55">
-        <f>Sheet1!H55</f>
+        <f>Casos!H55</f>
         <v>304826</v>
       </c>
     </row>
@@ -28968,31 +30035,31 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <f>Sheet1!B56</f>
+        <f>Casos!B56</f>
         <v>135032</v>
       </c>
       <c r="D56">
-        <f>Sheet1!C56</f>
+        <f>Casos!C56</f>
         <v>17851</v>
       </c>
       <c r="F56">
-        <f>Sheet1!D56</f>
+        <f>Casos!D56</f>
         <v>128948</v>
       </c>
       <c r="H56">
-        <f>Sheet1!F56</f>
+        <f>Casos!F56</f>
         <v>70478</v>
       </c>
       <c r="J56" t="e">
-        <f>Sheet1!#REF!</f>
+        <f>Casos!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="L56">
-        <f>Sheet1!G56</f>
+        <f>Casos!G56</f>
         <v>48451</v>
       </c>
       <c r="N56">
-        <f>Sheet1!H56</f>
+        <f>Casos!H56</f>
         <v>304826</v>
       </c>
     </row>
@@ -29001,31 +30068,31 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <f>Sheet1!B57</f>
+        <f>Casos!B57</f>
         <v>140510</v>
       </c>
       <c r="D57">
-        <f>Sheet1!C57</f>
+        <f>Casos!C57</f>
         <v>18803</v>
       </c>
       <c r="F57">
-        <f>Sheet1!D57</f>
+        <f>Casos!D57</f>
         <v>132547</v>
       </c>
       <c r="H57">
-        <f>Sheet1!E57</f>
+        <f>Casos!E57</f>
         <v>95391</v>
       </c>
       <c r="J57">
-        <f>Sheet1!F57</f>
+        <f>Casos!F57</f>
         <v>74390</v>
       </c>
       <c r="L57">
-        <f>Sheet1!G57</f>
+        <f>Casos!G57</f>
         <v>51608</v>
       </c>
       <c r="N57">
-        <f>Sheet1!H57</f>
+        <f>Casos!H57</f>
         <v>330891</v>
       </c>
     </row>
@@ -29034,31 +30101,31 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <f>Sheet1!B58</f>
+        <f>Casos!B58</f>
         <v>146690</v>
       </c>
       <c r="D58">
-        <f>Sheet1!C58</f>
+        <f>Casos!C58</f>
         <v>19580</v>
       </c>
       <c r="F58">
-        <f>Sheet1!D58</f>
+        <f>Casos!D58</f>
         <v>135586</v>
       </c>
       <c r="H58">
-        <f>Sheet1!E58</f>
+        <f>Casos!E58</f>
         <v>99225</v>
       </c>
       <c r="J58">
-        <f>Sheet1!F58</f>
+        <f>Casos!F58</f>
         <v>78167</v>
       </c>
       <c r="L58">
-        <f>Sheet1!G58</f>
+        <f>Casos!G58</f>
         <v>55242</v>
       </c>
       <c r="N58">
-        <f>Sheet1!H58</f>
+        <f>Casos!H58</f>
         <v>374329</v>
       </c>
     </row>
@@ -29067,31 +30134,31 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <f>Sheet1!B59</f>
+        <f>Casos!B59</f>
         <v>152446</v>
       </c>
       <c r="D59" t="e">
-        <f>Sheet1!#REF!</f>
+        <f>Casos!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="F59">
-        <f>Sheet1!D59</f>
+        <f>Casos!D59</f>
         <v>139422</v>
       </c>
       <c r="H59">
-        <f>Sheet1!E59</f>
+        <f>Casos!E59</f>
         <v>103228</v>
       </c>
       <c r="J59">
-        <f>Sheet1!F59</f>
+        <f>Casos!F59</f>
         <v>82048</v>
       </c>
       <c r="L59">
-        <f>Sheet1!G59</f>
+        <f>Casos!G59</f>
         <v>60733</v>
       </c>
       <c r="N59">
-        <f>Sheet1!C59</f>
+        <f>Casos!C59</f>
         <v>20549</v>
       </c>
     </row>
@@ -29100,31 +30167,31 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <f>Sheet1!B60</f>
+        <f>Casos!B60</f>
         <v>157022</v>
       </c>
       <c r="D60">
-        <f>Sheet1!C60</f>
+        <f>Casos!C60</f>
         <v>21762</v>
       </c>
       <c r="F60">
-        <f>Sheet1!D60</f>
+        <f>Casos!D60</f>
         <v>143626</v>
       </c>
       <c r="H60">
-        <f>Sheet1!E60</f>
+        <f>Casos!E60</f>
         <v>108202</v>
       </c>
       <c r="J60">
-        <f>Sheet1!F60</f>
+        <f>Casos!F60</f>
         <v>86334</v>
       </c>
       <c r="L60">
-        <f>Sheet1!G60</f>
+        <f>Casos!G60</f>
         <v>65077</v>
       </c>
       <c r="N60">
-        <f>Sheet1!H60</f>
+        <f>Casos!H60</f>
         <v>427460</v>
       </c>
     </row>
@@ -29133,31 +30200,31 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <f>Sheet1!B61</f>
+        <f>Casos!B61</f>
         <v>0</v>
       </c>
       <c r="D61">
-        <f>Sheet1!C61</f>
+        <f>Casos!C61</f>
         <v>0</v>
       </c>
       <c r="F61">
-        <f>Sheet1!D61</f>
+        <f>Casos!D61</f>
         <v>0</v>
       </c>
       <c r="H61">
-        <f>Sheet1!E61</f>
+        <f>Casos!E61</f>
         <v>0</v>
       </c>
       <c r="J61">
-        <f>Sheet1!F61</f>
+        <f>Casos!F61</f>
         <v>0</v>
       </c>
       <c r="L61">
-        <f>Sheet1!G61</f>
+        <f>Casos!G61</f>
         <v>0</v>
       </c>
       <c r="N61">
-        <f>Sheet1!H61</f>
+        <f>Casos!H61</f>
         <v>0</v>
       </c>
     </row>
@@ -29166,31 +30233,31 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <f>Sheet1!B62</f>
+        <f>Casos!B62</f>
         <v>0</v>
       </c>
       <c r="D62">
-        <f>Sheet1!C62</f>
+        <f>Casos!C62</f>
         <v>0</v>
       </c>
       <c r="F62">
-        <f>Sheet1!D62</f>
+        <f>Casos!D62</f>
         <v>0</v>
       </c>
       <c r="H62">
-        <f>Sheet1!E62</f>
+        <f>Casos!E62</f>
         <v>0</v>
       </c>
       <c r="J62">
-        <f>Sheet1!F62</f>
+        <f>Casos!F62</f>
         <v>0</v>
       </c>
       <c r="L62">
-        <f>Sheet1!G62</f>
+        <f>Casos!G62</f>
         <v>0</v>
       </c>
       <c r="N62">
-        <f>Sheet1!H62</f>
+        <f>Casos!H62</f>
         <v>0</v>
       </c>
     </row>
@@ -29199,31 +30266,31 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <f>Sheet1!B63</f>
+        <f>Casos!B63</f>
         <v>0</v>
       </c>
       <c r="D63">
-        <f>Sheet1!C63</f>
+        <f>Casos!C63</f>
         <v>0</v>
       </c>
       <c r="F63">
-        <f>Sheet1!D63</f>
+        <f>Casos!D63</f>
         <v>0</v>
       </c>
       <c r="H63">
-        <f>Sheet1!E63</f>
+        <f>Casos!E63</f>
         <v>0</v>
       </c>
       <c r="J63">
-        <f>Sheet1!F63</f>
+        <f>Casos!F63</f>
         <v>0</v>
       </c>
       <c r="L63">
-        <f>Sheet1!G63</f>
+        <f>Casos!G63</f>
         <v>0</v>
       </c>
       <c r="N63">
-        <f>Sheet1!H63</f>
+        <f>Casos!H63</f>
         <v>0</v>
       </c>
     </row>
@@ -29232,31 +30299,31 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <f>Sheet1!B64</f>
+        <f>Casos!B64</f>
         <v>0</v>
       </c>
       <c r="D64">
-        <f>Sheet1!C64</f>
+        <f>Casos!C64</f>
         <v>0</v>
       </c>
       <c r="F64">
-        <f>Sheet1!D64</f>
+        <f>Casos!D64</f>
         <v>0</v>
       </c>
       <c r="H64">
-        <f>Sheet1!E64</f>
+        <f>Casos!E64</f>
         <v>0</v>
       </c>
       <c r="J64">
-        <f>Sheet1!F64</f>
+        <f>Casos!F64</f>
         <v>0</v>
       </c>
       <c r="L64">
-        <f>Sheet1!G64</f>
+        <f>Casos!G64</f>
         <v>0</v>
       </c>
       <c r="N64">
-        <f>Sheet1!H64</f>
+        <f>Casos!H64</f>
         <v>0</v>
       </c>
     </row>
@@ -29265,31 +30332,31 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <f>Sheet1!B65</f>
+        <f>Casos!B65</f>
         <v>0</v>
       </c>
       <c r="D65">
-        <f>Sheet1!C65</f>
+        <f>Casos!C65</f>
         <v>0</v>
       </c>
       <c r="F65">
-        <f>Sheet1!D65</f>
+        <f>Casos!D65</f>
         <v>0</v>
       </c>
       <c r="H65">
-        <f>Sheet1!E65</f>
+        <f>Casos!E65</f>
         <v>0</v>
       </c>
       <c r="J65">
-        <f>Sheet1!F65</f>
+        <f>Casos!F65</f>
         <v>0</v>
       </c>
       <c r="L65">
-        <f>Sheet1!G65</f>
+        <f>Casos!G65</f>
         <v>0</v>
       </c>
       <c r="N65">
-        <f>Sheet1!H65</f>
+        <f>Casos!H65</f>
         <v>0</v>
       </c>
     </row>
@@ -29298,31 +30365,31 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <f>Sheet1!B66</f>
+        <f>Casos!B66</f>
         <v>0</v>
       </c>
       <c r="D66">
-        <f>Sheet1!C66</f>
+        <f>Casos!C66</f>
         <v>0</v>
       </c>
       <c r="F66">
-        <f>Sheet1!D66</f>
+        <f>Casos!D66</f>
         <v>0</v>
       </c>
       <c r="H66">
-        <f>Sheet1!E66</f>
+        <f>Casos!E66</f>
         <v>0</v>
       </c>
       <c r="J66">
-        <f>Sheet1!F66</f>
+        <f>Casos!F66</f>
         <v>0</v>
       </c>
       <c r="L66">
-        <f>Sheet1!G66</f>
+        <f>Casos!G66</f>
         <v>0</v>
       </c>
       <c r="N66">
-        <f>Sheet1!H66</f>
+        <f>Casos!H66</f>
         <v>0</v>
       </c>
     </row>
@@ -29331,31 +30398,31 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <f>Sheet1!B67</f>
+        <f>Casos!B67</f>
         <v>0</v>
       </c>
       <c r="D67">
-        <f>Sheet1!C67</f>
+        <f>Casos!C67</f>
         <v>0</v>
       </c>
       <c r="F67">
-        <f>Sheet1!D67</f>
+        <f>Casos!D67</f>
         <v>0</v>
       </c>
       <c r="H67">
-        <f>Sheet1!E67</f>
+        <f>Casos!E67</f>
         <v>0</v>
       </c>
       <c r="J67">
-        <f>Sheet1!F67</f>
+        <f>Casos!F67</f>
         <v>0</v>
       </c>
       <c r="L67">
-        <f>Sheet1!G67</f>
+        <f>Casos!G67</f>
         <v>0</v>
       </c>
       <c r="N67">
-        <f>Sheet1!H67</f>
+        <f>Casos!H67</f>
         <v>0</v>
       </c>
     </row>
@@ -29364,31 +30431,31 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <f>Sheet1!B68</f>
+        <f>Casos!B68</f>
         <v>0</v>
       </c>
       <c r="D68">
-        <f>Sheet1!C68</f>
+        <f>Casos!C68</f>
         <v>0</v>
       </c>
       <c r="F68">
-        <f>Sheet1!D68</f>
+        <f>Casos!D68</f>
         <v>0</v>
       </c>
       <c r="H68">
-        <f>Sheet1!E68</f>
+        <f>Casos!E68</f>
         <v>0</v>
       </c>
       <c r="J68">
-        <f>Sheet1!F68</f>
+        <f>Casos!F68</f>
         <v>0</v>
       </c>
       <c r="L68">
-        <f>Sheet1!G68</f>
+        <f>Casos!G68</f>
         <v>0</v>
       </c>
       <c r="N68">
-        <f>Sheet1!H68</f>
+        <f>Casos!H68</f>
         <v>0</v>
       </c>
     </row>
@@ -29397,31 +30464,31 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <f>Sheet1!B69</f>
+        <f>Casos!B69</f>
         <v>0</v>
       </c>
       <c r="D69">
-        <f>Sheet1!C69</f>
+        <f>Casos!C69</f>
         <v>0</v>
       </c>
       <c r="F69">
-        <f>Sheet1!D69</f>
+        <f>Casos!D69</f>
         <v>0</v>
       </c>
       <c r="H69">
-        <f>Sheet1!E69</f>
+        <f>Casos!E69</f>
         <v>0</v>
       </c>
       <c r="J69">
-        <f>Sheet1!F69</f>
+        <f>Casos!F69</f>
         <v>0</v>
       </c>
       <c r="L69">
-        <f>Sheet1!G69</f>
+        <f>Casos!G69</f>
         <v>0</v>
       </c>
       <c r="N69">
-        <f>Sheet1!H69</f>
+        <f>Casos!H69</f>
         <v>0</v>
       </c>
     </row>
@@ -29430,31 +30497,31 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <f>Sheet1!B70</f>
+        <f>Casos!B70</f>
         <v>0</v>
       </c>
       <c r="D70">
-        <f>Sheet1!C70</f>
+        <f>Casos!C70</f>
         <v>0</v>
       </c>
       <c r="F70">
-        <f>Sheet1!D70</f>
+        <f>Casos!D70</f>
         <v>0</v>
       </c>
       <c r="H70">
-        <f>Sheet1!E70</f>
+        <f>Casos!E70</f>
         <v>0</v>
       </c>
       <c r="J70">
-        <f>Sheet1!F70</f>
+        <f>Casos!F70</f>
         <v>0</v>
       </c>
       <c r="L70">
-        <f>Sheet1!G70</f>
+        <f>Casos!G70</f>
         <v>0</v>
       </c>
       <c r="N70">
-        <f>Sheet1!H70</f>
+        <f>Casos!H70</f>
         <v>0</v>
       </c>
     </row>

--- a/Sources/Paises.xlsx
+++ b/Sources/Paises.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\PowerBI_Covid\Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E510292C-E03A-488F-8AC8-DF8B29D36481}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9932CDD5-0B51-441A-AABC-8385379C0FCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -717,6 +717,9 @@
                 <c:pt idx="58">
                   <c:v>157022</c:v>
                 </c:pt>
+                <c:pt idx="59">
+                  <c:v>161852</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1151,6 +1154,9 @@
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>21762</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>23097</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1963,6 +1969,9 @@
                 <c:pt idx="58">
                   <c:v>108202</c:v>
                 </c:pt>
+                <c:pt idx="59">
+                  <c:v>113525</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2402,6 +2411,9 @@
                 <c:pt idx="58">
                   <c:v>86334</c:v>
                 </c:pt>
+                <c:pt idx="59">
+                  <c:v>90676</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2836,6 +2848,9 @@
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>65077</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>70272</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4444,7 +4459,7 @@
                   <c:v>3365.237891127304</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0</c:v>
+                  <c:v>3468.7526789541366</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>0</c:v>
@@ -15755,8 +15770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL70"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AC44" sqref="AC44"/>
+    <sheetView topLeftCell="A16" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61:H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18766,6 +18781,27 @@
       <c r="A61" s="1">
         <v>43932</v>
       </c>
+      <c r="B61">
+        <v>161852</v>
+      </c>
+      <c r="C61">
+        <v>23097</v>
+      </c>
+      <c r="D61">
+        <v>147577</v>
+      </c>
+      <c r="E61">
+        <v>113525</v>
+      </c>
+      <c r="F61">
+        <v>90676</v>
+      </c>
+      <c r="G61">
+        <v>70272</v>
+      </c>
+      <c r="H61">
+        <v>459165</v>
+      </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
@@ -18823,8 +18859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C86610-CB55-4FA2-9727-343B46DC10BB}">
   <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19833,6 +19869,27 @@
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>43932</v>
+      </c>
+      <c r="B61">
+        <v>16353</v>
+      </c>
+      <c r="C61">
+        <v>2511</v>
+      </c>
+      <c r="D61">
+        <v>18849</v>
+      </c>
+      <c r="E61">
+        <v>2373</v>
+      </c>
+      <c r="F61">
+        <v>13197</v>
+      </c>
+      <c r="G61">
+        <v>8958</v>
+      </c>
+      <c r="H61">
+        <v>16570</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -23593,35 +23650,35 @@
       </c>
       <c r="B61">
         <f>Casos!B61</f>
-        <v>0</v>
+        <v>161852</v>
       </c>
       <c r="C61">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3468.7526789541366</v>
       </c>
       <c r="D61">
         <f>Casos!C61</f>
-        <v>0</v>
+        <v>23097</v>
       </c>
       <c r="F61">
         <f>Casos!D61</f>
-        <v>0</v>
+        <v>147577</v>
       </c>
       <c r="H61">
         <f>Casos!E61</f>
-        <v>0</v>
+        <v>113525</v>
       </c>
       <c r="J61">
         <f>Casos!F61</f>
-        <v>0</v>
+        <v>90676</v>
       </c>
       <c r="L61">
         <f>Casos!G61</f>
-        <v>0</v>
+        <v>70272</v>
       </c>
       <c r="N61">
         <f>Casos!H61</f>
-        <v>0</v>
+        <v>459165</v>
       </c>
     </row>
     <row r="62" spans="1:36" x14ac:dyDescent="0.25">
@@ -26917,31 +26974,31 @@
       </c>
       <c r="B61">
         <f>Casos!B61</f>
-        <v>0</v>
+        <v>161852</v>
       </c>
       <c r="D61">
         <f>Casos!C61</f>
-        <v>0</v>
+        <v>23097</v>
       </c>
       <c r="F61">
         <f>Casos!D61</f>
-        <v>0</v>
+        <v>147577</v>
       </c>
       <c r="H61">
         <f>Casos!E61</f>
-        <v>0</v>
+        <v>113525</v>
       </c>
       <c r="J61">
         <f>Casos!F61</f>
-        <v>0</v>
+        <v>90676</v>
       </c>
       <c r="L61">
         <f>Casos!G61</f>
-        <v>0</v>
+        <v>70272</v>
       </c>
       <c r="N61">
         <f>Casos!H61</f>
-        <v>0</v>
+        <v>459165</v>
       </c>
     </row>
     <row r="62" spans="1:36" x14ac:dyDescent="0.25">
@@ -30201,31 +30258,31 @@
       </c>
       <c r="B61">
         <f>Casos!B61</f>
-        <v>0</v>
+        <v>161852</v>
       </c>
       <c r="D61">
         <f>Casos!C61</f>
-        <v>0</v>
+        <v>23097</v>
       </c>
       <c r="F61">
         <f>Casos!D61</f>
-        <v>0</v>
+        <v>147577</v>
       </c>
       <c r="H61">
         <f>Casos!E61</f>
-        <v>0</v>
+        <v>113525</v>
       </c>
       <c r="J61">
         <f>Casos!F61</f>
-        <v>0</v>
+        <v>90676</v>
       </c>
       <c r="L61">
         <f>Casos!G61</f>
-        <v>0</v>
+        <v>70272</v>
       </c>
       <c r="N61">
         <f>Casos!H61</f>
-        <v>0</v>
+        <v>459165</v>
       </c>
     </row>
     <row r="62" spans="1:36" x14ac:dyDescent="0.25">

--- a/Sources/Paises.xlsx
+++ b/Sources/Paises.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\PowerBI_Covid\Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9932CDD5-0B51-441A-AABC-8385379C0FCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA14A2A-AB0B-41F4-B968-42AEE6D9BCC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -720,6 +720,9 @@
                 <c:pt idx="59">
                   <c:v>161852</c:v>
                 </c:pt>
+                <c:pt idx="60">
+                  <c:v>166019</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1157,6 +1160,9 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>23097</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>24413</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1972,6 +1978,9 @@
                 <c:pt idx="59">
                   <c:v>113525</c:v>
                 </c:pt>
+                <c:pt idx="60">
+                  <c:v>117658</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2414,6 +2423,9 @@
                 <c:pt idx="59">
                   <c:v>90676</c:v>
                 </c:pt>
+                <c:pt idx="60">
+                  <c:v>93790</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2851,6 +2863,9 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>70272</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>78991</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4462,7 +4477,7 @@
                   <c:v>3468.7526789541366</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0</c:v>
+                  <c:v>3558.0582940420063</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>0</c:v>
@@ -15771,7 +15786,7 @@
   <dimension ref="A1:AL70"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61:H61"/>
+      <selection activeCell="B62" sqref="B62:H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18807,6 +18822,27 @@
       <c r="A62" s="1">
         <v>43933</v>
       </c>
+      <c r="B62">
+        <v>166019</v>
+      </c>
+      <c r="C62">
+        <v>24413</v>
+      </c>
+      <c r="D62">
+        <v>152271</v>
+      </c>
+      <c r="E62">
+        <v>117658</v>
+      </c>
+      <c r="F62">
+        <v>93790</v>
+      </c>
+      <c r="G62">
+        <v>78991</v>
+      </c>
+      <c r="H62">
+        <v>492416</v>
+      </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
@@ -18860,7 +18896,7 @@
   <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19895,6 +19931,27 @@
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>43933</v>
+      </c>
+      <c r="B62">
+        <v>16972</v>
+      </c>
+      <c r="C62">
+        <v>2643</v>
+      </c>
+      <c r="D62">
+        <v>19468</v>
+      </c>
+      <c r="E62">
+        <v>2544</v>
+      </c>
+      <c r="F62">
+        <v>13832</v>
+      </c>
+      <c r="G62">
+        <v>9.875</v>
+      </c>
+      <c r="H62">
+        <v>18559</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -23687,35 +23744,35 @@
       </c>
       <c r="B62">
         <f>Casos!B62</f>
-        <v>0</v>
+        <v>166019</v>
       </c>
       <c r="C62">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3558.0582940420063</v>
       </c>
       <c r="D62">
         <f>Casos!C62</f>
-        <v>0</v>
+        <v>24413</v>
       </c>
       <c r="F62">
         <f>Casos!D62</f>
-        <v>0</v>
+        <v>152271</v>
       </c>
       <c r="H62">
         <f>Casos!E62</f>
-        <v>0</v>
+        <v>117658</v>
       </c>
       <c r="J62">
         <f>Casos!F62</f>
-        <v>0</v>
+        <v>93790</v>
       </c>
       <c r="L62">
         <f>Casos!G62</f>
-        <v>0</v>
+        <v>78991</v>
       </c>
       <c r="N62">
         <f>Casos!H62</f>
-        <v>0</v>
+        <v>492416</v>
       </c>
     </row>
     <row r="63" spans="1:36" x14ac:dyDescent="0.25">
@@ -27007,31 +27064,31 @@
       </c>
       <c r="B62">
         <f>Casos!B62</f>
-        <v>0</v>
+        <v>166019</v>
       </c>
       <c r="D62">
         <f>Casos!C62</f>
-        <v>0</v>
+        <v>24413</v>
       </c>
       <c r="F62">
         <f>Casos!D62</f>
-        <v>0</v>
+        <v>152271</v>
       </c>
       <c r="H62">
         <f>Casos!E62</f>
-        <v>0</v>
+        <v>117658</v>
       </c>
       <c r="J62">
         <f>Casos!F62</f>
-        <v>0</v>
+        <v>93790</v>
       </c>
       <c r="L62">
         <f>Casos!G62</f>
-        <v>0</v>
+        <v>78991</v>
       </c>
       <c r="N62">
         <f>Casos!H62</f>
-        <v>0</v>
+        <v>492416</v>
       </c>
     </row>
     <row r="63" spans="1:36" x14ac:dyDescent="0.25">
@@ -30291,31 +30348,31 @@
       </c>
       <c r="B62">
         <f>Casos!B62</f>
-        <v>0</v>
+        <v>166019</v>
       </c>
       <c r="D62">
         <f>Casos!C62</f>
-        <v>0</v>
+        <v>24413</v>
       </c>
       <c r="F62">
         <f>Casos!D62</f>
-        <v>0</v>
+        <v>152271</v>
       </c>
       <c r="H62">
         <f>Casos!E62</f>
-        <v>0</v>
+        <v>117658</v>
       </c>
       <c r="J62">
         <f>Casos!F62</f>
-        <v>0</v>
+        <v>93790</v>
       </c>
       <c r="L62">
         <f>Casos!G62</f>
-        <v>0</v>
+        <v>78991</v>
       </c>
       <c r="N62">
         <f>Casos!H62</f>
-        <v>0</v>
+        <v>492416</v>
       </c>
     </row>
     <row r="63" spans="1:36" x14ac:dyDescent="0.25">

--- a/Sources/Paises.xlsx
+++ b/Sources/Paises.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\PowerBI_Covid\Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA14A2A-AB0B-41F4-B968-42AEE6D9BCC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAAC095-50BD-424E-9C4C-DF091336C245}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Casos" sheetId="1" r:id="rId1"/>
@@ -723,6 +723,9 @@
                 <c:pt idx="60">
                   <c:v>166019</c:v>
                 </c:pt>
+                <c:pt idx="61">
+                  <c:v>169496</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1163,6 +1166,9 @@
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>24413</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>25587</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1981,6 +1987,9 @@
                 <c:pt idx="60">
                   <c:v>117658</c:v>
                 </c:pt>
+                <c:pt idx="61">
+                  <c:v>120479</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2426,6 +2435,9 @@
                 <c:pt idx="60">
                   <c:v>93790</c:v>
                 </c:pt>
+                <c:pt idx="61">
+                  <c:v>95403</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2866,6 +2878,9 @@
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>78991</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>84279</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4480,7 +4495,7 @@
                   <c:v>3558.0582940420063</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0</c:v>
+                  <c:v>3632.5760822974712</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15785,8 +15800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL70"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62:H62"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18848,6 +18863,27 @@
       <c r="A63" s="1">
         <v>43934</v>
       </c>
+      <c r="B63">
+        <v>169496</v>
+      </c>
+      <c r="C63">
+        <v>25587</v>
+      </c>
+      <c r="D63">
+        <v>156363</v>
+      </c>
+      <c r="E63">
+        <v>120479</v>
+      </c>
+      <c r="F63">
+        <v>95403</v>
+      </c>
+      <c r="G63">
+        <v>84279</v>
+      </c>
+      <c r="H63">
+        <v>525704</v>
+      </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
@@ -18895,8 +18931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C86610-CB55-4FA2-9727-343B46DC10BB}">
   <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63:H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19957,6 +19993,27 @@
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>43934</v>
+      </c>
+      <c r="B63">
+        <v>17489</v>
+      </c>
+      <c r="C63">
+        <v>2737</v>
+      </c>
+      <c r="D63">
+        <v>19899</v>
+      </c>
+      <c r="E63">
+        <v>2673</v>
+      </c>
+      <c r="F63">
+        <v>14393</v>
+      </c>
+      <c r="G63">
+        <v>10612</v>
+      </c>
+      <c r="H63">
+        <v>20486</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -23781,35 +23838,35 @@
       </c>
       <c r="B63">
         <f>Casos!B63</f>
-        <v>0</v>
+        <v>169496</v>
       </c>
       <c r="C63">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3632.5760822974712</v>
       </c>
       <c r="D63">
         <f>Casos!C63</f>
-        <v>0</v>
+        <v>25587</v>
       </c>
       <c r="F63">
         <f>Casos!D63</f>
-        <v>0</v>
+        <v>156363</v>
       </c>
       <c r="H63">
         <f>Casos!E63</f>
-        <v>0</v>
+        <v>120479</v>
       </c>
       <c r="J63">
         <f>Casos!F63</f>
-        <v>0</v>
+        <v>95403</v>
       </c>
       <c r="L63">
         <f>Casos!G63</f>
-        <v>0</v>
+        <v>84279</v>
       </c>
       <c r="N63">
         <f>Casos!H63</f>
-        <v>0</v>
+        <v>525704</v>
       </c>
     </row>
     <row r="64" spans="1:36" x14ac:dyDescent="0.25">
@@ -27097,31 +27154,31 @@
       </c>
       <c r="B63">
         <f>Casos!B63</f>
-        <v>0</v>
+        <v>169496</v>
       </c>
       <c r="D63">
         <f>Casos!C63</f>
-        <v>0</v>
+        <v>25587</v>
       </c>
       <c r="F63">
         <f>Casos!D63</f>
-        <v>0</v>
+        <v>156363</v>
       </c>
       <c r="H63">
         <f>Casos!E63</f>
-        <v>0</v>
+        <v>120479</v>
       </c>
       <c r="J63">
         <f>Casos!F63</f>
-        <v>0</v>
+        <v>95403</v>
       </c>
       <c r="L63">
         <f>Casos!G63</f>
-        <v>0</v>
+        <v>84279</v>
       </c>
       <c r="N63">
         <f>Casos!H63</f>
-        <v>0</v>
+        <v>525704</v>
       </c>
     </row>
     <row r="64" spans="1:36" x14ac:dyDescent="0.25">
@@ -30381,31 +30438,31 @@
       </c>
       <c r="B63">
         <f>Casos!B63</f>
-        <v>0</v>
+        <v>169496</v>
       </c>
       <c r="D63">
         <f>Casos!C63</f>
-        <v>0</v>
+        <v>25587</v>
       </c>
       <c r="F63">
         <f>Casos!D63</f>
-        <v>0</v>
+        <v>156363</v>
       </c>
       <c r="H63">
         <f>Casos!E63</f>
-        <v>0</v>
+        <v>120479</v>
       </c>
       <c r="J63">
         <f>Casos!F63</f>
-        <v>0</v>
+        <v>95403</v>
       </c>
       <c r="L63">
         <f>Casos!G63</f>
-        <v>0</v>
+        <v>84279</v>
       </c>
       <c r="N63">
         <f>Casos!H63</f>
-        <v>0</v>
+        <v>525704</v>
       </c>
     </row>
     <row r="64" spans="1:36" x14ac:dyDescent="0.25">

--- a/Sources/Paises.xlsx
+++ b/Sources/Paises.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\PowerBI_Covid\Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAAC095-50BD-424E-9C4C-DF091336C245}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB495C4-9310-4E39-8B8D-7943EFC65054}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="49">
   <si>
     <t>Italia</t>
   </si>
@@ -183,6 +183,9 @@
   <si>
     <t>Fallecidos</t>
   </si>
+  <si>
+    <t>159.516 I</t>
+  </si>
 </sst>
 </file>
 
@@ -1170,6 +1173,12 @@
                 <c:pt idx="61">
                   <c:v>25587</c:v>
                 </c:pt>
+                <c:pt idx="62">
+                  <c:v>26551</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>27419</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2438,6 +2447,9 @@
                 <c:pt idx="61">
                   <c:v>95403</c:v>
                 </c:pt>
+                <c:pt idx="62">
+                  <c:v>98076</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2881,6 +2893,12 @@
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>84279</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>88621</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>93873</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15801,7 +15819,7 @@
   <dimension ref="A1:AL70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18889,33 +18907,75 @@
       <c r="A64" s="1">
         <v>43935</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>172541</v>
+      </c>
+      <c r="C64">
+        <v>26551</v>
+      </c>
+      <c r="D64" t="s">
+        <v>48</v>
+      </c>
+      <c r="E64">
+        <v>123016</v>
+      </c>
+      <c r="F64">
+        <v>98076</v>
+      </c>
+      <c r="G64">
+        <v>88621</v>
+      </c>
+      <c r="H64">
+        <v>554859</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>43936</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>177633</v>
+      </c>
+      <c r="C65">
+        <v>27419</v>
+      </c>
+      <c r="D65">
+        <v>162488</v>
+      </c>
+      <c r="E65">
+        <v>125098</v>
+      </c>
+      <c r="F65">
+        <v>103573</v>
+      </c>
+      <c r="G65">
+        <v>93873</v>
+      </c>
+      <c r="H65">
+        <v>579005</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>43937</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>43938</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>43939</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>43940</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>43941</v>
       </c>
@@ -18932,7 +18992,7 @@
   <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63:H63"/>
+      <selection activeCell="B64" sqref="B64:H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19984,7 +20044,7 @@
         <v>13832</v>
       </c>
       <c r="G62">
-        <v>9.875</v>
+        <v>9875</v>
       </c>
       <c r="H62">
         <v>18559</v>
@@ -20020,33 +20080,75 @@
       <c r="A64" s="1">
         <v>43935</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>18056</v>
+      </c>
+      <c r="C64">
+        <v>2823</v>
+      </c>
+      <c r="D64">
+        <v>20465</v>
+      </c>
+      <c r="E64">
+        <v>2799</v>
+      </c>
+      <c r="F64">
+        <v>14967</v>
+      </c>
+      <c r="G64">
+        <v>11329</v>
+      </c>
+      <c r="H64">
+        <v>21942</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>43936</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>18579</v>
+      </c>
+      <c r="C65">
+        <v>2945</v>
+      </c>
+      <c r="D65">
+        <v>21067</v>
+      </c>
+      <c r="E65">
+        <v>2969</v>
+      </c>
+      <c r="F65">
+        <v>15729</v>
+      </c>
+      <c r="G65">
+        <v>12107</v>
+      </c>
+      <c r="H65">
+        <v>22252</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>43937</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>43938</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>43939</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>43940</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>43941</v>
       </c>
@@ -23875,35 +23977,35 @@
       </c>
       <c r="B64">
         <f>Casos!B64</f>
-        <v>0</v>
+        <v>172541</v>
       </c>
       <c r="C64">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3697.8354050578655</v>
       </c>
       <c r="D64">
         <f>Casos!C64</f>
-        <v>0</v>
-      </c>
-      <c r="F64">
+        <v>26551</v>
+      </c>
+      <c r="F64" t="str">
         <f>Casos!D64</f>
-        <v>0</v>
+        <v>159.516 I</v>
       </c>
       <c r="H64">
         <f>Casos!E64</f>
-        <v>0</v>
+        <v>123016</v>
       </c>
       <c r="J64">
         <f>Casos!F64</f>
-        <v>0</v>
+        <v>98076</v>
       </c>
       <c r="L64">
         <f>Casos!G64</f>
-        <v>0</v>
+        <v>88621</v>
       </c>
       <c r="N64">
         <f>Casos!H64</f>
-        <v>0</v>
+        <v>554859</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
@@ -23912,35 +24014,35 @@
       </c>
       <c r="B65">
         <f>Casos!B65</f>
-        <v>0</v>
+        <v>177633</v>
       </c>
       <c r="C65">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3806.9652807543939</v>
       </c>
       <c r="D65">
         <f>Casos!C65</f>
-        <v>0</v>
+        <v>27419</v>
       </c>
       <c r="F65">
         <f>Casos!D65</f>
-        <v>0</v>
+        <v>162488</v>
       </c>
       <c r="H65">
         <f>Casos!E65</f>
-        <v>0</v>
+        <v>125098</v>
       </c>
       <c r="J65">
         <f>Casos!F65</f>
-        <v>0</v>
+        <v>103573</v>
       </c>
       <c r="L65">
         <f>Casos!G65</f>
-        <v>0</v>
+        <v>93873</v>
       </c>
       <c r="N65">
         <f>Casos!H65</f>
-        <v>0</v>
+        <v>579005</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
@@ -27187,31 +27289,31 @@
       </c>
       <c r="B64">
         <f>Casos!B64</f>
-        <v>0</v>
+        <v>172541</v>
       </c>
       <c r="D64">
         <f>Casos!C64</f>
-        <v>0</v>
-      </c>
-      <c r="F64">
+        <v>26551</v>
+      </c>
+      <c r="F64" t="str">
         <f>Casos!D64</f>
-        <v>0</v>
+        <v>159.516 I</v>
       </c>
       <c r="H64">
         <f>Casos!E64</f>
-        <v>0</v>
+        <v>123016</v>
       </c>
       <c r="J64">
         <f>Casos!F64</f>
-        <v>0</v>
+        <v>98076</v>
       </c>
       <c r="L64">
         <f>Casos!G64</f>
-        <v>0</v>
+        <v>88621</v>
       </c>
       <c r="N64">
         <f>Casos!H64</f>
-        <v>0</v>
+        <v>554859</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
@@ -27220,31 +27322,31 @@
       </c>
       <c r="B65">
         <f>Casos!B65</f>
-        <v>0</v>
+        <v>177633</v>
       </c>
       <c r="D65">
         <f>Casos!C65</f>
-        <v>0</v>
+        <v>27419</v>
       </c>
       <c r="F65">
         <f>Casos!D65</f>
-        <v>0</v>
+        <v>162488</v>
       </c>
       <c r="H65">
         <f>Casos!E65</f>
-        <v>0</v>
+        <v>125098</v>
       </c>
       <c r="J65">
         <f>Casos!F65</f>
-        <v>0</v>
+        <v>103573</v>
       </c>
       <c r="L65">
         <f>Casos!G65</f>
-        <v>0</v>
+        <v>93873</v>
       </c>
       <c r="N65">
         <f>Casos!H65</f>
-        <v>0</v>
+        <v>579005</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
@@ -30471,31 +30573,31 @@
       </c>
       <c r="B64">
         <f>Casos!B64</f>
-        <v>0</v>
+        <v>172541</v>
       </c>
       <c r="D64">
         <f>Casos!C64</f>
-        <v>0</v>
-      </c>
-      <c r="F64">
+        <v>26551</v>
+      </c>
+      <c r="F64" t="str">
         <f>Casos!D64</f>
-        <v>0</v>
+        <v>159.516 I</v>
       </c>
       <c r="H64">
         <f>Casos!E64</f>
-        <v>0</v>
+        <v>123016</v>
       </c>
       <c r="J64">
         <f>Casos!F64</f>
-        <v>0</v>
+        <v>98076</v>
       </c>
       <c r="L64">
         <f>Casos!G64</f>
-        <v>0</v>
+        <v>88621</v>
       </c>
       <c r="N64">
         <f>Casos!H64</f>
-        <v>0</v>
+        <v>554859</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
@@ -30504,31 +30606,31 @@
       </c>
       <c r="B65">
         <f>Casos!B65</f>
-        <v>0</v>
+        <v>177633</v>
       </c>
       <c r="D65">
         <f>Casos!C65</f>
-        <v>0</v>
+        <v>27419</v>
       </c>
       <c r="F65">
         <f>Casos!D65</f>
-        <v>0</v>
+        <v>162488</v>
       </c>
       <c r="H65">
         <f>Casos!E65</f>
-        <v>0</v>
+        <v>125098</v>
       </c>
       <c r="J65">
         <f>Casos!F65</f>
-        <v>0</v>
+        <v>103573</v>
       </c>
       <c r="L65">
         <f>Casos!G65</f>
-        <v>0</v>
+        <v>93873</v>
       </c>
       <c r="N65">
         <f>Casos!H65</f>
-        <v>0</v>
+        <v>579005</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">

--- a/Sources/Paises.xlsx
+++ b/Sources/Paises.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\PowerBI_Covid\Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB495C4-9310-4E39-8B8D-7943EFC65054}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E860CCA-D5DB-496F-8C67-EA7CC77FA811}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="48">
   <si>
     <t>Italia</t>
   </si>
@@ -182,9 +182,6 @@
   </si>
   <si>
     <t>Fallecidos</t>
-  </si>
-  <si>
-    <t>159.516 I</t>
   </si>
 </sst>
 </file>
@@ -15819,7 +15816,7 @@
   <dimension ref="A1:AL70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18913,8 +18910,8 @@
       <c r="C64">
         <v>26551</v>
       </c>
-      <c r="D64" t="s">
-        <v>48</v>
+      <c r="D64">
+        <v>159516</v>
       </c>
       <c r="E64">
         <v>123016</v>
@@ -23987,9 +23984,9 @@
         <f>Casos!C64</f>
         <v>26551</v>
       </c>
-      <c r="F64" t="str">
+      <c r="F64">
         <f>Casos!D64</f>
-        <v>159.516 I</v>
+        <v>159516</v>
       </c>
       <c r="H64">
         <f>Casos!E64</f>
@@ -27295,9 +27292,9 @@
         <f>Casos!C64</f>
         <v>26551</v>
       </c>
-      <c r="F64" t="str">
+      <c r="F64">
         <f>Casos!D64</f>
-        <v>159.516 I</v>
+        <v>159516</v>
       </c>
       <c r="H64">
         <f>Casos!E64</f>
@@ -30579,9 +30576,9 @@
         <f>Casos!C64</f>
         <v>26551</v>
       </c>
-      <c r="F64" t="str">
+      <c r="F64">
         <f>Casos!D64</f>
-        <v>159.516 I</v>
+        <v>159516</v>
       </c>
       <c r="H64">
         <f>Casos!E64</f>

--- a/Sources/Paises.xlsx
+++ b/Sources/Paises.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\PowerBI_Covid\Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E860CCA-D5DB-496F-8C67-EA7CC77FA811}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B6769B-D479-481E-871F-01C6D4F35D48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1176,6 +1176,9 @@
                 <c:pt idx="63">
                   <c:v>27419</c:v>
                 </c:pt>
+                <c:pt idx="64">
+                  <c:v>28153</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2896,6 +2899,9 @@
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>93873</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>98476</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15816,7 +15822,7 @@
   <dimension ref="A1:AL70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+      <selection activeCell="B66" sqref="B66:H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18956,6 +18962,27 @@
       <c r="A66" s="1">
         <v>43937</v>
       </c>
+      <c r="B66">
+        <v>182816</v>
+      </c>
+      <c r="C66">
+        <v>28153</v>
+      </c>
+      <c r="D66">
+        <v>165155</v>
+      </c>
+      <c r="E66">
+        <v>127584</v>
+      </c>
+      <c r="F66">
+        <v>106206</v>
+      </c>
+      <c r="G66">
+        <v>98476</v>
+      </c>
+      <c r="H66">
+        <v>605390</v>
+      </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
@@ -18989,7 +19016,7 @@
   <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64:H65"/>
+      <selection activeCell="B66" sqref="B66:H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20128,6 +20155,27 @@
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>43937</v>
+      </c>
+      <c r="B66">
+        <v>19130</v>
+      </c>
+      <c r="C66">
+        <v>3134</v>
+      </c>
+      <c r="D66">
+        <v>21645</v>
+      </c>
+      <c r="E66">
+        <v>3254</v>
+      </c>
+      <c r="F66">
+        <v>17167</v>
+      </c>
+      <c r="G66">
+        <v>12868</v>
+      </c>
+      <c r="H66">
+        <v>25592</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -24048,35 +24096,35 @@
       </c>
       <c r="B66">
         <f>Casos!B66</f>
-        <v>0</v>
+        <v>182816</v>
       </c>
       <c r="C66">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3918.0454350621521</v>
       </c>
       <c r="D66">
         <f>Casos!C66</f>
-        <v>0</v>
+        <v>28153</v>
       </c>
       <c r="F66">
         <f>Casos!D66</f>
-        <v>0</v>
+        <v>165155</v>
       </c>
       <c r="H66">
         <f>Casos!E66</f>
-        <v>0</v>
+        <v>127584</v>
       </c>
       <c r="J66">
         <f>Casos!F66</f>
-        <v>0</v>
+        <v>106206</v>
       </c>
       <c r="L66">
         <f>Casos!G66</f>
-        <v>0</v>
+        <v>98476</v>
       </c>
       <c r="N66">
         <f>Casos!H66</f>
-        <v>0</v>
+        <v>605390</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
@@ -27352,31 +27400,31 @@
       </c>
       <c r="B66">
         <f>Casos!B66</f>
-        <v>0</v>
+        <v>182816</v>
       </c>
       <c r="D66">
         <f>Casos!C66</f>
-        <v>0</v>
+        <v>28153</v>
       </c>
       <c r="F66">
         <f>Casos!D66</f>
-        <v>0</v>
+        <v>165155</v>
       </c>
       <c r="H66">
         <f>Casos!E66</f>
-        <v>0</v>
+        <v>127584</v>
       </c>
       <c r="J66">
         <f>Casos!F66</f>
-        <v>0</v>
+        <v>106206</v>
       </c>
       <c r="L66">
         <f>Casos!G66</f>
-        <v>0</v>
+        <v>98476</v>
       </c>
       <c r="N66">
         <f>Casos!H66</f>
-        <v>0</v>
+        <v>605390</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
@@ -30636,31 +30684,31 @@
       </c>
       <c r="B66">
         <f>Casos!B66</f>
-        <v>0</v>
+        <v>182816</v>
       </c>
       <c r="D66">
         <f>Casos!C66</f>
-        <v>0</v>
+        <v>28153</v>
       </c>
       <c r="F66">
         <f>Casos!D66</f>
-        <v>0</v>
+        <v>165155</v>
       </c>
       <c r="H66">
         <f>Casos!E66</f>
-        <v>0</v>
+        <v>127584</v>
       </c>
       <c r="J66">
         <f>Casos!F66</f>
-        <v>0</v>
+        <v>106206</v>
       </c>
       <c r="L66">
         <f>Casos!G66</f>
-        <v>0</v>
+        <v>98476</v>
       </c>
       <c r="N66">
         <f>Casos!H66</f>
-        <v>0</v>
+        <v>605390</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">

--- a/Sources/Paises.xlsx
+++ b/Sources/Paises.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\PowerBI_Covid\Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B6769B-D479-481E-871F-01C6D4F35D48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B58D861-6912-47F1-8F83-2A02F4805FC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1179,6 +1179,9 @@
                 <c:pt idx="64">
                   <c:v>28153</c:v>
                 </c:pt>
+                <c:pt idx="65">
+                  <c:v>29214</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2902,6 +2905,9 @@
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>98476</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>103093</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15822,7 +15828,7 @@
   <dimension ref="A1:AL70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66:H66"/>
+      <selection activeCell="H67" sqref="B67:H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18988,6 +18994,27 @@
       <c r="A67" s="1">
         <v>43938</v>
       </c>
+      <c r="B67">
+        <v>188068</v>
+      </c>
+      <c r="C67">
+        <v>29214</v>
+      </c>
+      <c r="D67">
+        <v>168941</v>
+      </c>
+      <c r="E67">
+        <v>130450</v>
+      </c>
+      <c r="F67">
+        <v>108847</v>
+      </c>
+      <c r="G67">
+        <v>103093</v>
+      </c>
+      <c r="H67">
+        <v>632220</v>
+      </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
@@ -19016,7 +19043,7 @@
   <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66:H66"/>
+      <selection activeCell="B67" sqref="B67:H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20181,6 +20208,27 @@
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>43938</v>
+      </c>
+      <c r="B67">
+        <v>19478</v>
+      </c>
+      <c r="C67">
+        <v>3315</v>
+      </c>
+      <c r="D67">
+        <v>22170</v>
+      </c>
+      <c r="E67">
+        <v>3569</v>
+      </c>
+      <c r="F67">
+        <v>17920</v>
+      </c>
+      <c r="G67">
+        <v>13729</v>
+      </c>
+      <c r="H67">
+        <v>26930</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -24133,35 +24181,35 @@
       </c>
       <c r="B67">
         <f>Casos!B67</f>
-        <v>0</v>
+        <v>188068</v>
       </c>
       <c r="C67">
         <f t="shared" ref="C67:C70" si="7">B67/46.66</f>
-        <v>0</v>
+        <v>4030.6043720531507</v>
       </c>
       <c r="D67">
         <f>Casos!C67</f>
-        <v>0</v>
+        <v>29214</v>
       </c>
       <c r="F67">
         <f>Casos!D67</f>
-        <v>0</v>
+        <v>168941</v>
       </c>
       <c r="H67">
         <f>Casos!E67</f>
-        <v>0</v>
+        <v>130450</v>
       </c>
       <c r="J67">
         <f>Casos!F67</f>
-        <v>0</v>
+        <v>108847</v>
       </c>
       <c r="L67">
         <f>Casos!G67</f>
-        <v>0</v>
+        <v>103093</v>
       </c>
       <c r="N67">
         <f>Casos!H67</f>
-        <v>0</v>
+        <v>632220</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
@@ -27433,31 +27481,31 @@
       </c>
       <c r="B67">
         <f>Casos!B67</f>
-        <v>0</v>
+        <v>188068</v>
       </c>
       <c r="D67">
         <f>Casos!C67</f>
-        <v>0</v>
+        <v>29214</v>
       </c>
       <c r="F67">
         <f>Casos!D67</f>
-        <v>0</v>
+        <v>168941</v>
       </c>
       <c r="H67">
         <f>Casos!E67</f>
-        <v>0</v>
+        <v>130450</v>
       </c>
       <c r="J67">
         <f>Casos!F67</f>
-        <v>0</v>
+        <v>108847</v>
       </c>
       <c r="L67">
         <f>Casos!G67</f>
-        <v>0</v>
+        <v>103093</v>
       </c>
       <c r="N67">
         <f>Casos!H67</f>
-        <v>0</v>
+        <v>632220</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
@@ -30717,31 +30765,31 @@
       </c>
       <c r="B67">
         <f>Casos!B67</f>
-        <v>0</v>
+        <v>188068</v>
       </c>
       <c r="D67">
         <f>Casos!C67</f>
-        <v>0</v>
+        <v>29214</v>
       </c>
       <c r="F67">
         <f>Casos!D67</f>
-        <v>0</v>
+        <v>168941</v>
       </c>
       <c r="H67">
         <f>Casos!E67</f>
-        <v>0</v>
+        <v>130450</v>
       </c>
       <c r="J67">
         <f>Casos!F67</f>
-        <v>0</v>
+        <v>108847</v>
       </c>
       <c r="L67">
         <f>Casos!G67</f>
-        <v>0</v>
+        <v>103093</v>
       </c>
       <c r="N67">
         <f>Casos!H67</f>
-        <v>0</v>
+        <v>632220</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">

--- a/Sources/Paises.xlsx
+++ b/Sources/Paises.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\PowerBI_Covid\Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B58D861-6912-47F1-8F83-2A02F4805FC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3177D0-FCCE-474C-898D-8A10BCDE80FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Casos" sheetId="1" r:id="rId1"/>
@@ -1182,6 +1182,9 @@
                 <c:pt idx="65">
                   <c:v>29214</c:v>
                 </c:pt>
+                <c:pt idx="66">
+                  <c:v>30449</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2908,6 +2911,9 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>103093</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>108692</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15827,8 +15833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="H67" sqref="B67:H67"/>
+    <sheetView topLeftCell="A22" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19020,6 +19026,27 @@
       <c r="A68" s="1">
         <v>43939</v>
       </c>
+      <c r="B68">
+        <v>191726</v>
+      </c>
+      <c r="C68">
+        <v>30449</v>
+      </c>
+      <c r="D68">
+        <v>172434</v>
+      </c>
+      <c r="E68">
+        <v>133830</v>
+      </c>
+      <c r="F68">
+        <v>109252</v>
+      </c>
+      <c r="G68">
+        <v>108692</v>
+      </c>
+      <c r="H68">
+        <v>661712</v>
+      </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
@@ -19042,8 +19069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C86610-CB55-4FA2-9727-343B46DC10BB}">
   <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67:H67"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20234,6 +20261,27 @@
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>43939</v>
+      </c>
+      <c r="B68">
+        <v>20043</v>
+      </c>
+      <c r="C68">
+        <v>3459</v>
+      </c>
+      <c r="D68">
+        <v>22745</v>
+      </c>
+      <c r="E68">
+        <v>3868</v>
+      </c>
+      <c r="F68">
+        <v>18681</v>
+      </c>
+      <c r="G68">
+        <v>14576</v>
+      </c>
+      <c r="H68">
+        <v>33049</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -24218,35 +24266,35 @@
       </c>
       <c r="B68">
         <f>Casos!B68</f>
-        <v>0</v>
+        <v>191726</v>
       </c>
       <c r="C68">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4109.0012858979853</v>
       </c>
       <c r="D68">
         <f>Casos!C68</f>
-        <v>0</v>
+        <v>30449</v>
       </c>
       <c r="F68">
         <f>Casos!D68</f>
-        <v>0</v>
+        <v>172434</v>
       </c>
       <c r="H68">
         <f>Casos!E68</f>
-        <v>0</v>
+        <v>133830</v>
       </c>
       <c r="J68">
         <f>Casos!F68</f>
-        <v>0</v>
+        <v>109252</v>
       </c>
       <c r="L68">
         <f>Casos!G68</f>
-        <v>0</v>
+        <v>108692</v>
       </c>
       <c r="N68">
         <f>Casos!H68</f>
-        <v>0</v>
+        <v>661712</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
@@ -27514,31 +27562,31 @@
       </c>
       <c r="B68">
         <f>Casos!B68</f>
-        <v>0</v>
+        <v>191726</v>
       </c>
       <c r="D68">
         <f>Casos!C68</f>
-        <v>0</v>
+        <v>30449</v>
       </c>
       <c r="F68">
         <f>Casos!D68</f>
-        <v>0</v>
+        <v>172434</v>
       </c>
       <c r="H68">
         <f>Casos!E68</f>
-        <v>0</v>
+        <v>133830</v>
       </c>
       <c r="J68">
         <f>Casos!F68</f>
-        <v>0</v>
+        <v>109252</v>
       </c>
       <c r="L68">
         <f>Casos!G68</f>
-        <v>0</v>
+        <v>108692</v>
       </c>
       <c r="N68">
         <f>Casos!H68</f>
-        <v>0</v>
+        <v>661712</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
@@ -30798,31 +30846,31 @@
       </c>
       <c r="B68">
         <f>Casos!B68</f>
-        <v>0</v>
+        <v>191726</v>
       </c>
       <c r="D68">
         <f>Casos!C68</f>
-        <v>0</v>
+        <v>30449</v>
       </c>
       <c r="F68">
         <f>Casos!D68</f>
-        <v>0</v>
+        <v>172434</v>
       </c>
       <c r="H68">
         <f>Casos!E68</f>
-        <v>0</v>
+        <v>133830</v>
       </c>
       <c r="J68">
         <f>Casos!F68</f>
-        <v>0</v>
+        <v>109252</v>
       </c>
       <c r="L68">
         <f>Casos!G68</f>
-        <v>0</v>
+        <v>108692</v>
       </c>
       <c r="N68">
         <f>Casos!H68</f>
-        <v>0</v>
+        <v>661712</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">

--- a/Sources/Paises.xlsx
+++ b/Sources/Paises.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\PowerBI_Covid\Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3177D0-FCCE-474C-898D-8A10BCDE80FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66343E0C-51DF-4F25-9FC2-1FDD5BD9C25A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1185,6 +1185,9 @@
                 <c:pt idx="66">
                   <c:v>30449</c:v>
                 </c:pt>
+                <c:pt idx="67">
+                  <c:v>31589</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2915,6 +2918,9 @@
                 <c:pt idx="66">
                   <c:v>108692</c:v>
                 </c:pt>
+                <c:pt idx="67">
+                  <c:v>114217</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3018,6 +3024,27 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>43941</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43942</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43943</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43944</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43945</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43946</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43947</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43948</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15831,10 +15858,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL70"/>
+  <dimension ref="A1:AL77"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView topLeftCell="A28" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69:H69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19052,10 +19079,66 @@
       <c r="A69" s="1">
         <v>43940</v>
       </c>
+      <c r="B69">
+        <v>195944</v>
+      </c>
+      <c r="C69">
+        <v>31589</v>
+      </c>
+      <c r="D69">
+        <v>175925</v>
+      </c>
+      <c r="E69">
+        <v>137439</v>
+      </c>
+      <c r="F69">
+        <v>111821</v>
+      </c>
+      <c r="G69">
+        <v>114217</v>
+      </c>
+      <c r="H69">
+        <v>690714</v>
+      </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>43941</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>43942</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>43943</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>43944</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>43945</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>43946</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>43947</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>43948</v>
       </c>
     </row>
   </sheetData>
@@ -19067,10 +19150,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C86610-CB55-4FA2-9727-343B46DC10BB}">
-  <dimension ref="A1:H70"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20288,10 +20371,66 @@
       <c r="A69" s="1">
         <v>43940</v>
       </c>
+      <c r="B69">
+        <v>20453</v>
+      </c>
+      <c r="C69">
+        <v>3601</v>
+      </c>
+      <c r="D69">
+        <v>23227</v>
+      </c>
+      <c r="E69">
+        <v>4110</v>
+      </c>
+      <c r="F69">
+        <v>19323</v>
+      </c>
+      <c r="G69">
+        <v>15464</v>
+      </c>
+      <c r="H69">
+        <v>35443</v>
+      </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>43941</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>43942</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>43943</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>43944</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>43945</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>43946</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>43947</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>43948</v>
       </c>
     </row>
   </sheetData>
@@ -24303,35 +24442,35 @@
       </c>
       <c r="B69">
         <f>Casos!B69</f>
-        <v>0</v>
+        <v>195944</v>
       </c>
       <c r="C69">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4199.3999142734683</v>
       </c>
       <c r="D69">
         <f>Casos!C69</f>
-        <v>0</v>
+        <v>31589</v>
       </c>
       <c r="F69">
         <f>Casos!D69</f>
-        <v>0</v>
+        <v>175925</v>
       </c>
       <c r="H69">
         <f>Casos!E69</f>
-        <v>0</v>
+        <v>137439</v>
       </c>
       <c r="J69">
+        <f>Casos!G69</f>
+        <v>114217</v>
+      </c>
+      <c r="L69">
         <f>Casos!F69</f>
-        <v>0</v>
-      </c>
-      <c r="L69">
-        <f>Casos!G69</f>
-        <v>0</v>
+        <v>111821</v>
       </c>
       <c r="N69">
         <f>Casos!H69</f>
-        <v>0</v>
+        <v>690714</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
@@ -24358,9 +24497,9 @@
         <f>Casos!E70</f>
         <v>0</v>
       </c>
-      <c r="J70">
-        <f>Casos!F70</f>
-        <v>0</v>
+      <c r="J70" t="e">
+        <f>Casos!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="L70">
         <f>Casos!G70</f>
@@ -27595,31 +27734,31 @@
       </c>
       <c r="B69">
         <f>Casos!B69</f>
-        <v>0</v>
+        <v>195944</v>
       </c>
       <c r="D69">
         <f>Casos!C69</f>
-        <v>0</v>
+        <v>31589</v>
       </c>
       <c r="F69">
         <f>Casos!D69</f>
-        <v>0</v>
+        <v>175925</v>
       </c>
       <c r="H69">
         <f>Casos!E69</f>
-        <v>0</v>
+        <v>137439</v>
       </c>
       <c r="J69">
+        <f>Casos!G69</f>
+        <v>114217</v>
+      </c>
+      <c r="L69">
         <f>Casos!F69</f>
-        <v>0</v>
-      </c>
-      <c r="L69">
-        <f>Casos!G69</f>
-        <v>0</v>
+        <v>111821</v>
       </c>
       <c r="N69">
         <f>Casos!H69</f>
-        <v>0</v>
+        <v>690714</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
@@ -27642,9 +27781,9 @@
         <f>Casos!E70</f>
         <v>0</v>
       </c>
-      <c r="J70">
-        <f>Casos!F70</f>
-        <v>0</v>
+      <c r="J70" t="e">
+        <f>Casos!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="L70">
         <f>Casos!G70</f>
@@ -30879,31 +31018,31 @@
       </c>
       <c r="B69">
         <f>Casos!B69</f>
-        <v>0</v>
+        <v>195944</v>
       </c>
       <c r="D69">
         <f>Casos!C69</f>
-        <v>0</v>
+        <v>31589</v>
       </c>
       <c r="F69">
         <f>Casos!D69</f>
-        <v>0</v>
+        <v>175925</v>
       </c>
       <c r="H69">
         <f>Casos!E69</f>
-        <v>0</v>
+        <v>137439</v>
       </c>
       <c r="J69">
+        <f>Casos!G69</f>
+        <v>114217</v>
+      </c>
+      <c r="L69">
         <f>Casos!F69</f>
-        <v>0</v>
-      </c>
-      <c r="L69">
-        <f>Casos!G69</f>
-        <v>0</v>
+        <v>111821</v>
       </c>
       <c r="N69">
         <f>Casos!H69</f>
-        <v>0</v>
+        <v>690714</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
@@ -30926,9 +31065,9 @@
         <f>Casos!E70</f>
         <v>0</v>
       </c>
-      <c r="J70">
-        <f>Casos!F70</f>
-        <v>0</v>
+      <c r="J70" t="e">
+        <f>Casos!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="L70">
         <f>Casos!G70</f>

--- a/Sources/Paises.xlsx
+++ b/Sources/Paises.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\PowerBI_Covid\Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66343E0C-51DF-4F25-9FC2-1FDD5BD9C25A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976D13D7-8D0A-4647-80DC-F21D010F6C86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Casos" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="49">
   <si>
     <t>Italia</t>
   </si>
@@ -183,6 +183,9 @@
   <si>
     <t>Fallecidos</t>
   </si>
+  <si>
+    <t>fecha</t>
+  </si>
 </sst>
 </file>
 
@@ -603,6 +606,12 @@
                 <c:pt idx="16">
                   <c:v>32</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>32</c:v>
+                </c:pt>
                 <c:pt idx="19">
                   <c:v>114</c:v>
                 </c:pt>
@@ -616,6 +625,12 @@
                   <c:v>237</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>365</c:v>
                 </c:pt>
                 <c:pt idx="26">
@@ -1187,6 +1202,9 @@
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>31589</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>32655</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2920,6 +2938,9 @@
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>114217</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>120067</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15860,8 +15881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL77"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69:H69"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15872,6 +15893,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
@@ -16721,6 +16745,9 @@
       <c r="A19" s="1">
         <v>43890</v>
       </c>
+      <c r="B19">
+        <v>32</v>
+      </c>
       <c r="C19">
         <v>7</v>
       </c>
@@ -16785,6 +16812,9 @@
       <c r="A20" s="1">
         <v>43891</v>
       </c>
+      <c r="B20">
+        <v>32</v>
+      </c>
       <c r="C20">
         <v>10</v>
       </c>
@@ -17227,6 +17257,9 @@
       <c r="A26" s="1">
         <v>43897</v>
       </c>
+      <c r="B26">
+        <v>365</v>
+      </c>
       <c r="C26">
         <v>188</v>
       </c>
@@ -17298,6 +17331,9 @@
       <c r="A27" s="1">
         <v>43898</v>
       </c>
+      <c r="B27">
+        <v>365</v>
+      </c>
       <c r="C27">
         <v>264</v>
       </c>
@@ -19104,6 +19140,27 @@
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>43941</v>
+      </c>
+      <c r="B70">
+        <v>200210</v>
+      </c>
+      <c r="C70">
+        <v>32655</v>
+      </c>
+      <c r="D70">
+        <v>178972</v>
+      </c>
+      <c r="E70">
+        <v>139897</v>
+      </c>
+      <c r="F70">
+        <v>112606</v>
+      </c>
+      <c r="G70">
+        <v>120067</v>
+      </c>
+      <c r="H70">
+        <v>720630</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -19152,8 +19209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C86610-CB55-4FA2-9727-343B46DC10BB}">
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19164,6 +19221,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
@@ -20396,6 +20456,27 @@
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>43941</v>
+      </c>
+      <c r="B70">
+        <v>20852</v>
+      </c>
+      <c r="C70">
+        <v>3684</v>
+      </c>
+      <c r="D70">
+        <v>23660</v>
+      </c>
+      <c r="E70">
+        <v>4294</v>
+      </c>
+      <c r="F70">
+        <v>19718</v>
+      </c>
+      <c r="G70">
+        <v>16060</v>
+      </c>
+      <c r="H70">
+        <v>37202</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -24479,23 +24560,23 @@
       </c>
       <c r="B70">
         <f>Casos!B70</f>
-        <v>0</v>
+        <v>200210</v>
       </c>
       <c r="C70">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4290.8272610372915</v>
       </c>
       <c r="D70">
         <f>Casos!C70</f>
-        <v>0</v>
+        <v>32655</v>
       </c>
       <c r="F70">
         <f>Casos!D70</f>
-        <v>0</v>
+        <v>178972</v>
       </c>
       <c r="H70">
         <f>Casos!E70</f>
-        <v>0</v>
+        <v>139897</v>
       </c>
       <c r="J70" t="e">
         <f>Casos!#REF!</f>
@@ -24503,11 +24584,11 @@
       </c>
       <c r="L70">
         <f>Casos!G70</f>
-        <v>0</v>
+        <v>120067</v>
       </c>
       <c r="N70">
         <f>Casos!H70</f>
-        <v>0</v>
+        <v>720630</v>
       </c>
     </row>
   </sheetData>
@@ -27767,19 +27848,19 @@
       </c>
       <c r="B70">
         <f>Casos!B70</f>
-        <v>0</v>
+        <v>200210</v>
       </c>
       <c r="D70">
         <f>Casos!C70</f>
-        <v>0</v>
+        <v>32655</v>
       </c>
       <c r="F70">
         <f>Casos!D70</f>
-        <v>0</v>
+        <v>178972</v>
       </c>
       <c r="H70">
         <f>Casos!E70</f>
-        <v>0</v>
+        <v>139897</v>
       </c>
       <c r="J70" t="e">
         <f>Casos!#REF!</f>
@@ -27787,11 +27868,11 @@
       </c>
       <c r="L70">
         <f>Casos!G70</f>
-        <v>0</v>
+        <v>120067</v>
       </c>
       <c r="N70">
         <f>Casos!H70</f>
-        <v>0</v>
+        <v>720630</v>
       </c>
     </row>
   </sheetData>
@@ -31051,19 +31132,19 @@
       </c>
       <c r="B70">
         <f>Casos!B70</f>
-        <v>0</v>
+        <v>200210</v>
       </c>
       <c r="D70">
         <f>Casos!C70</f>
-        <v>0</v>
+        <v>32655</v>
       </c>
       <c r="F70">
         <f>Casos!D70</f>
-        <v>0</v>
+        <v>178972</v>
       </c>
       <c r="H70">
         <f>Casos!E70</f>
-        <v>0</v>
+        <v>139897</v>
       </c>
       <c r="J70" t="e">
         <f>Casos!#REF!</f>
@@ -31071,11 +31152,11 @@
       </c>
       <c r="L70">
         <f>Casos!G70</f>
-        <v>0</v>
+        <v>120067</v>
       </c>
       <c r="N70">
         <f>Casos!H70</f>
-        <v>0</v>
+        <v>720630</v>
       </c>
     </row>
   </sheetData>

--- a/Sources/Paises.xlsx
+++ b/Sources/Paises.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\PowerBI_Covid\Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976D13D7-8D0A-4647-80DC-F21D010F6C86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38E558F-C2C3-471C-82DD-A96655A27C94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Casos" sheetId="1" r:id="rId1"/>
@@ -15881,8 +15881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView topLeftCell="A40" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71:H71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19167,6 +19167,27 @@
       <c r="A71" s="1">
         <v>43942</v>
       </c>
+      <c r="B71">
+        <v>204178</v>
+      </c>
+      <c r="C71">
+        <v>33405</v>
+      </c>
+      <c r="D71">
+        <v>181228</v>
+      </c>
+      <c r="E71">
+        <v>141672</v>
+      </c>
+      <c r="F71">
+        <v>114657</v>
+      </c>
+      <c r="G71">
+        <v>124743</v>
+      </c>
+      <c r="H71">
+        <v>746625</v>
+      </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
@@ -19209,8 +19230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C86610-CB55-4FA2-9727-343B46DC10BB}">
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F71" sqref="F71"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71:H71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20482,6 +20503,27 @@
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>43942</v>
+      </c>
+      <c r="B71">
+        <v>21282</v>
+      </c>
+      <c r="C71">
+        <v>3751</v>
+      </c>
+      <c r="D71">
+        <v>24114</v>
+      </c>
+      <c r="E71">
+        <v>4404</v>
+      </c>
+      <c r="F71">
+        <v>20265</v>
+      </c>
+      <c r="G71">
+        <v>16509</v>
+      </c>
+      <c r="H71">
+        <v>39083</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">

--- a/Sources/Paises.xlsx
+++ b/Sources/Paises.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\PowerBI_Covid\Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38E558F-C2C3-471C-82DD-A96655A27C94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC1C509-E4DC-45DF-BA2A-14BC5431DD57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Casos" sheetId="1" r:id="rId1"/>
@@ -15881,8 +15881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL77"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71:H71"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19193,6 +19193,27 @@
       <c r="A72" s="1">
         <v>43943</v>
       </c>
+      <c r="B72">
+        <v>208389</v>
+      </c>
+      <c r="C72">
+        <v>34134</v>
+      </c>
+      <c r="D72">
+        <v>183957</v>
+      </c>
+      <c r="E72">
+        <v>143457</v>
+      </c>
+      <c r="F72">
+        <v>117324</v>
+      </c>
+      <c r="G72">
+        <v>129044</v>
+      </c>
+      <c r="H72">
+        <v>776093</v>
+      </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
@@ -19230,8 +19251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C86610-CB55-4FA2-9727-343B46DC10BB}">
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71:H71"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72:H72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20529,6 +20550,27 @@
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>43943</v>
+      </c>
+      <c r="B72">
+        <v>21717</v>
+      </c>
+      <c r="C72">
+        <v>3916</v>
+      </c>
+      <c r="D72">
+        <v>24648</v>
+      </c>
+      <c r="E72">
+        <v>4598</v>
+      </c>
+      <c r="F72">
+        <v>20796</v>
+      </c>
+      <c r="G72">
+        <v>17337</v>
+      </c>
+      <c r="H72">
+        <v>41758</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">

--- a/Sources/Paises.xlsx
+++ b/Sources/Paises.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\PowerBI_Covid\Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC1C509-E4DC-45DF-BA2A-14BC5431DD57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CFC8EF-5995-4C15-97D4-C28D672EEA96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15882,7 +15882,7 @@
   <dimension ref="A1:AL77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="G76" sqref="G76"/>
+      <selection activeCell="B73" sqref="B73:H73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19219,6 +19219,27 @@
       <c r="A73" s="1">
         <v>43944</v>
       </c>
+      <c r="B73">
+        <v>213024</v>
+      </c>
+      <c r="C73">
+        <v>34842</v>
+      </c>
+      <c r="D73">
+        <v>187327</v>
+      </c>
+      <c r="E73">
+        <v>145694</v>
+      </c>
+      <c r="F73">
+        <v>119151</v>
+      </c>
+      <c r="G73">
+        <v>133495</v>
+      </c>
+      <c r="H73">
+        <v>802583</v>
+      </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
@@ -19252,7 +19273,7 @@
   <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72:H72"/>
+      <selection activeCell="B73" sqref="B73:H73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20576,6 +20597,27 @@
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>43944</v>
+      </c>
+      <c r="B73">
+        <v>22157</v>
+      </c>
+      <c r="C73">
+        <v>4054</v>
+      </c>
+      <c r="D73">
+        <v>25085</v>
+      </c>
+      <c r="E73">
+        <v>4879</v>
+      </c>
+      <c r="F73">
+        <v>21340</v>
+      </c>
+      <c r="G73">
+        <v>18100</v>
+      </c>
+      <c r="H73">
+        <v>44575</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">

--- a/Sources/Paises.xlsx
+++ b/Sources/Paises.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\PowerBI_Covid\Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CFC8EF-5995-4C15-97D4-C28D672EEA96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06ABCE67-F1CB-437A-BBDD-E6E3F7EDBB9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15882,7 +15882,7 @@
   <dimension ref="A1:AL77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73:H73"/>
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19245,6 +19245,27 @@
       <c r="A74" s="1">
         <v>43945</v>
       </c>
+      <c r="B74">
+        <v>219764</v>
+      </c>
+      <c r="C74">
+        <v>35729</v>
+      </c>
+      <c r="D74">
+        <v>189973</v>
+      </c>
+      <c r="E74">
+        <v>148046</v>
+      </c>
+      <c r="F74">
+        <v>120804</v>
+      </c>
+      <c r="G74">
+        <v>138078</v>
+      </c>
+      <c r="H74">
+        <v>828441</v>
+      </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
@@ -19273,7 +19294,7 @@
   <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73:H73"/>
+      <selection activeCell="B74" sqref="B74:H74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20623,6 +20644,27 @@
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>43945</v>
+      </c>
+      <c r="B74">
+        <v>22524</v>
+      </c>
+      <c r="C74">
+        <v>4177</v>
+      </c>
+      <c r="D74">
+        <v>25549</v>
+      </c>
+      <c r="E74">
+        <v>5094</v>
+      </c>
+      <c r="F74">
+        <v>21856</v>
+      </c>
+      <c r="G74">
+        <v>18738</v>
+      </c>
+      <c r="H74">
+        <v>46379</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">

--- a/Sources/Paises.xlsx
+++ b/Sources/Paises.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\PowerBI_Covid\Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06ABCE67-F1CB-437A-BBDD-E6E3F7EDBB9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06ADD4CB-2974-460A-8583-A4CE3126546E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Casos" sheetId="1" r:id="rId1"/>
@@ -228,7 +228,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -238,6 +238,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3066,6 +3067,18 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>43948</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43949</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43950</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43951</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43952</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15879,10 +15892,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL77"/>
+  <dimension ref="A1:AL81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView topLeftCell="A40" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77:A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19271,6 +19284,27 @@
       <c r="A75" s="1">
         <v>43946</v>
       </c>
+      <c r="B75">
+        <v>223759</v>
+      </c>
+      <c r="C75">
+        <v>36535</v>
+      </c>
+      <c r="D75">
+        <v>192994</v>
+      </c>
+      <c r="E75">
+        <v>150383</v>
+      </c>
+      <c r="F75">
+        <v>122577</v>
+      </c>
+      <c r="G75">
+        <v>143464</v>
+      </c>
+      <c r="H75">
+        <v>865585</v>
+      </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
@@ -19280,6 +19314,26 @@
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>43948</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>43949</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>43950</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>43951</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>43952</v>
       </c>
     </row>
   </sheetData>
@@ -19291,10 +19345,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C86610-CB55-4FA2-9727-343B46DC10BB}">
-  <dimension ref="A1:H77"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74:H74"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20671,6 +20725,27 @@
       <c r="A75" s="1">
         <v>43946</v>
       </c>
+      <c r="B75" s="9">
+        <v>22902</v>
+      </c>
+      <c r="C75" s="9">
+        <v>4289</v>
+      </c>
+      <c r="D75" s="9">
+        <v>25969</v>
+      </c>
+      <c r="E75" s="9">
+        <v>5321</v>
+      </c>
+      <c r="F75" s="9">
+        <v>22245</v>
+      </c>
+      <c r="G75" s="9">
+        <v>19506</v>
+      </c>
+      <c r="H75" s="9">
+        <v>48416</v>
+      </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
@@ -20680,6 +20755,26 @@
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>43948</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>43949</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>43950</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>43951</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>43952</v>
       </c>
     </row>
   </sheetData>

--- a/Sources/Paises.xlsx
+++ b/Sources/Paises.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\PowerBI_Covid\Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06ADD4CB-2974-460A-8583-A4CE3126546E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665BB174-7349-4785-87D7-17E5ADB77EBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Casos" sheetId="1" r:id="rId1"/>
@@ -228,7 +228,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -238,7 +238,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -15894,8 +15893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL81"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77:A81"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19310,6 +19309,28 @@
       <c r="A76" s="1">
         <v>43947</v>
       </c>
+      <c r="B76">
+        <f>B75+1729</f>
+        <v>225488</v>
+      </c>
+      <c r="C76">
+        <v>37190</v>
+      </c>
+      <c r="D76">
+        <v>195351</v>
+      </c>
+      <c r="E76">
+        <v>152438</v>
+      </c>
+      <c r="F76">
+        <v>124114</v>
+      </c>
+      <c r="G76">
+        <v>148377</v>
+      </c>
+      <c r="H76">
+        <v>895766</v>
+      </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
@@ -19347,8 +19368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C86610-CB55-4FA2-9727-343B46DC10BB}">
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F73" sqref="F73"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75:H76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20725,31 +20746,52 @@
       <c r="A75" s="1">
         <v>43946</v>
       </c>
-      <c r="B75" s="9">
+      <c r="B75">
         <v>22902</v>
       </c>
-      <c r="C75" s="9">
+      <c r="C75">
         <v>4289</v>
       </c>
-      <c r="D75" s="9">
+      <c r="D75">
         <v>25969</v>
       </c>
-      <c r="E75" s="9">
+      <c r="E75">
         <v>5321</v>
       </c>
-      <c r="F75" s="9">
+      <c r="F75">
         <v>22245</v>
       </c>
-      <c r="G75" s="9">
+      <c r="G75">
         <v>19506</v>
       </c>
-      <c r="H75" s="9">
+      <c r="H75">
         <v>48416</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>43947</v>
+      </c>
+      <c r="B76">
+        <v>23190</v>
+      </c>
+      <c r="C76">
+        <v>4409</v>
+      </c>
+      <c r="D76">
+        <v>26384</v>
+      </c>
+      <c r="E76">
+        <v>5500</v>
+      </c>
+      <c r="F76">
+        <v>22614</v>
+      </c>
+      <c r="G76">
+        <v>20319</v>
+      </c>
+      <c r="H76">
+        <v>50439</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">

--- a/Sources/Paises.xlsx
+++ b/Sources/Paises.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\PowerBI_Covid\Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665BB174-7349-4785-87D7-17E5ADB77EBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1DB2CC-3011-42AD-9776-819755063F7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15894,7 +15894,7 @@
   <dimension ref="A1:AL81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="F79" sqref="F79"/>
+      <selection activeCell="H84" sqref="H84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19310,8 +19310,7 @@
         <v>43947</v>
       </c>
       <c r="B76">
-        <f>B75+1729</f>
-        <v>225488</v>
+        <v>226629</v>
       </c>
       <c r="C76">
         <v>37190</v>
@@ -19335,6 +19334,27 @@
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>43948</v>
+      </c>
+      <c r="B77">
+        <v>229422</v>
+      </c>
+      <c r="C77">
+        <v>37845</v>
+      </c>
+      <c r="D77">
+        <v>197675</v>
+      </c>
+      <c r="E77">
+        <v>154175</v>
+      </c>
+      <c r="F77">
+        <v>124575</v>
+      </c>
+      <c r="G77">
+        <v>152840</v>
+      </c>
+      <c r="H77">
+        <v>928619</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -19369,7 +19389,7 @@
   <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75:H76"/>
+      <selection activeCell="B77" sqref="B77:H77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20797,6 +20817,27 @@
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>43948</v>
+      </c>
+      <c r="B77">
+        <v>23521</v>
+      </c>
+      <c r="C77">
+        <v>4475</v>
+      </c>
+      <c r="D77">
+        <v>26644</v>
+      </c>
+      <c r="E77">
+        <v>5640</v>
+      </c>
+      <c r="F77">
+        <v>22856</v>
+      </c>
+      <c r="G77">
+        <v>20732</v>
+      </c>
+      <c r="H77">
+        <v>52459</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">

--- a/Sources/Paises.xlsx
+++ b/Sources/Paises.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\PowerBI_Covid\Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1DB2CC-3011-42AD-9776-819755063F7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1159A886-80F2-4D09-AFA2-CA360080E6BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -191,7 +191,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,6 +200,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -228,7 +236,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -238,6 +246,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -15894,7 +15903,7 @@
   <dimension ref="A1:AL81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="H84" sqref="H84"/>
+      <selection activeCell="P62" sqref="P62:P63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18603,7 +18612,7 @@
         <v>124665</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43920</v>
       </c>
@@ -18629,7 +18638,7 @@
         <v>143025</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43921</v>
       </c>
@@ -18655,7 +18664,7 @@
         <v>163539</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43922</v>
       </c>
@@ -18681,7 +18690,7 @@
         <v>186101</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43923</v>
       </c>
@@ -18707,7 +18716,7 @@
         <v>213144</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>43924</v>
       </c>
@@ -18733,7 +18742,7 @@
         <v>239279</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>43925</v>
       </c>
@@ -18759,7 +18768,7 @@
         <v>277205</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>43926</v>
       </c>
@@ -18785,7 +18794,7 @@
         <v>304826</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>43927</v>
       </c>
@@ -18811,7 +18820,7 @@
         <v>304826</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>43928</v>
       </c>
@@ -18837,7 +18846,7 @@
         <v>330891</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>43929</v>
       </c>
@@ -18863,7 +18872,7 @@
         <v>374329</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>43930</v>
       </c>
@@ -18889,7 +18898,7 @@
         <v>395011</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>43931</v>
       </c>
@@ -18915,7 +18924,7 @@
         <v>427460</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>43932</v>
       </c>
@@ -18941,7 +18950,7 @@
         <v>459165</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>43933</v>
       </c>
@@ -18966,8 +18975,9 @@
       <c r="H62">
         <v>492416</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P62" s="9"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>43934</v>
       </c>
@@ -18992,8 +19002,9 @@
       <c r="H63">
         <v>525704</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="P63" s="9"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>43935</v>
       </c>
@@ -19360,6 +19371,27 @@
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>43949</v>
+      </c>
+      <c r="B78">
+        <v>232128</v>
+      </c>
+      <c r="C78">
+        <v>38245</v>
+      </c>
+      <c r="D78">
+        <v>199414</v>
+      </c>
+      <c r="E78">
+        <v>155193</v>
+      </c>
+      <c r="F78">
+        <v>128339</v>
+      </c>
+      <c r="G78">
+        <v>157149</v>
+      </c>
+      <c r="H78">
+        <v>957875</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -19389,7 +19421,7 @@
   <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77:H77"/>
+      <selection activeCell="B78" sqref="B78:H78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20843,6 +20875,27 @@
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>43949</v>
+      </c>
+      <c r="B78">
+        <v>23822</v>
+      </c>
+      <c r="C78">
+        <v>4518</v>
+      </c>
+      <c r="D78">
+        <v>26977</v>
+      </c>
+      <c r="E78">
+        <v>5750</v>
+      </c>
+      <c r="F78">
+        <v>23293</v>
+      </c>
+      <c r="G78">
+        <v>21092</v>
+      </c>
+      <c r="H78">
+        <v>53922</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">

--- a/Sources/Paises.xlsx
+++ b/Sources/Paises.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\PowerBI_Covid\Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1159A886-80F2-4D09-AFA2-CA360080E6BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF58BFF1-CAF3-4718-96A5-F697AD7D12D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3087,6 +3087,27 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>43952</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43953</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43954</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43955</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43956</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43957</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43958</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43959</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15900,10 +15921,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL81"/>
+  <dimension ref="A1:AL88"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="P62" sqref="P62:P63"/>
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19385,7 +19406,7 @@
         <v>155193</v>
       </c>
       <c r="F78">
-        <v>128339</v>
+        <v>125770</v>
       </c>
       <c r="G78">
         <v>157149</v>
@@ -19398,6 +19419,27 @@
       <c r="A79" s="1">
         <v>43950</v>
       </c>
+      <c r="B79">
+        <v>236108</v>
+      </c>
+      <c r="C79">
+        <v>38416</v>
+      </c>
+      <c r="D79">
+        <v>201505</v>
+      </c>
+      <c r="E79">
+        <v>156337</v>
+      </c>
+      <c r="F79">
+        <v>126835</v>
+      </c>
+      <c r="G79">
+        <v>161145</v>
+      </c>
+      <c r="H79">
+        <v>981246</v>
+      </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
@@ -19407,6 +19449,41 @@
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>43952</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>43953</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>43954</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>43955</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>43956</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>43957</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>43958</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>43959</v>
       </c>
     </row>
   </sheetData>
@@ -19418,10 +19495,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C86610-CB55-4FA2-9727-343B46DC10BB}">
-  <dimension ref="A1:H81"/>
+  <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78:H78"/>
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20902,6 +20979,27 @@
       <c r="A79" s="1">
         <v>43950</v>
       </c>
+      <c r="B79">
+        <v>24275</v>
+      </c>
+      <c r="C79">
+        <v>4566</v>
+      </c>
+      <c r="D79">
+        <v>27359</v>
+      </c>
+      <c r="E79">
+        <v>5913</v>
+      </c>
+      <c r="F79">
+        <v>23660</v>
+      </c>
+      <c r="G79">
+        <v>21678</v>
+      </c>
+      <c r="H79">
+        <v>55258</v>
+      </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
@@ -20911,6 +21009,41 @@
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>43952</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>43953</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>43954</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>43955</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>43956</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>43957</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>43958</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>43959</v>
       </c>
     </row>
   </sheetData>

--- a/Sources/Paises.xlsx
+++ b/Sources/Paises.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\PowerBI_Covid\Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF58BFF1-CAF3-4718-96A5-F697AD7D12D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57DD4EF-985D-40A0-B978-63F05B92F54C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15924,7 +15924,7 @@
   <dimension ref="A1:AL88"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15932,6 +15932,7 @@
     <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.25">
@@ -19444,6 +19445,27 @@
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>43951</v>
+      </c>
+      <c r="B80">
+        <v>239369</v>
+      </c>
+      <c r="C80">
+        <v>38802</v>
+      </c>
+      <c r="D80">
+        <v>203591</v>
+      </c>
+      <c r="E80">
+        <v>157641</v>
+      </c>
+      <c r="F80">
+        <v>128442</v>
+      </c>
+      <c r="G80">
+        <v>165221</v>
+      </c>
+      <c r="H80">
+        <v>1005147</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
@@ -19498,7 +19520,7 @@
   <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+      <selection activeCell="B80" sqref="B80:H80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21004,6 +21026,27 @@
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>43951</v>
+      </c>
+      <c r="B80">
+        <v>24543</v>
+      </c>
+      <c r="C80">
+        <v>4711</v>
+      </c>
+      <c r="D80">
+        <v>27682</v>
+      </c>
+      <c r="E80">
+        <v>6115</v>
+      </c>
+      <c r="F80">
+        <v>24087</v>
+      </c>
+      <c r="G80">
+        <v>26097</v>
+      </c>
+      <c r="H80">
+        <v>57505</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">

--- a/Sources/Paises.xlsx
+++ b/Sources/Paises.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\PowerBI_Covid\Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57DD4EF-985D-40A0-B978-63F05B92F54C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33AA9E68-17A1-4F80-874C-F1A56B6505AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15924,7 +15924,7 @@
   <dimension ref="A1:AL88"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+      <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19468,42 +19468,63 @@
         <v>1005147</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>43952</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>242988</v>
+      </c>
+      <c r="C81">
+        <v>39316</v>
+      </c>
+      <c r="D81">
+        <v>205463</v>
+      </c>
+      <c r="E81">
+        <v>159119</v>
+      </c>
+      <c r="F81">
+        <v>129581</v>
+      </c>
+      <c r="G81">
+        <v>171253</v>
+      </c>
+      <c r="H81">
+        <v>1031659</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>43953</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>43954</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>43955</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>43956</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>43957</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>43958</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>43959</v>
       </c>
@@ -19520,7 +19541,7 @@
   <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80:H80"/>
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21049,42 +21070,63 @@
         <v>57505</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>43952</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>24824</v>
+      </c>
+      <c r="C81">
+        <v>4795</v>
+      </c>
+      <c r="D81">
+        <v>27967</v>
+      </c>
+      <c r="E81">
+        <v>6288</v>
+      </c>
+      <c r="F81">
+        <v>24376</v>
+      </c>
+      <c r="G81">
+        <v>26771</v>
+      </c>
+      <c r="H81">
+        <v>60057</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>43953</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>43954</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>43955</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>43956</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>43957</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>43958</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>43959</v>
       </c>

--- a/Sources/Paises.xlsx
+++ b/Sources/Paises.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\PowerBI_Covid\Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33AA9E68-17A1-4F80-874C-F1A56B6505AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCEB344-0C34-49B2-BED5-1183D50D6853}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8250" yWindow="285" windowWidth="20490" windowHeight="15915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Casos" sheetId="1" r:id="rId1"/>
@@ -15924,7 +15924,7 @@
   <dimension ref="A1:AL88"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="E86" sqref="E86"/>
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19498,6 +19498,27 @@
       <c r="A82" s="1">
         <v>43953</v>
       </c>
+      <c r="B82">
+        <v>245567</v>
+      </c>
+      <c r="C82">
+        <v>39791</v>
+      </c>
+      <c r="D82">
+        <v>207428</v>
+      </c>
+      <c r="E82">
+        <v>160758</v>
+      </c>
+      <c r="F82">
+        <v>130185</v>
+      </c>
+      <c r="G82">
+        <v>177454</v>
+      </c>
+      <c r="H82">
+        <v>1062446</v>
+      </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
@@ -19541,7 +19562,7 @@
   <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21099,6 +21120,27 @@
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>43953</v>
+      </c>
+      <c r="B82">
+        <v>25100</v>
+      </c>
+      <c r="C82">
+        <v>4893</v>
+      </c>
+      <c r="D82">
+        <v>28236</v>
+      </c>
+      <c r="E82">
+        <v>6481</v>
+      </c>
+      <c r="F82">
+        <v>24594</v>
+      </c>
+      <c r="G82">
+        <v>27510</v>
+      </c>
+      <c r="H82">
+        <v>62406</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">

--- a/Sources/Paises.xlsx
+++ b/Sources/Paises.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\PowerBI_Covid\Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCEB344-0C34-49B2-BED5-1183D50D6853}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC433F2-8161-4F03-A292-D9FBABC07D94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8250" yWindow="285" windowWidth="20490" windowHeight="15915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15923,8 +15923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19524,6 +19524,27 @@
       <c r="A83" s="1">
         <v>43954</v>
       </c>
+      <c r="B83">
+        <v>247122</v>
+      </c>
+      <c r="C83">
+        <v>40236</v>
+      </c>
+      <c r="D83">
+        <v>209328</v>
+      </c>
+      <c r="E83">
+        <v>161703</v>
+      </c>
+      <c r="F83">
+        <v>130979</v>
+      </c>
+      <c r="G83">
+        <v>182260</v>
+      </c>
+      <c r="H83">
+        <v>1092815</v>
+      </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
@@ -19562,7 +19583,7 @@
   <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+      <selection activeCell="B83" sqref="B83:H83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21146,6 +21167,27 @@
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>43954</v>
+      </c>
+      <c r="B83">
+        <v>25264</v>
+      </c>
+      <c r="C83">
+        <v>4987</v>
+      </c>
+      <c r="D83">
+        <v>28710</v>
+      </c>
+      <c r="E83">
+        <v>6575</v>
+      </c>
+      <c r="F83">
+        <v>24760</v>
+      </c>
+      <c r="G83">
+        <v>28131</v>
+      </c>
+      <c r="H83">
+        <v>64283</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">

--- a/Sources/Paises.xlsx
+++ b/Sources/Paises.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\PowerBI_Covid\Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC433F2-8161-4F03-A292-D9FBABC07D94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81BD55D-BC9C-4D67-B15A-6BF3B7867067}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8250" yWindow="285" windowWidth="20490" windowHeight="15915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15924,7 +15924,7 @@
   <dimension ref="A1:AL88"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19550,6 +19550,27 @@
       <c r="A84" s="1">
         <v>43955</v>
       </c>
+      <c r="B84">
+        <v>248301</v>
+      </c>
+      <c r="C84">
+        <v>40571</v>
+      </c>
+      <c r="D84">
+        <v>210717</v>
+      </c>
+      <c r="E84">
+        <v>162496</v>
+      </c>
+      <c r="F84">
+        <v>131287</v>
+      </c>
+      <c r="G84">
+        <v>186599</v>
+      </c>
+      <c r="H84">
+        <v>1122486</v>
+      </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
@@ -19582,8 +19603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C86610-CB55-4FA2-9727-343B46DC10BB}">
   <dimension ref="A1:H88"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83:H83"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21193,6 +21214,27 @@
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>43955</v>
+      </c>
+      <c r="B84">
+        <v>25428</v>
+      </c>
+      <c r="C84">
+        <v>5056</v>
+      </c>
+      <c r="D84">
+        <v>28884</v>
+      </c>
+      <c r="E84">
+        <v>6649</v>
+      </c>
+      <c r="F84">
+        <v>24895</v>
+      </c>
+      <c r="G84">
+        <v>28446</v>
+      </c>
+      <c r="H84">
+        <v>65735</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">

--- a/Sources/Paises.xlsx
+++ b/Sources/Paises.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\PowerBI_Covid\Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81BD55D-BC9C-4D67-B15A-6BF3B7867067}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4867F1-04A1-4E19-A56F-AE6A90C4002E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8250" yWindow="285" windowWidth="20490" windowHeight="15915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15923,8 +15923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19576,6 +19576,27 @@
       <c r="A85" s="1">
         <v>43956</v>
       </c>
+      <c r="B85">
+        <v>250561</v>
+      </c>
+      <c r="C85">
+        <v>40770</v>
+      </c>
+      <c r="D85">
+        <v>211938</v>
+      </c>
+      <c r="E85">
+        <v>163175</v>
+      </c>
+      <c r="F85">
+        <v>131863</v>
+      </c>
+      <c r="G85">
+        <v>190584</v>
+      </c>
+      <c r="H85">
+        <v>1152372</v>
+      </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
@@ -19604,7 +19625,7 @@
   <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+      <selection activeCell="B85" sqref="B85:H85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21240,6 +21261,27 @@
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>43956</v>
+      </c>
+      <c r="B85">
+        <v>25613</v>
+      </c>
+      <c r="C85">
+        <v>5082</v>
+      </c>
+      <c r="D85">
+        <v>29079</v>
+      </c>
+      <c r="E85">
+        <v>6692</v>
+      </c>
+      <c r="F85">
+        <v>25201</v>
+      </c>
+      <c r="G85">
+        <v>28734</v>
+      </c>
+      <c r="H85">
+        <v>67456</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">

--- a/Sources/Paises.xlsx
+++ b/Sources/Paises.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\PowerBI_Covid\Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4867F1-04A1-4E19-A56F-AE6A90C4002E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493FA447-CE7B-45F6-B70C-353A15E22CFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8250" yWindow="285" windowWidth="20490" windowHeight="15915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4050" yWindow="285" windowWidth="20490" windowHeight="15915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Casos" sheetId="1" r:id="rId1"/>
@@ -3108,6 +3108,21 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>43959</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43960</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43961</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43962</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43963</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43964</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15921,10 +15936,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL88"/>
+  <dimension ref="A1:AL93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19602,15 +19617,82 @@
       <c r="A86" s="1">
         <v>43957</v>
       </c>
+      <c r="B86">
+        <v>253682</v>
+      </c>
+      <c r="C86">
+        <v>41087</v>
+      </c>
+      <c r="D86">
+        <v>213013</v>
+      </c>
+      <c r="E86">
+        <v>163860</v>
+      </c>
+      <c r="F86">
+        <v>132967</v>
+      </c>
+      <c r="G86">
+        <v>194990</v>
+      </c>
+      <c r="H86">
+        <v>1171510</v>
+      </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>43958</v>
       </c>
+      <c r="B87">
+        <v>256855</v>
+      </c>
+      <c r="C87">
+        <v>41319</v>
+      </c>
+      <c r="D87">
+        <v>214457</v>
+      </c>
+      <c r="E87">
+        <v>164807</v>
+      </c>
+      <c r="F87">
+        <v>137150</v>
+      </c>
+      <c r="G87">
+        <v>201101</v>
+      </c>
+      <c r="H87">
+        <v>1193813</v>
+      </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>43959</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>43960</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>43961</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>43962</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>43963</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>43964</v>
       </c>
     </row>
   </sheetData>
@@ -19622,10 +19704,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C86610-CB55-4FA2-9727-343B46DC10BB}">
-  <dimension ref="A1:H88"/>
+  <dimension ref="A1:H93"/>
   <sheetViews>
     <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85:H85"/>
+      <selection activeCell="B87" sqref="B87:H87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21288,15 +21370,82 @@
       <c r="A86" s="1">
         <v>43957</v>
       </c>
+      <c r="B86">
+        <v>25857</v>
+      </c>
+      <c r="C86">
+        <v>5168</v>
+      </c>
+      <c r="D86">
+        <v>29315</v>
+      </c>
+      <c r="E86">
+        <v>6831</v>
+      </c>
+      <c r="F86">
+        <v>25531</v>
+      </c>
+      <c r="G86">
+        <v>29427</v>
+      </c>
+      <c r="H86">
+        <v>68279</v>
+      </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>43958</v>
       </c>
+      <c r="B87">
+        <v>26070</v>
+      </c>
+      <c r="C87">
+        <v>25809</v>
+      </c>
+      <c r="D87">
+        <v>29684</v>
+      </c>
+      <c r="E87">
+        <v>6996</v>
+      </c>
+      <c r="F87">
+        <v>25809</v>
+      </c>
+      <c r="G87">
+        <v>30076</v>
+      </c>
+      <c r="H87">
+        <v>70802</v>
+      </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>43959</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>43960</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>43961</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>43962</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>43963</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>43964</v>
       </c>
     </row>
   </sheetData>

--- a/Sources/Paises.xlsx
+++ b/Sources/Paises.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\PowerBI_Covid\Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493FA447-CE7B-45F6-B70C-353A15E22CFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF184C4-8E37-412E-90CD-75EF09572BE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4050" yWindow="285" windowWidth="20490" windowHeight="15915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4050" yWindow="285" windowWidth="20490" windowHeight="15915" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Casos" sheetId="1" r:id="rId1"/>
@@ -3123,6 +3123,60 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>43964</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43965</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43966</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43967</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43968</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43969</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43970</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43971</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43972</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43973</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43974</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43975</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43976</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43977</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43978</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43979</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43980</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>43981</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43982</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15936,10 +15990,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL93"/>
+  <dimension ref="A1:AL111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+    <sheetView topLeftCell="A45" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93:A111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19669,16 +19723,79 @@
       <c r="A88" s="1">
         <v>43959</v>
       </c>
+      <c r="B88">
+        <v>260117</v>
+      </c>
+      <c r="C88">
+        <v>41774</v>
+      </c>
+      <c r="D88">
+        <v>215858</v>
+      </c>
+      <c r="E88">
+        <v>166091</v>
+      </c>
+      <c r="F88">
+        <v>137779</v>
+      </c>
+      <c r="G88">
+        <v>206715</v>
+      </c>
+      <c r="H88">
+        <v>1219066</v>
+      </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>43960</v>
       </c>
+      <c r="B89">
+        <v>262783</v>
+      </c>
+      <c r="C89">
+        <v>42093</v>
+      </c>
+      <c r="D89">
+        <v>217185</v>
+      </c>
+      <c r="E89">
+        <v>167300</v>
+      </c>
+      <c r="F89">
+        <v>138421</v>
+      </c>
+      <c r="G89">
+        <v>211364</v>
+      </c>
+      <c r="H89">
+        <v>1248040</v>
+      </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>43961</v>
       </c>
+      <c r="B90">
+        <v>264670</v>
+      </c>
+      <c r="C90">
+        <v>42382</v>
+      </c>
+      <c r="D90">
+        <v>218268</v>
+      </c>
+      <c r="E90">
+        <v>168551</v>
+      </c>
+      <c r="F90">
+        <v>138854</v>
+      </c>
+      <c r="G90">
+        <v>215260</v>
+      </c>
+      <c r="H90">
+        <v>1274036</v>
+      </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
@@ -19693,6 +19810,96 @@
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>43964</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>43965</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>43966</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>43967</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>43968</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>43969</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>43970</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>43971</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>43972</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>43973</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>43974</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>43975</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>43976</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>43977</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>43978</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>43979</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>43980</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>43981</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>43982</v>
       </c>
     </row>
   </sheetData>
@@ -19704,10 +19911,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C86610-CB55-4FA2-9727-343B46DC10BB}">
-  <dimension ref="A1:H93"/>
+  <dimension ref="A1:H111"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87:H87"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21400,7 +21607,7 @@
         <v>26070</v>
       </c>
       <c r="C87">
-        <v>25809</v>
+        <v>5204</v>
       </c>
       <c r="D87">
         <v>29684</v>
@@ -21422,16 +21629,79 @@
       <c r="A88" s="1">
         <v>43959</v>
       </c>
+      <c r="B88">
+        <v>26299</v>
+      </c>
+      <c r="C88">
+        <v>5288</v>
+      </c>
+      <c r="D88">
+        <v>29958</v>
+      </c>
+      <c r="E88">
+        <v>7119</v>
+      </c>
+      <c r="F88">
+        <v>25987</v>
+      </c>
+      <c r="G88">
+        <v>30615</v>
+      </c>
+      <c r="H88">
+        <v>73297</v>
+      </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>43960</v>
       </c>
+      <c r="B89">
+        <v>26478</v>
+      </c>
+      <c r="C89">
+        <v>5359</v>
+      </c>
+      <c r="D89">
+        <v>30201</v>
+      </c>
+      <c r="E89">
+        <v>7266</v>
+      </c>
+      <c r="F89">
+        <v>26230</v>
+      </c>
+      <c r="G89">
+        <v>31241</v>
+      </c>
+      <c r="H89">
+        <v>75477</v>
+      </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>43961</v>
       </c>
+      <c r="B90">
+        <v>26621</v>
+      </c>
+      <c r="C90">
+        <v>5422</v>
+      </c>
+      <c r="D90">
+        <v>30395</v>
+      </c>
+      <c r="E90">
+        <v>7369</v>
+      </c>
+      <c r="F90">
+        <v>26310</v>
+      </c>
+      <c r="G90">
+        <v>31587</v>
+      </c>
+      <c r="H90">
+        <v>77034</v>
+      </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
@@ -21446,6 +21716,96 @@
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>43964</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>43965</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>43966</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>43967</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>43968</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>43969</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>43970</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>43971</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>43972</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>43973</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>43974</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>43975</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>43976</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>43977</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>43978</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>43979</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>43980</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>43981</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>43982</v>
       </c>
     </row>
   </sheetData>

--- a/Sources/Paises.xlsx
+++ b/Sources/Paises.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\PowerBI_Covid\Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF184C4-8E37-412E-90CD-75EF09572BE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D9B7E7-9D1C-42B4-BC7B-92F478321138}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4050" yWindow="285" windowWidth="20490" windowHeight="15915" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4050" yWindow="285" windowWidth="20490" windowHeight="15915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Casos" sheetId="1" r:id="rId1"/>
@@ -15992,8 +15992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL111"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="A93" sqref="A93:A111"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91:H95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19801,25 +19801,130 @@
       <c r="A91" s="1">
         <v>43962</v>
       </c>
+      <c r="B91">
+        <v>268143</v>
+      </c>
+      <c r="C91">
+        <v>42627</v>
+      </c>
+      <c r="D91">
+        <v>219070</v>
+      </c>
+      <c r="E91">
+        <v>169218</v>
+      </c>
+      <c r="F91">
+        <v>139063</v>
+      </c>
+      <c r="G91">
+        <v>219183</v>
+      </c>
+      <c r="H91">
+        <v>1300696</v>
+      </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>43963</v>
       </c>
+      <c r="B92">
+        <v>269520</v>
+      </c>
+      <c r="C92">
+        <v>42788</v>
+      </c>
+      <c r="D92">
+        <v>219814</v>
+      </c>
+      <c r="E92">
+        <v>169575</v>
+      </c>
+      <c r="F92">
+        <v>139519</v>
+      </c>
+      <c r="G92">
+        <v>223060</v>
+      </c>
+      <c r="H92">
+        <v>1324488</v>
+      </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>43964</v>
       </c>
+      <c r="B93">
+        <v>271095</v>
+      </c>
+      <c r="C93">
+        <v>42984</v>
+      </c>
+      <c r="D93">
+        <v>221216</v>
+      </c>
+      <c r="E93">
+        <v>170508</v>
+      </c>
+      <c r="F93">
+        <v>140227</v>
+      </c>
+      <c r="G93">
+        <v>228691</v>
+      </c>
+      <c r="H93">
+        <v>1342594</v>
+      </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>43965</v>
       </c>
+      <c r="B94">
+        <v>272646</v>
+      </c>
+      <c r="C94">
+        <v>43211</v>
+      </c>
+      <c r="D94">
+        <v>222104</v>
+      </c>
+      <c r="E94">
+        <v>171306</v>
+      </c>
+      <c r="F94">
+        <v>140734</v>
+      </c>
+      <c r="G94">
+        <v>229705</v>
+      </c>
+      <c r="H94">
+        <v>1364061</v>
+      </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>43966</v>
+      </c>
+      <c r="B95">
+        <v>274367</v>
+      </c>
+      <c r="C95">
+        <v>43481</v>
+      </c>
+      <c r="D95">
+        <v>223096</v>
+      </c>
+      <c r="E95">
+        <v>172239</v>
+      </c>
+      <c r="F95">
+        <v>141356</v>
+      </c>
+      <c r="G95">
+        <v>233151</v>
+      </c>
+      <c r="H95">
+        <v>1384930</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -19913,8 +20018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C86610-CB55-4FA2-9727-343B46DC10BB}">
   <dimension ref="A1:H111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="F90" sqref="F90"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91:H95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21707,25 +21812,130 @@
       <c r="A91" s="1">
         <v>43962</v>
       </c>
+      <c r="B91">
+        <v>26744</v>
+      </c>
+      <c r="C91">
+        <v>5440</v>
+      </c>
+      <c r="D91">
+        <v>30560</v>
+      </c>
+      <c r="E91">
+        <v>7395</v>
+      </c>
+      <c r="F91">
+        <v>26380</v>
+      </c>
+      <c r="G91">
+        <v>31855</v>
+      </c>
+      <c r="H91">
+        <v>78771</v>
+      </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>43963</v>
       </c>
+      <c r="B92">
+        <v>26920</v>
+      </c>
+      <c r="C92">
+        <v>5456</v>
+      </c>
+      <c r="D92">
+        <v>30739</v>
+      </c>
+      <c r="E92">
+        <v>7417</v>
+      </c>
+      <c r="F92">
+        <v>26643</v>
+      </c>
+      <c r="G92">
+        <v>32065</v>
+      </c>
+      <c r="H92">
+        <v>79756</v>
+      </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>43964</v>
       </c>
+      <c r="B93">
+        <v>27104</v>
+      </c>
+      <c r="C93">
+        <v>5510</v>
+      </c>
+      <c r="D93">
+        <v>30911</v>
+      </c>
+      <c r="E93">
+        <v>7533</v>
+      </c>
+      <c r="F93">
+        <v>26991</v>
+      </c>
+      <c r="G93">
+        <v>32692</v>
+      </c>
+      <c r="H93">
+        <v>80820</v>
+      </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>43965</v>
       </c>
+      <c r="B94">
+        <v>27321</v>
+      </c>
+      <c r="C94">
+        <v>5562</v>
+      </c>
+      <c r="D94">
+        <v>31106</v>
+      </c>
+      <c r="E94">
+        <v>7634</v>
+      </c>
+      <c r="F94">
+        <v>27074</v>
+      </c>
+      <c r="G94">
+        <v>33186</v>
+      </c>
+      <c r="H94">
+        <v>82246</v>
+      </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>43966</v>
+      </c>
+      <c r="B95">
+        <v>27459</v>
+      </c>
+      <c r="C95">
+        <v>5590</v>
+      </c>
+      <c r="D95">
+        <v>31368</v>
+      </c>
+      <c r="E95">
+        <v>7723</v>
+      </c>
+      <c r="F95">
+        <v>27425</v>
+      </c>
+      <c r="G95">
+        <v>33614</v>
+      </c>
+      <c r="H95">
+        <v>83947</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">

--- a/Sources/Paises.xlsx
+++ b/Sources/Paises.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\PowerBI_Covid\Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D9B7E7-9D1C-42B4-BC7B-92F478321138}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166F9E62-9E34-47EA-84C8-B02472EC013D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4050" yWindow="285" windowWidth="20490" windowHeight="15915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4050" yWindow="285" windowWidth="20490" windowHeight="15915" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Casos" sheetId="1" r:id="rId1"/>
@@ -15992,8 +15992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91:H95"/>
+    <sheetView topLeftCell="A64" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="H96" sqref="H96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19931,78 +19931,120 @@
       <c r="A96" s="1">
         <v>43967</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <v>276505</v>
+      </c>
+      <c r="C96">
+        <v>43681</v>
+      </c>
+      <c r="D96">
+        <v>223885</v>
+      </c>
+      <c r="E96">
+        <v>173152</v>
+      </c>
+      <c r="F96">
+        <v>141919</v>
+      </c>
+      <c r="G96">
+        <v>236711</v>
+      </c>
+      <c r="H96">
+        <v>1412121</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>43968</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <v>277719</v>
+      </c>
+      <c r="C97">
+        <v>43870</v>
+      </c>
+      <c r="D97">
+        <v>224760</v>
+      </c>
+      <c r="E97">
+        <v>173772</v>
+      </c>
+      <c r="F97">
+        <v>142291</v>
+      </c>
+      <c r="G97">
+        <v>240161</v>
+      </c>
+      <c r="H97">
+        <v>1435098</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>43969</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>43970</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>43971</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>43972</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>43973</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>43974</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>43975</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>43976</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>43977</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>43978</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>43979</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>43980</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>43981</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>43982</v>
       </c>
@@ -20018,8 +20060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C86610-CB55-4FA2-9727-343B46DC10BB}">
   <dimension ref="A1:H111"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91:H95"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="G96" sqref="G96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21942,78 +21984,120 @@
       <c r="A96" s="1">
         <v>43967</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <v>27563</v>
+      </c>
+      <c r="C96">
+        <v>5643</v>
+      </c>
+      <c r="D96">
+        <v>31610</v>
+      </c>
+      <c r="E96">
+        <v>7824</v>
+      </c>
+      <c r="F96">
+        <v>27529</v>
+      </c>
+      <c r="G96">
+        <v>33998</v>
+      </c>
+      <c r="H96">
+        <v>85990</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>43968</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <v>27650</v>
+      </c>
+      <c r="C97">
+        <v>5670</v>
+      </c>
+      <c r="D97">
+        <v>31763</v>
+      </c>
+      <c r="E97">
+        <v>7881</v>
+      </c>
+      <c r="F97">
+        <v>27625</v>
+      </c>
+      <c r="G97">
+        <v>34466</v>
+      </c>
+      <c r="H97">
+        <v>87315</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>43969</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>43970</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>43971</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>43972</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>43973</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>43974</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>43975</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>43976</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>43977</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>43978</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>43979</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>43980</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>43981</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>43982</v>
       </c>

--- a/Sources/Paises.xlsx
+++ b/Sources/Paises.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\PowerBI_Covid\Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166F9E62-9E34-47EA-84C8-B02472EC013D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88EA886-0427-48B3-B189-C29AB0B5F710}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4050" yWindow="285" windowWidth="20490" windowHeight="15915" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4050" yWindow="285" windowWidth="20490" windowHeight="15915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Casos" sheetId="1" r:id="rId1"/>
@@ -15992,8 +15992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL111"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="H96" sqref="H96"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="H89" sqref="H89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19983,10 +19983,52 @@
       <c r="A98" s="1">
         <v>43969</v>
       </c>
+      <c r="B98">
+        <v>276550</v>
+      </c>
+      <c r="C98">
+        <v>43995</v>
+      </c>
+      <c r="D98">
+        <v>225435</v>
+      </c>
+      <c r="E98">
+        <v>174355</v>
+      </c>
+      <c r="F98">
+        <v>142411</v>
+      </c>
+      <c r="G98">
+        <v>243303</v>
+      </c>
+      <c r="H98">
+        <v>1467065</v>
+      </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>43970</v>
+      </c>
+      <c r="B99">
+        <v>277690</v>
+      </c>
+      <c r="C99">
+        <v>44141</v>
+      </c>
+      <c r="D99">
+        <v>225886</v>
+      </c>
+      <c r="E99">
+        <v>175210</v>
+      </c>
+      <c r="F99">
+        <v>142903</v>
+      </c>
+      <c r="G99">
+        <v>246406</v>
+      </c>
+      <c r="H99">
+        <v>1480349</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -20060,8 +20102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C86610-CB55-4FA2-9727-343B46DC10BB}">
   <dimension ref="A1:H111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="G96" sqref="G96"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22036,10 +22078,52 @@
       <c r="A98" s="1">
         <v>43969</v>
       </c>
+      <c r="B98">
+        <v>27709</v>
+      </c>
+      <c r="C98">
+        <v>5680</v>
+      </c>
+      <c r="D98">
+        <v>31908</v>
+      </c>
+      <c r="E98">
+        <v>7914</v>
+      </c>
+      <c r="F98">
+        <v>28108</v>
+      </c>
+      <c r="G98">
+        <v>34636</v>
+      </c>
+      <c r="H98">
+        <v>88709</v>
+      </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>43970</v>
+      </c>
+      <c r="B99">
+        <v>27778</v>
+      </c>
+      <c r="C99">
+        <v>5694</v>
+      </c>
+      <c r="D99">
+        <v>32007</v>
+      </c>
+      <c r="E99">
+        <v>8007</v>
+      </c>
+      <c r="F99">
+        <v>28239</v>
+      </c>
+      <c r="G99">
+        <v>34796</v>
+      </c>
+      <c r="H99">
+        <v>89407</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
